--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/🖥Programming/👨🏻‍💻Leet_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CD6820-7322-EC4F-A529-B422D3745C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0038878-6A6A-4071-97D1-090109192E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="8060" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="-15690" yWindow="3285" windowWidth="21600" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,22 @@
   </si>
   <si>
     <t>数组</t>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找规律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO SO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -137,22 +153,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,8 +241,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -549,32 +572,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -668,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="8">
         <v>100</v>
       </c>
@@ -697,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -744,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>101</v>
       </c>
@@ -773,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -820,7 +843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>107</v>
       </c>
@@ -867,7 +890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -914,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -927,7 +950,9 @@
       <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
@@ -959,7 +984,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>100</v>
+      </c>
+      <c r="I10" s="16">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12">
+        <v>60.1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="L10" s="12">
+        <v>87.1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>43840</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0038878-6A6A-4071-97D1-090109192E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C66BE-9D79-8342-BED7-2C73E5D4CEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15690" yWindow="3285" windowWidth="21600" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$O$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +149,81 @@
   <si>
     <t>NO SO</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数列找连续最大和</t>
+  </si>
+  <si>
+    <t>Array｜Dynamic Programming</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Array｜Greedy</t>
+  </si>
+  <si>
+    <t>找所有差为正的和</t>
+  </si>
+  <si>
+    <t>Valid Palindrome    </t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>缩小和翻转对比</t>
+  </si>
+  <si>
+    <t>Two Pointers｜String</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Hash Table｜Bit Manipulation</t>
+  </si>
+  <si>
+    <t>sort过后，找非重复</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Linked List｜Two Pointers</t>
+  </si>
+  <si>
+    <t>hashed set</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Stack｜Design</t>
+  </si>
+  <si>
+    <t>自己实现的list</t>
+  </si>
+  <si>
+    <t>method2.cpp</t>
+  </si>
+  <si>
+    <t>STL Stack</t>
   </si>
 </sst>
 </file>
@@ -153,27 +231,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,8 +319,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -572,32 +650,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.875" style="1"/>
+    <col min="11" max="11" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -644,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -691,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>100</v>
       </c>
@@ -720,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -767,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>101</v>
       </c>
@@ -796,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -843,7 +921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>107</v>
       </c>
@@ -890,7 +968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -937,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -984,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1031,7 +1109,313 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12">
+        <v>98.53</v>
+      </c>
+      <c r="I11" s="16">
+        <v>8</v>
+      </c>
+      <c r="J11" s="12">
+        <v>68.2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="L11" s="12">
+        <v>72.48</v>
+      </c>
+      <c r="M11" s="6">
+        <v>43840</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="16">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12">
+        <v>98.12</v>
+      </c>
+      <c r="I12" s="16">
+        <v>8</v>
+      </c>
+      <c r="J12" s="12">
+        <v>61.34</v>
+      </c>
+      <c r="K12" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="L12" s="12">
+        <v>63.49</v>
+      </c>
+      <c r="M12" s="6">
+        <v>43840</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12">
+        <v>85.49</v>
+      </c>
+      <c r="I13" s="16">
+        <v>8</v>
+      </c>
+      <c r="J13" s="12">
+        <v>85.49</v>
+      </c>
+      <c r="K13" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>6.12</v>
+      </c>
+      <c r="M13" s="6">
+        <v>43840</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="16">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="I14" s="16">
+        <v>20</v>
+      </c>
+      <c r="J14" s="12">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="K14" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L14" s="12">
+        <v>69.14</v>
+      </c>
+      <c r="M14" s="6">
+        <v>43840</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>141</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="16">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12">
+        <v>17.96</v>
+      </c>
+      <c r="I15" s="16">
+        <v>24</v>
+      </c>
+      <c r="J15" s="12">
+        <v>7.86</v>
+      </c>
+      <c r="K15" s="16">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L15" s="12">
+        <v>5.26</v>
+      </c>
+      <c r="M15" s="6">
+        <v>43841</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="6">
+        <v>43841</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="6">
+        <v>43841</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:O11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C66BE-9D79-8342-BED7-2C73E5D4CEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC75F37-AF59-4199-9167-A4617310D770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="510" yWindow="2460" windowWidth="21600" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -230,28 +230,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,15 +313,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -336,6 +337,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,29 +658,29 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -706,7 +711,7 @@
       <c r="J1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -722,7 +727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -753,7 +758,7 @@
       <c r="J2" s="12">
         <v>58.96</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="22">
         <v>9.8000000000000007</v>
       </c>
       <c r="L2" s="12">
@@ -769,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="8">
         <v>100</v>
       </c>
@@ -790,7 +795,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="17"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="13"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -798,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -829,7 +834,7 @@
       <c r="J4" s="12">
         <v>84.33</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="22">
         <v>14.8</v>
       </c>
       <c r="L4" s="12">
@@ -845,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>101</v>
       </c>
@@ -866,7 +871,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="17"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="13"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -874,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -905,7 +910,7 @@
       <c r="J6" s="12">
         <v>58.66</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="22">
         <v>19.5</v>
       </c>
       <c r="L6" s="12">
@@ -921,7 +926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>107</v>
       </c>
@@ -952,7 +957,7 @@
       <c r="J7" s="12">
         <v>65.25</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="22">
         <v>15</v>
       </c>
       <c r="L7" s="12">
@@ -968,7 +973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -999,7 +1004,7 @@
       <c r="J8" s="12">
         <v>41.85</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="22">
         <v>19.8</v>
       </c>
       <c r="L8" s="12">
@@ -1015,7 +1020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1051,7 @@
       <c r="J9" s="12">
         <v>100</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="22">
         <v>8.6999999999999993</v>
       </c>
       <c r="L9" s="12">
@@ -1062,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1098,7 @@
       <c r="J10" s="12">
         <v>60.1</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="22">
         <v>8.5</v>
       </c>
       <c r="L10" s="12">
@@ -1109,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1140,7 +1145,7 @@
       <c r="J11" s="12">
         <v>68.2</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="22">
         <v>9.6</v>
       </c>
       <c r="L11" s="12">
@@ -1156,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -1187,7 +1192,7 @@
       <c r="J12" s="12">
         <v>61.34</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="22">
         <v>9.6</v>
       </c>
       <c r="L12" s="12">
@@ -1203,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1234,7 +1239,7 @@
       <c r="J13" s="12">
         <v>85.49</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="22">
         <v>10.1</v>
       </c>
       <c r="L13" s="12">
@@ -1250,7 +1255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -1281,7 +1286,7 @@
       <c r="J14" s="12">
         <v>37.659999999999997</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="22">
         <v>9.8000000000000007</v>
       </c>
       <c r="L14" s="12">
@@ -1297,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>141</v>
       </c>
@@ -1328,7 +1333,7 @@
       <c r="J15" s="12">
         <v>7.86</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="22">
         <v>16.600000000000001</v>
       </c>
       <c r="L15" s="12">
@@ -1344,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
@@ -1363,12 +1368,24 @@
       <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="12"/>
+      <c r="G16" s="16">
+        <v>220</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I16" s="16">
+        <v>220</v>
+      </c>
+      <c r="J16" s="12">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="K16" s="22">
+        <v>17.3</v>
+      </c>
+      <c r="L16" s="12">
+        <v>5.45</v>
+      </c>
       <c r="M16" s="6">
         <v>43841</v>
       </c>
@@ -1379,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
@@ -1398,12 +1415,24 @@
       <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="12"/>
+      <c r="G17" s="16">
+        <v>204</v>
+      </c>
+      <c r="H17" s="12">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I17" s="16">
+        <v>216</v>
+      </c>
+      <c r="J17" s="12">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="K17" s="22">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L17" s="12">
+        <v>72.73</v>
+      </c>
       <c r="M17" s="6">
         <v>43841</v>
       </c>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC75F37-AF59-4199-9167-A4617310D770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D04F7C-5C2E-417F-A25B-7CA8725E9D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2460" windowWidth="21600" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="6360" yWindow="3465" windowWidth="21600" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,74 @@
   </si>
   <si>
     <t>STL Stack</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input array is sorted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack｜Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array｜Two Pointers｜Binary Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边缩小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>167</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Sheet Column Title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>168</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Majority Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>169</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array｜Divide and Conquer｜Bit Manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序取一半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>171</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Sheet Column Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method1.cpp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿照二进制换算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -655,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -666,7 +734,7 @@
     <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.625" style="18" bestFit="1" customWidth="1"/>
@@ -1407,7 +1475,7 @@
         <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>61</v>
@@ -1441,6 +1509,194 @@
       </c>
       <c r="O17" s="20" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="16">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12">
+        <v>96.78</v>
+      </c>
+      <c r="I18" s="16">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12">
+        <v>96.78</v>
+      </c>
+      <c r="K18" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="L18" s="12">
+        <v>78.430000000000007</v>
+      </c>
+      <c r="M18" s="6">
+        <v>43841</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>100</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>100</v>
+      </c>
+      <c r="K19" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L19" s="12">
+        <v>63.64</v>
+      </c>
+      <c r="M19" s="6">
+        <v>43841</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="16">
+        <v>24</v>
+      </c>
+      <c r="H20" s="12">
+        <v>49.02</v>
+      </c>
+      <c r="I20" s="16">
+        <v>28</v>
+      </c>
+      <c r="J20" s="12">
+        <v>26.93</v>
+      </c>
+      <c r="K20" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="L20" s="12">
+        <v>100</v>
+      </c>
+      <c r="M20" s="6">
+        <v>43841</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.9472222222222223</v>
+      </c>
+      <c r="O20" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>100</v>
+      </c>
+      <c r="I21" s="16">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12">
+        <v>72.58</v>
+      </c>
+      <c r="K21" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L21" s="12">
+        <v>55.1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>43841</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D04F7C-5C2E-417F-A25B-7CA8725E9D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3FE10-F0CA-44B9-BED0-3558FC24A7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3465" windowWidth="21600" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5325" yWindow="3570" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -291,6 +291,30 @@
   </si>
   <si>
     <t>仿照二进制换算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数组合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method2.cpp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做数组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1699,6 +1723,100 @@
         <v>36</v>
       </c>
     </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="16">
+        <v>20</v>
+      </c>
+      <c r="H22" s="12">
+        <v>39.11</v>
+      </c>
+      <c r="I22" s="16">
+        <v>28</v>
+      </c>
+      <c r="J22" s="12">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="K22" s="22">
+        <v>9.9</v>
+      </c>
+      <c r="L22" s="12">
+        <v>13.89</v>
+      </c>
+      <c r="M22" s="6">
+        <v>43842</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="O22" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="16">
+        <v>16</v>
+      </c>
+      <c r="H23" s="12">
+        <v>86.74</v>
+      </c>
+      <c r="I23" s="16">
+        <v>20</v>
+      </c>
+      <c r="J23" s="12">
+        <v>39.11</v>
+      </c>
+      <c r="K23" s="22">
+        <v>9.9</v>
+      </c>
+      <c r="L23" s="12">
+        <v>13.89</v>
+      </c>
+      <c r="M23" s="6">
+        <v>43842</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="O23" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3FE10-F0CA-44B9-BED0-3558FC24A7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE43C1-D1BD-4B81-89BB-C3B660BA6840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="3570" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="7740" yWindow="900" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -315,6 +315,38 @@
   </si>
   <si>
     <t>重做数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1317</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Integer to the Sum of Two No-Zero Integers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步进标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>367</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math｜Binary Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法注意上边界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -747,16 +779,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="10" bestFit="1" customWidth="1"/>
@@ -768,7 +800,7 @@
     <col min="11" max="11" width="13.125" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.875" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
@@ -1817,6 +1849,100 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>100</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>100</v>
+      </c>
+      <c r="K24" s="22">
+        <v>8.4</v>
+      </c>
+      <c r="L24" s="12">
+        <v>100</v>
+      </c>
+      <c r="M24" s="6">
+        <v>43842</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="16">
+        <v>4</v>
+      </c>
+      <c r="H25" s="12">
+        <v>51.83</v>
+      </c>
+      <c r="I25" s="16">
+        <v>4</v>
+      </c>
+      <c r="J25" s="12">
+        <v>51.83</v>
+      </c>
+      <c r="K25" s="22">
+        <v>8</v>
+      </c>
+      <c r="L25" s="12">
+        <v>95.24</v>
+      </c>
+      <c r="M25" s="6">
+        <v>43842</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE43C1-D1BD-4B81-89BB-C3B660BA6840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262EF9F0-ED17-344E-BD85-724285F9013D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="900" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -348,6 +348,30 @@
   <si>
     <t>LOCK</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>纯stl操作，使用set vowel，包括查询等</t>
+  </si>
+  <si>
+    <t>使用原始比较操作</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>&lt;algorithm&gt; reverse</t>
+  </si>
+  <si>
+    <t>exchange mirrorly with middle pivot</t>
   </si>
 </sst>
 </file>
@@ -355,28 +379,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -444,8 +468,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -461,10 +485,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,32 +803,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.875" style="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -851,7 +875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -898,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>100</v>
       </c>
@@ -927,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -974,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>101</v>
       </c>
@@ -1003,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>107</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1191,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1285,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -1332,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1379,7 +1403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -1426,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>141</v>
       </c>
@@ -1473,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
@@ -1520,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
@@ -1567,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
@@ -1614,7 +1638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1661,7 +1685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
@@ -1708,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
@@ -1755,7 +1779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>82</v>
       </c>
@@ -1802,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -1896,7 +1920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
@@ -1941,6 +1965,194 @@
       </c>
       <c r="O25" s="20" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16">
+        <v>12</v>
+      </c>
+      <c r="H26" s="12">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="I26" s="16">
+        <v>12</v>
+      </c>
+      <c r="J26" s="12">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="K26" s="22">
+        <v>11.2</v>
+      </c>
+      <c r="L26" s="12">
+        <v>6.06</v>
+      </c>
+      <c r="M26" s="6">
+        <v>43843</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="16">
+        <v>4</v>
+      </c>
+      <c r="H27" s="12">
+        <v>99.61</v>
+      </c>
+      <c r="I27" s="16">
+        <v>12</v>
+      </c>
+      <c r="J27" s="12">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="K27" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="L27" s="12">
+        <v>6.06</v>
+      </c>
+      <c r="M27" s="6">
+        <v>43843</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="16">
+        <v>44</v>
+      </c>
+      <c r="H28" s="12">
+        <v>93.18</v>
+      </c>
+      <c r="I28" s="16">
+        <v>48</v>
+      </c>
+      <c r="J28" s="12">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="K28" s="22">
+        <v>15.2</v>
+      </c>
+      <c r="L28" s="12">
+        <v>84.15</v>
+      </c>
+      <c r="M28" s="6">
+        <v>43843</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="O28" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16">
+        <v>44</v>
+      </c>
+      <c r="H29" s="12">
+        <v>93.18</v>
+      </c>
+      <c r="I29" s="16">
+        <v>48</v>
+      </c>
+      <c r="J29" s="12">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="K29" s="22">
+        <v>15.2</v>
+      </c>
+      <c r="L29" s="12">
+        <v>84.15</v>
+      </c>
+      <c r="M29" s="6">
+        <v>43843</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="O29" s="20" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262EF9F0-ED17-344E-BD85-724285F9013D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751984A6-EA71-374A-B4E6-81B46C1EE199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="-340" yWindow="1020" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$O$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -372,6 +372,63 @@
   </si>
   <si>
     <t>exchange mirrorly with middle pivot</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>没什么好说的</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>map的使用</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Two Numbers    </t>
+  </si>
+  <si>
+    <t>Linked List｜Math</t>
+  </si>
+  <si>
+    <t>注意进位</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>MIDD</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>找规律</t>
   </si>
 </sst>
 </file>
@@ -803,1360 +860,1644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>100</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
         <v>100</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <v>4</v>
       </c>
-      <c r="J2" s="12">
+      <c r="K2" s="12">
         <v>58.96</v>
       </c>
-      <c r="K2" s="22">
+      <c r="L2" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>83.33</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>43839</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20" t="b">
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>100</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="20" t="b">
+      <c r="O3" s="9"/>
+      <c r="P3" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
         <v>100</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <v>4</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <v>84.33</v>
       </c>
-      <c r="K4" s="22">
+      <c r="L4" s="22">
         <v>14.8</v>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="12">
         <v>61.02</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>43839</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20" t="b">
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>101</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="9"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="20" t="b">
+      <c r="O5" s="9"/>
+      <c r="P5" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="16">
         <v>8</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>88.49</v>
       </c>
-      <c r="I6" s="16">
+      <c r="J6" s="16">
         <v>12</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>58.66</v>
       </c>
-      <c r="K6" s="22">
+      <c r="L6" s="22">
         <v>19.5</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>63.74</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>43839</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>107</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="16">
         <v>8</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>65.25</v>
       </c>
-      <c r="I7" s="16">
+      <c r="J7" s="16">
         <v>8</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>65.25</v>
       </c>
-      <c r="K7" s="22">
+      <c r="L7" s="22">
         <v>15</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>5.41</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>43839</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16">
         <v>8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>96.4</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="16">
         <v>16</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>41.85</v>
       </c>
-      <c r="K8" s="22">
+      <c r="L8" s="22">
         <v>19.8</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>97.92</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>43840</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
         <v>100</v>
       </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
         <v>100</v>
       </c>
-      <c r="K9" s="22">
+      <c r="L9" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <v>96.3</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>43840</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
         <v>100</v>
       </c>
-      <c r="I10" s="16">
+      <c r="J10" s="16">
         <v>4</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <v>60.1</v>
       </c>
-      <c r="K10" s="22">
+      <c r="L10" s="22">
         <v>8.5</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <v>87.1</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>43840</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="16">
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="16">
         <v>4</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>98.53</v>
       </c>
-      <c r="I11" s="16">
+      <c r="J11" s="16">
         <v>8</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <v>68.2</v>
       </c>
-      <c r="K11" s="22">
+      <c r="L11" s="22">
         <v>9.6</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <v>72.48</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>43840</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="16">
         <v>4</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="12">
         <v>98.12</v>
       </c>
-      <c r="I12" s="16">
+      <c r="J12" s="16">
         <v>8</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="12">
         <v>61.34</v>
       </c>
-      <c r="K12" s="22">
+      <c r="L12" s="22">
         <v>9.6</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <v>63.49</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>43840</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="16">
         <v>8</v>
       </c>
-      <c r="H13" s="12">
+      <c r="I13" s="12">
         <v>85.49</v>
       </c>
-      <c r="I13" s="16">
+      <c r="J13" s="16">
         <v>8</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <v>85.49</v>
       </c>
-      <c r="K13" s="22">
+      <c r="L13" s="22">
         <v>10.1</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="12">
         <v>6.12</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>43840</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="16">
         <v>20</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>37.659999999999997</v>
       </c>
-      <c r="I14" s="16">
+      <c r="J14" s="16">
         <v>20</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <v>37.659999999999997</v>
       </c>
-      <c r="K14" s="22">
+      <c r="L14" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12">
         <v>69.14</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>43840</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>141</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="16">
         <v>20</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <v>17.96</v>
       </c>
-      <c r="I15" s="16">
+      <c r="J15" s="16">
         <v>24</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>7.86</v>
       </c>
-      <c r="K15" s="22">
+      <c r="L15" s="22">
         <v>16.600000000000001</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="12">
         <v>5.26</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>43841</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="16">
         <v>220</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I16" s="16">
+      <c r="J16" s="16">
         <v>220</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="K16" s="22">
+      <c r="L16" s="22">
         <v>17.3</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <v>5.45</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>43841</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="16">
         <v>204</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I17" s="16">
+      <c r="J17" s="16">
         <v>216</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="K17" s="22">
+      <c r="L17" s="22">
         <v>16.899999999999999</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <v>72.73</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <v>43841</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="16">
         <v>4</v>
       </c>
-      <c r="H18" s="12">
+      <c r="I18" s="12">
         <v>96.78</v>
       </c>
-      <c r="I18" s="16">
+      <c r="J18" s="16">
         <v>4</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <v>96.78</v>
       </c>
-      <c r="K18" s="22">
+      <c r="L18" s="22">
         <v>9.5</v>
       </c>
-      <c r="L18" s="12">
+      <c r="M18" s="12">
         <v>78.430000000000007</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>43841</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="P18" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
         <v>100</v>
       </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
         <v>100</v>
       </c>
-      <c r="K19" s="22">
+      <c r="L19" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <v>63.64</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>43841</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>0.93819444444444444</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="P19" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="16">
         <v>24</v>
       </c>
-      <c r="H20" s="12">
+      <c r="I20" s="12">
         <v>49.02</v>
       </c>
-      <c r="I20" s="16">
+      <c r="J20" s="16">
         <v>28</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <v>26.93</v>
       </c>
-      <c r="K20" s="22">
+      <c r="L20" s="22">
         <v>10.9</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M20" s="12">
         <v>100</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>43841</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>0.9472222222222223</v>
       </c>
-      <c r="O20" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12">
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
         <v>100</v>
       </c>
-      <c r="I21" s="16">
+      <c r="J21" s="16">
         <v>4</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <v>72.58</v>
       </c>
-      <c r="K21" s="22">
+      <c r="L21" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12">
         <v>55.1</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>43841</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>0.96111111111111114</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="P21" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="16">
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="16">
         <v>20</v>
       </c>
-      <c r="H22" s="12">
+      <c r="I22" s="12">
         <v>39.11</v>
       </c>
-      <c r="I22" s="16">
+      <c r="J22" s="16">
         <v>28</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <v>17.239999999999998</v>
       </c>
-      <c r="K22" s="22">
+      <c r="L22" s="22">
         <v>9.9</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M22" s="12">
         <v>13.89</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>43842</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>0.12569444444444444</v>
       </c>
-      <c r="O22" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="16">
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="16">
         <v>16</v>
       </c>
-      <c r="H23" s="12">
+      <c r="I23" s="12">
         <v>86.74</v>
       </c>
-      <c r="I23" s="16">
+      <c r="J23" s="16">
         <v>20</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="12">
         <v>39.11</v>
       </c>
-      <c r="K23" s="22">
+      <c r="L23" s="22">
         <v>9.9</v>
       </c>
-      <c r="L23" s="12">
+      <c r="M23" s="12">
         <v>13.89</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>43842</v>
       </c>
-      <c r="N23" s="7">
+      <c r="O23" s="7">
         <v>0.12569444444444444</v>
       </c>
-      <c r="O23" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
         <v>100</v>
       </c>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
         <v>100</v>
       </c>
-      <c r="K24" s="22">
+      <c r="L24" s="22">
         <v>8.4</v>
       </c>
-      <c r="L24" s="12">
+      <c r="M24" s="12">
         <v>100</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <v>43842</v>
       </c>
-      <c r="N24" s="7">
+      <c r="O24" s="7">
         <v>0.6333333333333333</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="P24" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="16">
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="16">
         <v>4</v>
       </c>
-      <c r="H25" s="12">
+      <c r="I25" s="12">
         <v>51.83</v>
       </c>
-      <c r="I25" s="16">
+      <c r="J25" s="16">
         <v>4</v>
       </c>
-      <c r="J25" s="12">
+      <c r="K25" s="12">
         <v>51.83</v>
       </c>
-      <c r="K25" s="22">
+      <c r="L25" s="22">
         <v>8</v>
       </c>
-      <c r="L25" s="12">
+      <c r="M25" s="12">
         <v>95.24</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>43842</v>
       </c>
-      <c r="N25" s="7">
+      <c r="O25" s="7">
         <v>0.66041666666666665</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="P25" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="16">
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="16">
         <v>12</v>
       </c>
-      <c r="H26" s="12">
+      <c r="I26" s="12">
         <v>65.180000000000007</v>
       </c>
-      <c r="I26" s="16">
+      <c r="J26" s="16">
         <v>12</v>
       </c>
-      <c r="J26" s="12">
+      <c r="K26" s="12">
         <v>65.180000000000007</v>
       </c>
-      <c r="K26" s="22">
+      <c r="L26" s="22">
         <v>11.2</v>
       </c>
-      <c r="L26" s="12">
+      <c r="M26" s="12">
         <v>6.06</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>43843</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>0.57638888888888895</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="P26" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="16">
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="16">
         <v>4</v>
       </c>
-      <c r="H27" s="12">
+      <c r="I27" s="12">
         <v>99.61</v>
       </c>
-      <c r="I27" s="16">
+      <c r="J27" s="16">
         <v>12</v>
       </c>
-      <c r="J27" s="12">
+      <c r="K27" s="12">
         <v>65.180000000000007</v>
       </c>
-      <c r="K27" s="22">
+      <c r="L27" s="22">
         <v>10.9</v>
       </c>
-      <c r="L27" s="12">
+      <c r="M27" s="12">
         <v>6.06</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>43843</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>0.57638888888888895</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="P27" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="16">
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="16">
         <v>44</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="12">
         <v>93.18</v>
       </c>
-      <c r="I28" s="16">
+      <c r="J28" s="16">
         <v>48</v>
       </c>
-      <c r="J28" s="12">
+      <c r="K28" s="12">
         <v>76.040000000000006</v>
       </c>
-      <c r="K28" s="22">
+      <c r="L28" s="22">
         <v>15.2</v>
       </c>
-      <c r="L28" s="12">
+      <c r="M28" s="12">
         <v>84.15</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>43843</v>
       </c>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>0.7895833333333333</v>
       </c>
-      <c r="O28" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="16">
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="16">
         <v>44</v>
       </c>
-      <c r="H29" s="12">
+      <c r="I29" s="12">
         <v>93.18</v>
       </c>
-      <c r="I29" s="16">
+      <c r="J29" s="16">
         <v>48</v>
       </c>
-      <c r="J29" s="12">
+      <c r="K29" s="12">
         <v>76.040000000000006</v>
       </c>
-      <c r="K29" s="22">
+      <c r="L29" s="22">
         <v>15.2</v>
       </c>
-      <c r="L29" s="12">
+      <c r="M29" s="12">
         <v>84.15</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>43843</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>0.7895833333333333</v>
       </c>
-      <c r="O29" s="20" t="b">
+      <c r="P29" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="16">
+        <v>172</v>
+      </c>
+      <c r="I30" s="12">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="J30" s="16">
+        <v>172</v>
+      </c>
+      <c r="K30" s="12">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="L30" s="22">
+        <v>17.2</v>
+      </c>
+      <c r="M30" s="12">
+        <v>79.31</v>
+      </c>
+      <c r="N30" s="6">
+        <v>43844</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="P30" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="16">
+        <v>12</v>
+      </c>
+      <c r="I31" s="12">
+        <v>16.43</v>
+      </c>
+      <c r="J31" s="16">
+        <v>12</v>
+      </c>
+      <c r="K31" s="12">
+        <v>16.43</v>
+      </c>
+      <c r="L31" s="22">
+        <v>9</v>
+      </c>
+      <c r="M31" s="12">
+        <v>61.54</v>
+      </c>
+      <c r="N31" s="6">
+        <v>43844</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="16">
+        <v>24</v>
+      </c>
+      <c r="I32" s="12">
+        <v>66.91</v>
+      </c>
+      <c r="J32" s="16">
+        <v>32</v>
+      </c>
+      <c r="K32" s="12">
+        <v>10.86</v>
+      </c>
+      <c r="L32" s="22">
+        <v>11.8</v>
+      </c>
+      <c r="M32" s="12">
+        <v>5.14</v>
+      </c>
+      <c r="N32" s="6">
+        <v>43844</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="P32" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="16">
+        <v>8</v>
+      </c>
+      <c r="I33" s="12">
+        <v>94.12</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M33" s="12">
+        <v>92.59</v>
+      </c>
+      <c r="N33" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="P33" s="20" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
+  <autoFilter ref="A1:P11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751984A6-EA71-374A-B4E6-81B46C1EE199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17C85C-D30E-3D4B-AA48-5E43C7E1A87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="1020" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="1920" yWindow="2120" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -429,6 +429,18 @@
   </si>
   <si>
     <t>找规律</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>大神解法</t>
   </si>
 </sst>
 </file>
@@ -860,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2496,6 +2508,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="16">
+        <v>12</v>
+      </c>
+      <c r="I34" s="12">
+        <v>85.76</v>
+      </c>
+      <c r="J34" s="16">
+        <v>12</v>
+      </c>
+      <c r="K34" s="12">
+        <v>85.76</v>
+      </c>
+      <c r="L34" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="M34" s="12">
+        <v>90.48</v>
+      </c>
+      <c r="N34" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O34" s="7">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="P34" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="16">
+        <v>12</v>
+      </c>
+      <c r="I35" s="12">
+        <v>85.76</v>
+      </c>
+      <c r="J35" s="16">
+        <v>12</v>
+      </c>
+      <c r="K35" s="12">
+        <v>85.76</v>
+      </c>
+      <c r="L35" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="M35" s="12">
+        <v>90.48</v>
+      </c>
+      <c r="N35" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O35" s="7">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="P35" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17C85C-D30E-3D4B-AA48-5E43C7E1A87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9105D1-CA6F-DC4A-A8C5-E45D73CE0ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2120" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="10920" yWindow="1380" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
   <si>
     <t>Date</t>
   </si>
@@ -108,24 +108,15 @@
     <t>Maximum Depth of Binary Tree</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>Binary Tree Level Order Traversal II</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>Path Sum</t>
   </si>
   <si>
     <t>Pascal's Triangle</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>LeetCode</t>
   </si>
   <si>
@@ -133,10 +124,6 @@
   </si>
   <si>
     <t>数组</t>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pascal's Triangle II</t>
@@ -157,15 +144,9 @@
     <t>Array｜Dynamic Programming</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>Best Time to Buy and Sell Stock</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>Best Time to Buy and Sell Stock II</t>
   </si>
   <si>
@@ -178,9 +159,6 @@
     <t>Valid Palindrome    </t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>缩小和翻转对比</t>
   </si>
   <si>
@@ -190,9 +168,6 @@
     <t>Single Number</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
     <t>Hash Table｜Bit Manipulation</t>
   </si>
   <si>
@@ -206,9 +181,6 @@
   </si>
   <si>
     <t>hashed set</t>
-  </si>
-  <si>
-    <t>151</t>
   </si>
   <si>
     <t>Min Stack</t>
@@ -242,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>167</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Excel Sheet Column Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -258,18 +226,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>168</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Majority Element</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>169</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Array｜Divide and Conquer｜Bit Manipulation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,10 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>171</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Excel Sheet Column Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -306,10 +262,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>189</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>method2.cpp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -330,10 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>367</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Valid Perfect Square</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -350,9 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>345</t>
-  </si>
-  <si>
     <t>Reverse Vowels of a String</t>
   </si>
   <si>
@@ -362,9 +307,6 @@
     <t>使用原始比较操作</t>
   </si>
   <si>
-    <t>344</t>
-  </si>
-  <si>
     <t>Reverse String</t>
   </si>
   <si>
@@ -374,9 +316,6 @@
     <t>exchange mirrorly with middle pivot</t>
   </si>
   <si>
-    <t>303</t>
-  </si>
-  <si>
     <t>Range Sum Query - Immutable</t>
   </si>
   <si>
@@ -392,15 +331,9 @@
     <t>Bulls and Cows</t>
   </si>
   <si>
-    <t>299</t>
-  </si>
-  <si>
     <t>map的使用</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Two Numbers    </t>
   </si>
   <si>
@@ -419,9 +352,6 @@
     <t>MIDD</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>ZigZag Conversion</t>
   </si>
   <si>
@@ -434,13 +364,94 @@
     <t>Power of Three</t>
   </si>
   <si>
-    <t>326</t>
-  </si>
-  <si>
     <t>Math</t>
   </si>
   <si>
     <t>大神解法</t>
+  </si>
+  <si>
+    <t>Power of Four</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0367</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>0344</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>0299</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0326</t>
+  </si>
+  <si>
+    <t>0342</t>
   </si>
 </sst>
 </file>
@@ -872,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -945,15 +956,15 @@
         <v>1</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>100</v>
+      <c r="A2" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -999,11 +1010,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>100</v>
+      <c r="A3" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -1031,11 +1042,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>101</v>
+      <c r="A4" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -1081,11 +1092,11 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>101</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>21</v>
@@ -1114,10 +1125,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1159,18 +1170,18 @@
         <v>0</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>107</v>
+      <c r="A7" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -1209,18 +1220,18 @@
         <v>0</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -1259,27 +1270,27 @@
         <v>0</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -1314,22 +1325,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -1359,27 +1370,27 @@
         <v>0</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>13</v>
@@ -1414,22 +1425,22 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
@@ -1464,22 +1475,22 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
@@ -1509,27 +1520,27 @@
         <v>0</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>13</v>
@@ -1563,23 +1574,23 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>141</v>
+      <c r="A15" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>13</v>
@@ -1614,22 +1625,22 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>13</v>
@@ -1664,22 +1675,22 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>13</v>
@@ -1714,22 +1725,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>13</v>
@@ -1759,27 +1770,27 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>13</v>
@@ -1809,27 +1820,27 @@
         <v>0.93819444444444444</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>13</v>
@@ -1864,22 +1875,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>13</v>
@@ -1909,27 +1920,27 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>13</v>
@@ -1964,22 +1975,22 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>13</v>
@@ -2014,22 +2025,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>13</v>
@@ -2059,27 +2070,27 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -2109,27 +2120,27 @@
         <v>0.66041666666666665</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>13</v>
@@ -2159,27 +2170,27 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>13</v>
@@ -2209,27 +2220,27 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>13</v>
@@ -2264,22 +2275,22 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
@@ -2314,22 +2325,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>13</v>
@@ -2364,22 +2375,22 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>13</v>
@@ -2409,27 +2420,27 @@
         <v>0.5805555555555556</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>13</v>
@@ -2464,22 +2475,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>13</v>
@@ -2490,8 +2501,12 @@
       <c r="I33" s="12">
         <v>94.12</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="12"/>
+      <c r="J33" s="16">
+        <v>8</v>
+      </c>
+      <c r="K33" s="12">
+        <v>94.12</v>
+      </c>
       <c r="L33" s="22">
         <v>10.199999999999999</v>
       </c>
@@ -2510,31 +2525,31 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I34" s="12">
-        <v>85.76</v>
+        <v>95.51</v>
       </c>
       <c r="J34" s="16">
         <v>12</v>
@@ -2560,31 +2575,31 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I35" s="12">
-        <v>85.76</v>
+        <v>95.51</v>
       </c>
       <c r="J35" s="16">
         <v>12</v>
@@ -2605,6 +2620,106 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="P35" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="16">
+        <v>4</v>
+      </c>
+      <c r="I36" s="12">
+        <v>57.09</v>
+      </c>
+      <c r="J36" s="16">
+        <v>4</v>
+      </c>
+      <c r="K36" s="12">
+        <v>57.09</v>
+      </c>
+      <c r="L36" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="M36" s="12">
+        <v>85.71</v>
+      </c>
+      <c r="N36" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O36" s="7">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="P36" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="16">
+        <v>4</v>
+      </c>
+      <c r="I37" s="12">
+        <v>57.09</v>
+      </c>
+      <c r="J37" s="16">
+        <v>4</v>
+      </c>
+      <c r="K37" s="12">
+        <v>57.09</v>
+      </c>
+      <c r="L37" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="M37" s="12">
+        <v>85.71</v>
+      </c>
+      <c r="N37" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O37" s="7">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="P37" s="20" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9105D1-CA6F-DC4A-A8C5-E45D73CE0ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C165AB1-0FD3-7942-BC4A-C130F85432CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1380" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5060" yWindow="3260" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -452,6 +452,63 @@
   </si>
   <si>
     <t>0342</t>
+  </si>
+  <si>
+    <t>0292</t>
+  </si>
+  <si>
+    <t>Nim Game</t>
+  </si>
+  <si>
+    <t>Brainteaser｜Minimax</t>
+  </si>
+  <si>
+    <t>0283</t>
+  </si>
+  <si>
+    <t>Move Zeros</t>
+  </si>
+  <si>
+    <t>Array｜Two Pointers</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>0278</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>int 可能会overflow 转 long</t>
+  </si>
+  <si>
+    <t>大神 int 不overflow方法</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Array｜Math｜Bit Manipulation</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>sort后，查找</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>Ugly Number</t>
+  </si>
+  <si>
+    <t>too easy..</t>
   </si>
 </sst>
 </file>
@@ -883,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2723,6 +2780,356 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>100</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>100</v>
+      </c>
+      <c r="L38" s="22">
+        <v>8</v>
+      </c>
+      <c r="M38" s="12">
+        <v>83.33</v>
+      </c>
+      <c r="N38" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O38" s="7">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="P38" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="16">
+        <v>12</v>
+      </c>
+      <c r="I39" s="12">
+        <v>97.15</v>
+      </c>
+      <c r="J39" s="16">
+        <v>12</v>
+      </c>
+      <c r="K39" s="12">
+        <v>97.15</v>
+      </c>
+      <c r="L39" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="M39" s="12">
+        <v>86.11</v>
+      </c>
+      <c r="N39" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O39" s="7">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="P39" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>100</v>
+      </c>
+      <c r="J40" s="16">
+        <v>4</v>
+      </c>
+      <c r="K40" s="12">
+        <v>51.1</v>
+      </c>
+      <c r="L40" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M40" s="12">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="N40" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O40" s="7">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="P40" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>100</v>
+      </c>
+      <c r="J41" s="16">
+        <v>4</v>
+      </c>
+      <c r="K41" s="12">
+        <v>51.1</v>
+      </c>
+      <c r="L41" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M41" s="12">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="N41" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O41" s="7">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="P41" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="16">
+        <v>36</v>
+      </c>
+      <c r="I42" s="12">
+        <v>17.43</v>
+      </c>
+      <c r="J42" s="16">
+        <v>36</v>
+      </c>
+      <c r="K42" s="12">
+        <v>17.43</v>
+      </c>
+      <c r="L42" s="22">
+        <v>9.9</v>
+      </c>
+      <c r="M42" s="12">
+        <v>72.55</v>
+      </c>
+      <c r="N42" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="P42" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="16">
+        <v>20</v>
+      </c>
+      <c r="I43" s="12">
+        <v>96.73</v>
+      </c>
+      <c r="J43" s="16">
+        <v>24</v>
+      </c>
+      <c r="K43" s="12">
+        <v>81.99</v>
+      </c>
+      <c r="L43" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M43" s="12">
+        <v>84.31</v>
+      </c>
+      <c r="N43" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="P43" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>100</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12">
+        <v>100</v>
+      </c>
+      <c r="L44" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="M44" s="12">
+        <v>86.67</v>
+      </c>
+      <c r="N44" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="P44" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C165AB1-0FD3-7942-BC4A-C130F85432CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9521AC-A9BE-6D47-90F9-E9DBEBCE89B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="3260" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="16540" yWindow="3840" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -509,6 +509,30 @@
   </si>
   <si>
     <t>too easy..</t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>找规律,O(1)</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Hash Table｜Sort</t>
+  </si>
+  <si>
+    <t>dict查找</t>
+  </si>
+  <si>
+    <t>sort然后对比</t>
   </si>
 </sst>
 </file>
@@ -940,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,6 +3154,156 @@
         <v>32</v>
       </c>
     </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="16">
+        <v>4</v>
+      </c>
+      <c r="I45" s="12">
+        <v>67.17</v>
+      </c>
+      <c r="J45" s="16">
+        <v>4</v>
+      </c>
+      <c r="K45" s="12">
+        <v>67.17</v>
+      </c>
+      <c r="L45" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M45" s="12">
+        <v>100</v>
+      </c>
+      <c r="N45" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="16">
+        <v>28</v>
+      </c>
+      <c r="I46" s="12">
+        <v>21.98</v>
+      </c>
+      <c r="J46" s="16">
+        <v>36</v>
+      </c>
+      <c r="K46" s="12">
+        <v>7.71</v>
+      </c>
+      <c r="L46" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="M46" s="12">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="N46" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="P46" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="16">
+        <v>16</v>
+      </c>
+      <c r="I47" s="12">
+        <v>57.49</v>
+      </c>
+      <c r="J47" s="16">
+        <v>24</v>
+      </c>
+      <c r="K47" s="12">
+        <v>30.71</v>
+      </c>
+      <c r="L47" s="22">
+        <v>9.6</v>
+      </c>
+      <c r="M47" s="12">
+        <v>55.22</v>
+      </c>
+      <c r="N47" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="P47" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9521AC-A9BE-6D47-90F9-E9DBEBCE89B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F070AA-4315-6348-822A-504CDBA9A587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16540" yWindow="3840" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="7460" yWindow="1180" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -490,9 +490,6 @@
     <t>Missing Number</t>
   </si>
   <si>
-    <t>268</t>
-  </si>
-  <si>
     <t>Array｜Math｜Bit Manipulation</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>sort后，查找</t>
   </si>
   <si>
-    <t>263</t>
-  </si>
-  <si>
     <t>Ugly Number</t>
   </si>
   <si>
@@ -514,18 +508,12 @@
     <t>Add Digits</t>
   </si>
   <si>
-    <t>258</t>
-  </si>
-  <si>
     <t>找规律,O(1)</t>
   </si>
   <si>
     <t>Valid Anagram</t>
   </si>
   <si>
-    <t>242</t>
-  </si>
-  <si>
     <t>Hash Table｜Sort</t>
   </si>
   <si>
@@ -533,16 +521,81 @@
   </si>
   <si>
     <t>sort然后对比</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>0268</t>
+  </si>
+  <si>
+    <t>0263</t>
+  </si>
+  <si>
+    <t>0258</t>
+  </si>
+  <si>
+    <t>0242</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>找规律,Loop</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>0349</t>
+  </si>
+  <si>
+    <t>method3.cpp</t>
+  </si>
+  <si>
+    <t>Hash Table｜Two pointers｜Binary Search｜Sort</t>
+  </si>
+  <si>
+    <t>两个set，遍历</t>
+  </si>
+  <si>
+    <t>两个vector，遍历</t>
+  </si>
+  <si>
+    <t>set count方法大大的提高速度</t>
+  </si>
+  <si>
+    <t>0350</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -629,8 +682,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -646,10 +699,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,7 +1029,7 @@
     <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
@@ -3006,7 +3059,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>94</v>
@@ -3018,10 +3071,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>13</v>
@@ -3056,7 +3109,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>94</v>
@@ -3068,10 +3121,10 @@
         <v>51</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>13</v>
@@ -3106,13 +3159,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>14</v>
@@ -3121,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>13</v>
@@ -3156,13 +3209,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>14</v>
@@ -3171,7 +3224,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>13</v>
@@ -3206,22 +3259,22 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>13</v>
@@ -3256,22 +3309,22 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>13</v>
@@ -3304,8 +3357,354 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="16">
+        <v>28</v>
+      </c>
+      <c r="I48" s="12">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="J48" s="16">
+        <v>28</v>
+      </c>
+      <c r="K48" s="12">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="L48" s="22">
+        <v>12.7</v>
+      </c>
+      <c r="M48" s="12">
+        <v>5.66</v>
+      </c>
+      <c r="N48" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="P48" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <v>100</v>
+      </c>
+      <c r="J49" s="16">
+        <v>4</v>
+      </c>
+      <c r="K49" s="12">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="L49" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M49" s="12">
+        <v>84.72</v>
+      </c>
+      <c r="N49" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>100</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M50" s="12">
+        <v>72.13</v>
+      </c>
+      <c r="N50" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="16">
+        <v>24</v>
+      </c>
+      <c r="I51" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="J51" s="16">
+        <v>24</v>
+      </c>
+      <c r="K51" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="L51" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M51" s="12">
+        <v>10</v>
+      </c>
+      <c r="N51" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="P51" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="16">
+        <v>4</v>
+      </c>
+      <c r="I52" s="12">
+        <v>98.91</v>
+      </c>
+      <c r="J52" s="16">
+        <v>4</v>
+      </c>
+      <c r="K52" s="12">
+        <v>98.91</v>
+      </c>
+      <c r="L52" s="22">
+        <v>9.1</v>
+      </c>
+      <c r="M52" s="12">
+        <v>86.67</v>
+      </c>
+      <c r="N52" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="P52" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="16">
+        <v>4</v>
+      </c>
+      <c r="I53" s="12">
+        <v>98.91</v>
+      </c>
+      <c r="J53" s="16">
+        <v>4</v>
+      </c>
+      <c r="K53" s="12">
+        <v>98.91</v>
+      </c>
+      <c r="L53" s="22">
+        <v>9.6</v>
+      </c>
+      <c r="M53" s="12">
+        <v>23.33</v>
+      </c>
+      <c r="N53" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="P53" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="16">
+        <v>4</v>
+      </c>
+      <c r="I54" s="12">
+        <v>99.22</v>
+      </c>
+      <c r="J54" s="16">
+        <v>4</v>
+      </c>
+      <c r="K54" s="12">
+        <v>99.22</v>
+      </c>
+      <c r="L54" s="22">
+        <v>9</v>
+      </c>
+      <c r="M54" s="12">
+        <v>94.64</v>
+      </c>
+      <c r="N54" s="6">
+        <v>43845</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0.98749999999999993</v>
+      </c>
+      <c r="P54" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P11" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
+  <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F070AA-4315-6348-822A-504CDBA9A587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDCAF4-C8DF-8D42-AE1E-7351EA051076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="1180" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="203">
   <si>
     <t>Date</t>
   </si>
@@ -587,6 +587,90 @@
   </si>
   <si>
     <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>0290</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>注意对称a-&gt;b,b-&gt;a一致,不可以有a-&gt;b,c-&gt;b</t>
+  </si>
+  <si>
+    <t>本办法一个个查找</t>
+  </si>
+  <si>
+    <t>类似290最佳解法</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>0257</t>
+  </si>
+  <si>
+    <t>Tree｜Depth-first Search</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>删除node！很有用！</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>,时间O(n) 空间O(n)遍历对比</t>
+  </si>
+  <si>
+    <t>时间O(n) 空间O(1),找中点</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Math｜Bit Manipulation</t>
+  </si>
+  <si>
+    <t>穷举法（最多30个）</t>
+  </si>
+  <si>
+    <t>传统解法</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>Queue和Set结合</t>
+  </si>
+  <si>
+    <t>Map方法</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1114,7 @@
     <col min="3" max="3" width="49.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="14" bestFit="1" customWidth="1"/>
@@ -3485,8 +3569,12 @@
       <c r="I50" s="12">
         <v>100</v>
       </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="12"/>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
+        <v>100</v>
+      </c>
       <c r="L50" s="22">
         <v>8.6999999999999993</v>
       </c>
@@ -3700,6 +3788,570 @@
         <v>0.98749999999999993</v>
       </c>
       <c r="P54" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>100</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="12">
+        <v>100</v>
+      </c>
+      <c r="L55" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="M55" s="12">
+        <v>92.86</v>
+      </c>
+      <c r="N55" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O55" s="7">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="P55" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="16">
+        <v>16</v>
+      </c>
+      <c r="I56" s="12">
+        <v>23.63</v>
+      </c>
+      <c r="J56" s="16">
+        <v>20</v>
+      </c>
+      <c r="K56" s="12">
+        <v>11.21</v>
+      </c>
+      <c r="L56" s="22">
+        <v>9.1</v>
+      </c>
+      <c r="M56" s="12">
+        <v>86</v>
+      </c>
+      <c r="N56" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O56" s="7">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="P56" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="16">
+        <v>8</v>
+      </c>
+      <c r="I57" s="12">
+        <v>86.74</v>
+      </c>
+      <c r="J57" s="16">
+        <v>12</v>
+      </c>
+      <c r="K57" s="12">
+        <v>54.23</v>
+      </c>
+      <c r="L57" s="22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M57" s="12">
+        <v>60</v>
+      </c>
+      <c r="N57" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O57" s="7">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="P57" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="16">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>100</v>
+      </c>
+      <c r="J58" s="16">
+        <v>4</v>
+      </c>
+      <c r="K58" s="12">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="L58" s="22">
+        <v>11.8</v>
+      </c>
+      <c r="M58" s="12">
+        <v>63.16</v>
+      </c>
+      <c r="N58" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="P58" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="16">
+        <v>12</v>
+      </c>
+      <c r="I59" s="12">
+        <v>82.35</v>
+      </c>
+      <c r="J59" s="16">
+        <v>12</v>
+      </c>
+      <c r="K59" s="12">
+        <v>82.35</v>
+      </c>
+      <c r="L59" s="22">
+        <v>10.3</v>
+      </c>
+      <c r="M59" s="12">
+        <v>11.54</v>
+      </c>
+      <c r="N59" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="P59" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="16">
+        <v>24</v>
+      </c>
+      <c r="I60" s="12">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="J60" s="16">
+        <v>24</v>
+      </c>
+      <c r="K60" s="12">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="L60" s="22">
+        <v>13.4</v>
+      </c>
+      <c r="M60" s="12">
+        <v>29.31</v>
+      </c>
+      <c r="N60" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="P60" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="16">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <v>100</v>
+      </c>
+      <c r="J62" s="16">
+        <v>4</v>
+      </c>
+      <c r="K62" s="12">
+        <v>53.85</v>
+      </c>
+      <c r="L62" s="22">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M62" s="12">
+        <v>18.18</v>
+      </c>
+      <c r="N62" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="P62" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="16">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <v>100</v>
+      </c>
+      <c r="J63" s="16">
+        <v>4</v>
+      </c>
+      <c r="K63" s="12">
+        <v>56.2</v>
+      </c>
+      <c r="L63" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="M63" s="12">
+        <v>96</v>
+      </c>
+      <c r="N63" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="16">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <v>100</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12">
+        <v>100</v>
+      </c>
+      <c r="L64" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="M64" s="12">
+        <v>96</v>
+      </c>
+      <c r="N64" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="P64" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="16">
+        <v>48</v>
+      </c>
+      <c r="I65" s="12">
+        <v>14.94</v>
+      </c>
+      <c r="J65" s="16">
+        <v>48</v>
+      </c>
+      <c r="K65" s="12">
+        <v>14.94</v>
+      </c>
+      <c r="L65" s="22">
+        <v>15.9</v>
+      </c>
+      <c r="M65" s="12">
+        <v>23.53</v>
+      </c>
+      <c r="N65" s="6">
+        <v>43846</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="P65" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="17"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="20" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDCAF4-C8DF-8D42-AE1E-7351EA051076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1BD2F0-43E8-4143-975D-F9A3A613BEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1180" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="900" yWindow="1905" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -661,9 +661,6 @@
     <t>传统解法</t>
   </si>
   <si>
-    <t>219</t>
-  </si>
-  <si>
     <t>Contains Duplicate II</t>
   </si>
   <si>
@@ -671,6 +668,34 @@
   </si>
   <si>
     <t>Map方法</t>
+  </si>
+  <si>
+    <t>0219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0217</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math｜Bit Manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array｜Hash Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯set count()方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort() 方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -678,27 +703,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -759,14 +784,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -783,10 +808,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,33 +1127,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="G59" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.5" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="16" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
@@ -1227,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>103</v>
       </c>
@@ -1259,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>104</v>
       </c>
@@ -1309,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
         <v>104</v>
       </c>
@@ -1341,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>105</v>
       </c>
@@ -1391,7 +1417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>106</v>
       </c>
@@ -1441,7 +1467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>107</v>
       </c>
@@ -1491,7 +1517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
         <v>108</v>
       </c>
@@ -1541,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
         <v>109</v>
       </c>
@@ -1591,7 +1617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
         <v>110</v>
       </c>
@@ -1641,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
         <v>111</v>
       </c>
@@ -1691,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
         <v>112</v>
       </c>
@@ -1741,7 +1767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>113</v>
       </c>
@@ -1791,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
         <v>114</v>
       </c>
@@ -1841,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
         <v>115</v>
       </c>
@@ -1891,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
         <v>115</v>
       </c>
@@ -1941,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
         <v>116</v>
       </c>
@@ -1991,7 +2017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2041,7 +2067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
         <v>118</v>
       </c>
@@ -2091,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
@@ -2141,7 +2167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
         <v>120</v>
       </c>
@@ -2191,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
         <v>120</v>
       </c>
@@ -2241,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
@@ -2291,7 +2317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
         <v>121</v>
       </c>
@@ -2341,7 +2367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2391,7 +2417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
         <v>122</v>
       </c>
@@ -2441,7 +2467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
         <v>123</v>
       </c>
@@ -2491,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
         <v>123</v>
       </c>
@@ -2541,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
         <v>124</v>
       </c>
@@ -2591,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>125</v>
       </c>
@@ -2641,7 +2667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
         <v>126</v>
       </c>
@@ -2691,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -2741,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>128</v>
       </c>
@@ -2791,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
@@ -2841,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="4" t="s">
         <v>129</v>
       </c>
@@ -2891,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
         <v>129</v>
       </c>
@@ -2941,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
         <v>130</v>
       </c>
@@ -2991,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>133</v>
       </c>
@@ -3041,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
         <v>137</v>
       </c>
@@ -3091,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>137</v>
       </c>
@@ -3141,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="4" t="s">
         <v>156</v>
       </c>
@@ -3191,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
         <v>156</v>
       </c>
@@ -3241,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="4" t="s">
         <v>157</v>
       </c>
@@ -3291,7 +3317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
         <v>158</v>
       </c>
@@ -3341,7 +3367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="4" t="s">
         <v>159</v>
       </c>
@@ -3391,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="4" t="s">
         <v>159</v>
       </c>
@@ -3441,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="4" t="s">
         <v>160</v>
       </c>
@@ -3491,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
         <v>161</v>
       </c>
@@ -3541,7 +3567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="4" t="s">
         <v>164</v>
       </c>
@@ -3591,7 +3617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
         <v>167</v>
       </c>
@@ -3641,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="4" t="s">
         <v>167</v>
       </c>
@@ -3691,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
@@ -3741,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" s="4" t="s">
         <v>173</v>
       </c>
@@ -3791,7 +3817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
         <v>175</v>
       </c>
@@ -3841,7 +3867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="4" t="s">
         <v>177</v>
       </c>
@@ -3891,7 +3917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
         <v>177</v>
       </c>
@@ -3941,7 +3967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
         <v>183</v>
       </c>
@@ -3991,7 +4017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
         <v>185</v>
       </c>
@@ -4041,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="4" t="s">
         <v>188</v>
       </c>
@@ -4089,7 +4115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="8" t="s">
         <v>188</v>
       </c>
@@ -4121,7 +4147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4171,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
         <v>194</v>
       </c>
@@ -4221,7 +4247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="4" t="s">
         <v>194</v>
       </c>
@@ -4235,7 +4261,7 @@
         <v>51</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>197</v>
@@ -4271,15 +4297,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>14</v>
@@ -4288,7 +4314,7 @@
         <v>153</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>13</v>
@@ -4321,15 +4347,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>51</v>
@@ -4338,7 +4364,7 @@
         <v>153</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>12</v>
@@ -4355,6 +4381,106 @@
         <v>28</v>
       </c>
     </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="18">
+        <v>56</v>
+      </c>
+      <c r="I67" s="14">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="J67" s="18">
+        <v>60</v>
+      </c>
+      <c r="K67" s="14">
+        <v>9.64</v>
+      </c>
+      <c r="L67" s="24">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M67" s="14">
+        <v>54.95</v>
+      </c>
+      <c r="N67" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O67" s="25">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="P67" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="18">
+        <v>32</v>
+      </c>
+      <c r="I68" s="14">
+        <v>88.87</v>
+      </c>
+      <c r="J68" s="18">
+        <v>32</v>
+      </c>
+      <c r="K68" s="14">
+        <v>88.87</v>
+      </c>
+      <c r="L68" s="24">
+        <v>11.3</v>
+      </c>
+      <c r="M68" s="14">
+        <v>96.7</v>
+      </c>
+      <c r="N68" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O68" s="25">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="P68" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1BD2F0-43E8-4143-975D-F9A3A613BEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF665D7-F1D3-4978-A1FE-A25F3B5EF09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1905" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="6540" yWindow="2160" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t>sort() 方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>too easy..</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -812,7 +824,6 @@
     <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G59" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4382,7 +4393,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -4394,37 +4405,37 @@
       <c r="D67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="4" t="s">
         <v>207</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="16">
         <v>56</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="12">
         <v>19.059999999999999</v>
       </c>
-      <c r="J67" s="18">
+      <c r="J67" s="16">
         <v>60</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="12">
         <v>9.64</v>
       </c>
-      <c r="L67" s="24">
+      <c r="L67" s="22">
         <v>16.600000000000001</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M67" s="12">
         <v>54.95</v>
       </c>
       <c r="N67" s="6">
         <v>43847</v>
       </c>
-      <c r="O67" s="25">
+      <c r="O67" s="7">
         <v>0.12986111111111112</v>
       </c>
       <c r="P67" s="20" t="b">
@@ -4432,7 +4443,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4444,42 +4455,90 @@
       <c r="D68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="4" t="s">
         <v>208</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="16">
         <v>32</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="12">
         <v>88.87</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J68" s="16">
         <v>32</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="12">
         <v>88.87</v>
       </c>
-      <c r="L68" s="24">
+      <c r="L68" s="22">
         <v>11.3</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M68" s="12">
         <v>96.7</v>
       </c>
       <c r="N68" s="6">
         <v>43847</v>
       </c>
-      <c r="O68" s="25">
+      <c r="O68" s="7">
         <v>0.12986111111111112</v>
       </c>
       <c r="P68" s="20" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="16">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>100</v>
+      </c>
+      <c r="J69" s="16">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <v>100</v>
+      </c>
+      <c r="L69" s="22">
+        <v>9.1</v>
+      </c>
+      <c r="M69" s="12">
+        <v>6.67</v>
+      </c>
+      <c r="N69" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="P69" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF665D7-F1D3-4978-A1FE-A25F3B5EF09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71D13A8-6399-43FC-99AC-72CB942DB2D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2160" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -707,6 +707,26 @@
   </si>
   <si>
     <t>too easy..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入vector再链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev*现在链接前一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1138,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4538,7 +4558,109 @@
       <c r="O69" s="7">
         <v>0.14097222222222222</v>
       </c>
-      <c r="P69" s="20"/>
+      <c r="P69" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="16">
+        <v>12</v>
+      </c>
+      <c r="I70" s="12">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="J70" s="16">
+        <v>12</v>
+      </c>
+      <c r="K70" s="12">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="L70" s="22">
+        <v>9.9</v>
+      </c>
+      <c r="M70" s="12">
+        <v>5.34</v>
+      </c>
+      <c r="N70" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="P70" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="16">
+        <v>12</v>
+      </c>
+      <c r="I71" s="12">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="J71" s="16">
+        <v>12</v>
+      </c>
+      <c r="K71" s="12">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="L71" s="22">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M71" s="12">
+        <v>5.34</v>
+      </c>
+      <c r="N71" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="P71" s="20" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71D13A8-6399-43FC-99AC-72CB942DB2D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7CD993-B514-4F05-911B-2FDF40770DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2160" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="220">
   <si>
     <t>Date</t>
   </si>
@@ -727,6 +727,18 @@
   </si>
   <si>
     <t>Linked List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD71"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4662,6 +4674,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>100</v>
+      </c>
+      <c r="J72" s="16">
+        <v>4</v>
+      </c>
+      <c r="K72" s="12">
+        <v>60.9</v>
+      </c>
+      <c r="L72" s="22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M72" s="12">
+        <v>5.45</v>
+      </c>
+      <c r="N72" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="P72" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7CD993-B514-4F05-911B-2FDF40770DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8AA297-6050-4F47-90E4-08C3EFD2E76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2160" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -740,6 +740,25 @@
   <si>
     <t>Tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Primes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Table｜Math</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开根号算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2 </t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4724,6 +4743,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="16">
+        <v>644</v>
+      </c>
+      <c r="I73" s="12">
+        <v>6.16</v>
+      </c>
+      <c r="J73" s="16">
+        <v>644</v>
+      </c>
+      <c r="K73" s="12">
+        <v>6.16</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M73" s="12">
+        <v>95.83</v>
+      </c>
+      <c r="N73" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="P73" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8AA297-6050-4F47-90E4-08C3EFD2E76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C7AA75-7393-45BE-84B9-5BC6DAE4EDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2160" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -758,7 +759,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8.2 </t>
+    <t>Number of 1 Bits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0191</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method3.cpp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算2进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitwise operator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1189,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4777,8 +4803,8 @@
       <c r="K73" s="12">
         <v>6.16</v>
       </c>
-      <c r="L73" s="22" t="s">
-        <v>224</v>
+      <c r="L73" s="22">
+        <v>8.1999999999999993</v>
       </c>
       <c r="M73" s="12">
         <v>95.83</v>
@@ -4791,6 +4817,156 @@
       </c>
       <c r="P73" s="20" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="16">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>100</v>
+      </c>
+      <c r="J74" s="16">
+        <v>4</v>
+      </c>
+      <c r="K74" s="12">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="L74" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M74" s="12">
+        <v>60.98</v>
+      </c>
+      <c r="N74" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="P74" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="16">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <v>100</v>
+      </c>
+      <c r="J75" s="16">
+        <v>4</v>
+      </c>
+      <c r="K75" s="12">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="L75" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M75" s="12">
+        <v>78.05</v>
+      </c>
+      <c r="N75" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="P75" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="16">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>100</v>
+      </c>
+      <c r="J76" s="16">
+        <v>4</v>
+      </c>
+      <c r="K76" s="12">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="L76" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M76" s="12">
+        <v>60.98</v>
+      </c>
+      <c r="N76" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="P76" s="20" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C7AA75-7393-45BE-84B9-5BC6DAE4EDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B9B0D6-3E30-4C27-BFBC-EA79A3109238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2160" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -784,6 +783,22 @@
   </si>
   <si>
     <t>bitwise operator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check 现在和下个点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1215,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -4969,6 +4984,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="16">
+        <v>12</v>
+      </c>
+      <c r="I77" s="12">
+        <v>75.47</v>
+      </c>
+      <c r="J77" s="16">
+        <v>12</v>
+      </c>
+      <c r="K77" s="12">
+        <v>75.47</v>
+      </c>
+      <c r="L77" s="22">
+        <v>9.9</v>
+      </c>
+      <c r="M77" s="12">
+        <v>15.09</v>
+      </c>
+      <c r="N77" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="P77" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="16">
+        <v>16</v>
+      </c>
+      <c r="I78" s="12">
+        <v>18.89</v>
+      </c>
+      <c r="J78" s="16">
+        <v>16</v>
+      </c>
+      <c r="K78" s="12">
+        <v>18.89</v>
+      </c>
+      <c r="L78" s="22">
+        <v>10.6</v>
+      </c>
+      <c r="M78" s="12">
+        <v>5.66</v>
+      </c>
+      <c r="N78" s="6">
+        <v>43847</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="P78" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B9B0D6-3E30-4C27-BFBC-EA79A3109238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD0FE8F-70EC-448D-83D6-0E53739B3948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2160" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5100" yWindow="2145" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$1:$Q$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="239">
   <si>
     <t>Date</t>
   </si>
@@ -799,6 +799,22 @@
   </si>
   <si>
     <t>check 现在和下个点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factorial Trailing Zeroes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0172</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道为什么，n阶乘里有多少个x是while(n!=0){n/=x;count+=n;}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1230,3862 +1246,3922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17">
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
         <v>100</v>
       </c>
-      <c r="J2" s="16">
+      <c r="K2" s="16">
         <v>4</v>
       </c>
-      <c r="K2" s="12">
+      <c r="L2" s="12">
         <v>58.96</v>
       </c>
-      <c r="L2" s="22">
+      <c r="M2" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M2" s="12">
+      <c r="N2" s="12">
         <v>83.33</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>43839</v>
       </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="20" t="b">
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:17">
+      <c r="B3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="9"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="20" t="b">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:17">
+      <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
         <v>100</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <v>4</v>
       </c>
-      <c r="K4" s="12">
+      <c r="L4" s="12">
         <v>84.33</v>
       </c>
-      <c r="L4" s="22">
+      <c r="M4" s="22">
         <v>14.8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="N4" s="12">
         <v>61.02</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>43839</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20" t="b">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:17">
+      <c r="B5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="9"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="20" t="b">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:17">
+      <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="16">
         <v>8</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <v>88.49</v>
       </c>
-      <c r="J6" s="16">
+      <c r="K6" s="16">
         <v>12</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <v>58.66</v>
       </c>
-      <c r="L6" s="22">
+      <c r="M6" s="22">
         <v>19.5</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <v>63.74</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>43839</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:17">
+      <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16">
         <v>8</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>65.25</v>
       </c>
-      <c r="J7" s="16">
+      <c r="K7" s="16">
         <v>8</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>65.25</v>
       </c>
-      <c r="L7" s="22">
+      <c r="M7" s="22">
         <v>15</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>5.41</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>43839</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:17">
+      <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="16">
         <v>8</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>96.4</v>
       </c>
-      <c r="J8" s="16">
+      <c r="K8" s="16">
         <v>16</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <v>41.85</v>
       </c>
-      <c r="L8" s="22">
+      <c r="M8" s="22">
         <v>19.8</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <v>97.92</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>43840</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:17">
+      <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
         <v>100</v>
       </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>100</v>
       </c>
-      <c r="L9" s="22">
+      <c r="M9" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="12">
         <v>96.3</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>43840</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="4" t="s">
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
         <v>100</v>
       </c>
-      <c r="J10" s="16">
+      <c r="K10" s="16">
         <v>4</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="12">
         <v>60.1</v>
       </c>
-      <c r="L10" s="22">
+      <c r="M10" s="22">
         <v>8.5</v>
       </c>
-      <c r="M10" s="12">
+      <c r="N10" s="12">
         <v>87.1</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>43840</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:17">
+      <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="16">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="J11" s="12">
         <v>98.53</v>
       </c>
-      <c r="J11" s="16">
+      <c r="K11" s="16">
         <v>8</v>
       </c>
-      <c r="K11" s="12">
+      <c r="L11" s="12">
         <v>68.2</v>
       </c>
-      <c r="L11" s="22">
+      <c r="M11" s="22">
         <v>9.6</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="12">
         <v>72.48</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>43840</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="4" t="s">
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="16">
         <v>4</v>
       </c>
-      <c r="I12" s="12">
+      <c r="J12" s="12">
         <v>98.12</v>
       </c>
-      <c r="J12" s="16">
+      <c r="K12" s="16">
         <v>8</v>
       </c>
-      <c r="K12" s="12">
+      <c r="L12" s="12">
         <v>61.34</v>
       </c>
-      <c r="L12" s="22">
+      <c r="M12" s="22">
         <v>9.6</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <v>63.49</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>43840</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="4" t="s">
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="16">
         <v>8</v>
       </c>
-      <c r="I13" s="12">
+      <c r="J13" s="12">
         <v>85.49</v>
       </c>
-      <c r="J13" s="16">
+      <c r="K13" s="16">
         <v>8</v>
       </c>
-      <c r="K13" s="12">
+      <c r="L13" s="12">
         <v>85.49</v>
       </c>
-      <c r="L13" s="22">
+      <c r="M13" s="22">
         <v>10.1</v>
       </c>
-      <c r="M13" s="12">
+      <c r="N13" s="12">
         <v>6.12</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>43840</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:17">
+      <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16">
         <v>20</v>
       </c>
-      <c r="I14" s="12">
+      <c r="J14" s="12">
         <v>37.659999999999997</v>
       </c>
-      <c r="J14" s="16">
+      <c r="K14" s="16">
         <v>20</v>
       </c>
-      <c r="K14" s="12">
+      <c r="L14" s="12">
         <v>37.659999999999997</v>
       </c>
-      <c r="L14" s="22">
+      <c r="M14" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M14" s="12">
+      <c r="N14" s="12">
         <v>69.14</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>43840</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="4" t="s">
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16">
         <v>20</v>
       </c>
-      <c r="I15" s="12">
+      <c r="J15" s="12">
         <v>17.96</v>
       </c>
-      <c r="J15" s="16">
+      <c r="K15" s="16">
         <v>24</v>
       </c>
-      <c r="K15" s="12">
+      <c r="L15" s="12">
         <v>7.86</v>
       </c>
-      <c r="L15" s="22">
+      <c r="M15" s="22">
         <v>16.600000000000001</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N15" s="12">
         <v>5.26</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>43841</v>
       </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="4" t="s">
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16">
         <v>220</v>
       </c>
-      <c r="I16" s="12">
+      <c r="J16" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="J16" s="16">
+      <c r="K16" s="16">
         <v>220</v>
       </c>
-      <c r="K16" s="12">
+      <c r="L16" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="L16" s="22">
+      <c r="M16" s="22">
         <v>17.3</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <v>5.45</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>43841</v>
       </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="4" t="s">
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="H17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="16">
         <v>204</v>
       </c>
-      <c r="I17" s="12">
+      <c r="J17" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="J17" s="16">
+      <c r="K17" s="16">
         <v>216</v>
       </c>
-      <c r="K17" s="12">
+      <c r="L17" s="12">
         <v>5.0199999999999996</v>
       </c>
-      <c r="L17" s="22">
+      <c r="M17" s="22">
         <v>16.899999999999999</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N17" s="12">
         <v>72.73</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>43841</v>
       </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="4" t="s">
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16">
         <v>4</v>
       </c>
-      <c r="I18" s="12">
+      <c r="J18" s="12">
         <v>96.78</v>
       </c>
-      <c r="J18" s="16">
+      <c r="K18" s="16">
         <v>4</v>
       </c>
-      <c r="K18" s="12">
+      <c r="L18" s="12">
         <v>96.78</v>
       </c>
-      <c r="L18" s="22">
+      <c r="M18" s="22">
         <v>9.5</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <v>78.430000000000007</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>43841</v>
       </c>
-      <c r="O18" s="7">
+      <c r="P18" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="2:17">
+      <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
         <v>100</v>
       </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
         <v>100</v>
       </c>
-      <c r="L19" s="22">
+      <c r="M19" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N19" s="12">
         <v>63.64</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <v>43841</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>0.93819444444444444</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="Q19" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="2:17">
+      <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="16">
         <v>24</v>
       </c>
-      <c r="I20" s="12">
+      <c r="J20" s="12">
         <v>49.02</v>
       </c>
-      <c r="J20" s="16">
+      <c r="K20" s="16">
         <v>28</v>
       </c>
-      <c r="K20" s="12">
+      <c r="L20" s="12">
         <v>26.93</v>
       </c>
-      <c r="L20" s="22">
+      <c r="M20" s="22">
         <v>10.9</v>
       </c>
-      <c r="M20" s="12">
+      <c r="N20" s="12">
         <v>100</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <v>43841</v>
       </c>
-      <c r="O20" s="7">
+      <c r="P20" s="7">
         <v>0.9472222222222223</v>
       </c>
-      <c r="P20" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="4" t="s">
+      <c r="Q20" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
         <v>100</v>
       </c>
-      <c r="J21" s="16">
+      <c r="K21" s="16">
         <v>4</v>
       </c>
-      <c r="K21" s="12">
+      <c r="L21" s="12">
         <v>72.58</v>
       </c>
-      <c r="L21" s="22">
+      <c r="M21" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N21" s="12">
         <v>55.1</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <v>43841</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="7">
         <v>0.96111111111111114</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="Q21" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="2:17">
+      <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="16">
         <v>20</v>
       </c>
-      <c r="I22" s="12">
+      <c r="J22" s="12">
         <v>39.11</v>
       </c>
-      <c r="J22" s="16">
+      <c r="K22" s="16">
         <v>28</v>
       </c>
-      <c r="K22" s="12">
+      <c r="L22" s="12">
         <v>17.239999999999998</v>
       </c>
-      <c r="L22" s="22">
+      <c r="M22" s="22">
         <v>9.9</v>
       </c>
-      <c r="M22" s="12">
+      <c r="N22" s="12">
         <v>13.89</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <v>43842</v>
       </c>
-      <c r="O22" s="7">
+      <c r="P22" s="7">
         <v>0.12569444444444444</v>
       </c>
-      <c r="P22" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="4" t="s">
+      <c r="Q22" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="16">
         <v>16</v>
       </c>
-      <c r="I23" s="12">
+      <c r="J23" s="12">
         <v>86.74</v>
       </c>
-      <c r="J23" s="16">
+      <c r="K23" s="16">
         <v>20</v>
       </c>
-      <c r="K23" s="12">
+      <c r="L23" s="12">
         <v>39.11</v>
       </c>
-      <c r="L23" s="22">
+      <c r="M23" s="22">
         <v>9.9</v>
       </c>
-      <c r="M23" s="12">
+      <c r="N23" s="12">
         <v>13.89</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="6">
         <v>43842</v>
       </c>
-      <c r="O23" s="7">
+      <c r="P23" s="7">
         <v>0.12569444444444444</v>
       </c>
-      <c r="P23" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="4" t="s">
+      <c r="Q23" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
         <v>100</v>
       </c>
-      <c r="J24" s="16">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
         <v>100</v>
       </c>
-      <c r="L24" s="22">
+      <c r="M24" s="22">
         <v>8.4</v>
       </c>
-      <c r="M24" s="12">
+      <c r="N24" s="12">
         <v>100</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="6">
         <v>43842</v>
       </c>
-      <c r="O24" s="7">
+      <c r="P24" s="7">
         <v>0.6333333333333333</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="Q24" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="2:17">
+      <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="16">
         <v>4</v>
       </c>
-      <c r="I25" s="12">
+      <c r="J25" s="12">
         <v>51.83</v>
       </c>
-      <c r="J25" s="16">
+      <c r="K25" s="16">
         <v>4</v>
       </c>
-      <c r="K25" s="12">
+      <c r="L25" s="12">
         <v>51.83</v>
       </c>
-      <c r="L25" s="22">
+      <c r="M25" s="22">
         <v>8</v>
       </c>
-      <c r="M25" s="12">
+      <c r="N25" s="12">
         <v>95.24</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <v>43842</v>
       </c>
-      <c r="O25" s="7">
+      <c r="P25" s="7">
         <v>0.66041666666666665</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="Q25" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="2:17">
+      <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="16">
+      <c r="H26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="16">
         <v>12</v>
       </c>
-      <c r="I26" s="12">
+      <c r="J26" s="12">
         <v>65.180000000000007</v>
       </c>
-      <c r="J26" s="16">
+      <c r="K26" s="16">
         <v>12</v>
       </c>
-      <c r="K26" s="12">
+      <c r="L26" s="12">
         <v>65.180000000000007</v>
       </c>
-      <c r="L26" s="22">
+      <c r="M26" s="22">
         <v>11.2</v>
       </c>
-      <c r="M26" s="12">
+      <c r="N26" s="12">
         <v>6.06</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <v>43843</v>
       </c>
-      <c r="O26" s="7">
+      <c r="P26" s="7">
         <v>0.57638888888888895</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="Q26" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="2:17">
+      <c r="B27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="16">
+      <c r="H27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="16">
         <v>4</v>
       </c>
-      <c r="I27" s="12">
+      <c r="J27" s="12">
         <v>99.61</v>
       </c>
-      <c r="J27" s="16">
+      <c r="K27" s="16">
         <v>12</v>
       </c>
-      <c r="K27" s="12">
+      <c r="L27" s="12">
         <v>65.180000000000007</v>
       </c>
-      <c r="L27" s="22">
+      <c r="M27" s="22">
         <v>10.9</v>
       </c>
-      <c r="M27" s="12">
+      <c r="N27" s="12">
         <v>6.06</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <v>43843</v>
       </c>
-      <c r="O27" s="7">
+      <c r="P27" s="7">
         <v>0.57638888888888895</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="Q27" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="2:17">
+      <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="H28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="16">
         <v>44</v>
       </c>
-      <c r="I28" s="12">
+      <c r="J28" s="12">
         <v>93.18</v>
       </c>
-      <c r="J28" s="16">
+      <c r="K28" s="16">
         <v>48</v>
       </c>
-      <c r="K28" s="12">
+      <c r="L28" s="12">
         <v>76.040000000000006</v>
       </c>
-      <c r="L28" s="22">
+      <c r="M28" s="22">
         <v>15.2</v>
       </c>
-      <c r="M28" s="12">
+      <c r="N28" s="12">
         <v>84.15</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <v>43843</v>
       </c>
-      <c r="O28" s="7">
+      <c r="P28" s="7">
         <v>0.7895833333333333</v>
       </c>
-      <c r="P28" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="4" t="s">
+      <c r="Q28" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="16">
+      <c r="H29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="16">
         <v>44</v>
       </c>
-      <c r="I29" s="12">
+      <c r="J29" s="12">
         <v>93.18</v>
       </c>
-      <c r="J29" s="16">
+      <c r="K29" s="16">
         <v>48</v>
       </c>
-      <c r="K29" s="12">
+      <c r="L29" s="12">
         <v>76.040000000000006</v>
       </c>
-      <c r="L29" s="22">
+      <c r="M29" s="22">
         <v>15.2</v>
       </c>
-      <c r="M29" s="12">
+      <c r="N29" s="12">
         <v>84.15</v>
       </c>
-      <c r="N29" s="6">
+      <c r="O29" s="6">
         <v>43843</v>
       </c>
-      <c r="O29" s="7">
+      <c r="P29" s="7">
         <v>0.7895833333333333</v>
       </c>
-      <c r="P29" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="4" t="s">
+      <c r="Q29" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="16">
+      <c r="H30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="16">
         <v>172</v>
       </c>
-      <c r="I30" s="12">
+      <c r="J30" s="12">
         <v>17.309999999999999</v>
       </c>
-      <c r="J30" s="16">
+      <c r="K30" s="16">
         <v>172</v>
       </c>
-      <c r="K30" s="12">
+      <c r="L30" s="12">
         <v>17.309999999999999</v>
       </c>
-      <c r="L30" s="22">
+      <c r="M30" s="22">
         <v>17.2</v>
       </c>
-      <c r="M30" s="12">
+      <c r="N30" s="12">
         <v>79.31</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <v>43844</v>
       </c>
-      <c r="O30" s="7">
+      <c r="P30" s="7">
         <v>0.53680555555555554</v>
       </c>
-      <c r="P30" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="4" t="s">
+      <c r="Q30" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="16">
+      <c r="H31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="16">
         <v>12</v>
       </c>
-      <c r="I31" s="12">
+      <c r="J31" s="12">
         <v>16.43</v>
       </c>
-      <c r="J31" s="16">
+      <c r="K31" s="16">
         <v>12</v>
       </c>
-      <c r="K31" s="12">
+      <c r="L31" s="12">
         <v>16.43</v>
       </c>
-      <c r="L31" s="22">
+      <c r="M31" s="22">
         <v>9</v>
       </c>
-      <c r="M31" s="12">
+      <c r="N31" s="12">
         <v>61.54</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>43844</v>
       </c>
-      <c r="O31" s="7">
+      <c r="P31" s="7">
         <v>0.5805555555555556</v>
       </c>
-      <c r="P31" s="20" t="s">
+      <c r="Q31" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="2:17">
+      <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="16">
+      <c r="H32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="16">
         <v>24</v>
       </c>
-      <c r="I32" s="12">
+      <c r="J32" s="12">
         <v>66.91</v>
       </c>
-      <c r="J32" s="16">
+      <c r="K32" s="16">
         <v>32</v>
       </c>
-      <c r="K32" s="12">
+      <c r="L32" s="12">
         <v>10.86</v>
       </c>
-      <c r="L32" s="22">
+      <c r="M32" s="22">
         <v>11.8</v>
       </c>
-      <c r="M32" s="12">
+      <c r="N32" s="12">
         <v>5.14</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <v>43844</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>0.68472222222222223</v>
       </c>
-      <c r="P32" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="4" t="s">
+      <c r="Q32" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="16">
+      <c r="H33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="16">
         <v>8</v>
       </c>
-      <c r="I33" s="12">
+      <c r="J33" s="12">
         <v>94.12</v>
       </c>
-      <c r="J33" s="16">
+      <c r="K33" s="16">
         <v>8</v>
       </c>
-      <c r="K33" s="12">
+      <c r="L33" s="12">
         <v>94.12</v>
       </c>
-      <c r="L33" s="22">
+      <c r="M33" s="22">
         <v>10.199999999999999</v>
       </c>
-      <c r="M33" s="12">
+      <c r="N33" s="12">
         <v>92.59</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <v>43845</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="P33" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="4" t="s">
+      <c r="Q33" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="H34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="16">
         <v>8</v>
       </c>
-      <c r="I34" s="12">
+      <c r="J34" s="12">
         <v>95.51</v>
       </c>
-      <c r="J34" s="16">
+      <c r="K34" s="16">
         <v>12</v>
       </c>
-      <c r="K34" s="12">
+      <c r="L34" s="12">
         <v>85.76</v>
       </c>
-      <c r="L34" s="22">
+      <c r="M34" s="22">
         <v>8.1</v>
       </c>
-      <c r="M34" s="12">
+      <c r="N34" s="12">
         <v>90.48</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>43845</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="P34" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="4" t="s">
+      <c r="Q34" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="H35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="16">
         <v>8</v>
       </c>
-      <c r="I35" s="12">
+      <c r="J35" s="12">
         <v>95.51</v>
       </c>
-      <c r="J35" s="16">
+      <c r="K35" s="16">
         <v>12</v>
       </c>
-      <c r="K35" s="12">
+      <c r="L35" s="12">
         <v>85.76</v>
       </c>
-      <c r="L35" s="22">
+      <c r="M35" s="22">
         <v>8.1</v>
       </c>
-      <c r="M35" s="12">
+      <c r="N35" s="12">
         <v>90.48</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <v>43845</v>
       </c>
-      <c r="O35" s="7">
+      <c r="P35" s="7">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="P35" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="4" t="s">
+      <c r="Q35" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="16">
+      <c r="H36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="16">
         <v>4</v>
       </c>
-      <c r="I36" s="12">
+      <c r="J36" s="12">
         <v>57.09</v>
       </c>
-      <c r="J36" s="16">
+      <c r="K36" s="16">
         <v>4</v>
       </c>
-      <c r="K36" s="12">
+      <c r="L36" s="12">
         <v>57.09</v>
       </c>
-      <c r="L36" s="22">
+      <c r="M36" s="22">
         <v>8.1</v>
       </c>
-      <c r="M36" s="12">
+      <c r="N36" s="12">
         <v>85.71</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <v>43845</v>
       </c>
-      <c r="O36" s="7">
+      <c r="P36" s="7">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="P36" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="4" t="s">
+      <c r="Q36" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="16">
+      <c r="H37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="16">
         <v>4</v>
       </c>
-      <c r="I37" s="12">
+      <c r="J37" s="12">
         <v>57.09</v>
       </c>
-      <c r="J37" s="16">
+      <c r="K37" s="16">
         <v>4</v>
       </c>
-      <c r="K37" s="12">
+      <c r="L37" s="12">
         <v>57.09</v>
       </c>
-      <c r="L37" s="22">
+      <c r="M37" s="22">
         <v>8.1</v>
       </c>
-      <c r="M37" s="12">
+      <c r="N37" s="12">
         <v>85.71</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>43845</v>
       </c>
-      <c r="O37" s="7">
+      <c r="P37" s="7">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="P37" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="4" t="s">
+      <c r="Q37" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0</v>
-      </c>
-      <c r="I38" s="12">
+      <c r="H38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
         <v>100</v>
       </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="12">
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
         <v>100</v>
       </c>
-      <c r="L38" s="22">
+      <c r="M38" s="22">
         <v>8</v>
       </c>
-      <c r="M38" s="12">
+      <c r="N38" s="12">
         <v>83.33</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>43845</v>
       </c>
-      <c r="O38" s="7">
+      <c r="P38" s="7">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="P38" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="4" t="s">
+      <c r="Q38" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="16">
+      <c r="H39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="16">
         <v>12</v>
       </c>
-      <c r="I39" s="12">
+      <c r="J39" s="12">
         <v>97.15</v>
       </c>
-      <c r="J39" s="16">
+      <c r="K39" s="16">
         <v>12</v>
       </c>
-      <c r="K39" s="12">
+      <c r="L39" s="12">
         <v>97.15</v>
       </c>
-      <c r="L39" s="22">
+      <c r="M39" s="22">
         <v>9.5</v>
       </c>
-      <c r="M39" s="12">
+      <c r="N39" s="12">
         <v>86.11</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <v>43845</v>
       </c>
-      <c r="O39" s="7">
+      <c r="P39" s="7">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="P39" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="4" t="s">
+      <c r="Q39" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="16">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12">
+      <c r="H40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
         <v>100</v>
       </c>
-      <c r="J40" s="16">
+      <c r="K40" s="16">
         <v>4</v>
       </c>
-      <c r="K40" s="12">
+      <c r="L40" s="12">
         <v>51.1</v>
       </c>
-      <c r="L40" s="22">
+      <c r="M40" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M40" s="12">
+      <c r="N40" s="12">
         <v>75.760000000000005</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <v>43845</v>
       </c>
-      <c r="O40" s="7">
+      <c r="P40" s="7">
         <v>8.1944444444444445E-2</v>
       </c>
-      <c r="P40" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="4" t="s">
+      <c r="Q40" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0</v>
-      </c>
-      <c r="I41" s="12">
+      <c r="H41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
         <v>100</v>
       </c>
-      <c r="J41" s="16">
+      <c r="K41" s="16">
         <v>4</v>
       </c>
-      <c r="K41" s="12">
+      <c r="L41" s="12">
         <v>51.1</v>
       </c>
-      <c r="L41" s="22">
+      <c r="M41" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M41" s="12">
+      <c r="N41" s="12">
         <v>75.760000000000005</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <v>43845</v>
       </c>
-      <c r="O41" s="7">
+      <c r="P41" s="7">
         <v>8.1944444444444445E-2</v>
       </c>
-      <c r="P41" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="4" t="s">
+      <c r="Q41" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="16">
+      <c r="H42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="16">
         <v>36</v>
       </c>
-      <c r="I42" s="12">
+      <c r="J42" s="12">
         <v>17.43</v>
       </c>
-      <c r="J42" s="16">
+      <c r="K42" s="16">
         <v>36</v>
       </c>
-      <c r="K42" s="12">
+      <c r="L42" s="12">
         <v>17.43</v>
       </c>
-      <c r="L42" s="22">
+      <c r="M42" s="22">
         <v>9.9</v>
       </c>
-      <c r="M42" s="12">
+      <c r="N42" s="12">
         <v>72.55</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>43845</v>
       </c>
-      <c r="O42" s="7">
+      <c r="P42" s="7">
         <v>0.10486111111111111</v>
       </c>
-      <c r="P42" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="4" t="s">
+      <c r="Q42" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="16">
+      <c r="H43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="16">
         <v>20</v>
       </c>
-      <c r="I43" s="12">
+      <c r="J43" s="12">
         <v>96.73</v>
       </c>
-      <c r="J43" s="16">
+      <c r="K43" s="16">
         <v>24</v>
       </c>
-      <c r="K43" s="12">
+      <c r="L43" s="12">
         <v>81.99</v>
       </c>
-      <c r="L43" s="22">
+      <c r="M43" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M43" s="12">
+      <c r="N43" s="12">
         <v>84.31</v>
       </c>
-      <c r="N43" s="6">
+      <c r="O43" s="6">
         <v>43845</v>
       </c>
-      <c r="O43" s="7">
+      <c r="P43" s="7">
         <v>0.10486111111111111</v>
       </c>
-      <c r="P43" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="4" t="s">
+      <c r="Q43" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="16">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
+      <c r="H44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
         <v>100</v>
       </c>
-      <c r="J44" s="16">
-        <v>0</v>
-      </c>
-      <c r="K44" s="12">
+      <c r="K44" s="16">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
         <v>100</v>
       </c>
-      <c r="L44" s="22">
+      <c r="M44" s="22">
         <v>8.1</v>
       </c>
-      <c r="M44" s="12">
+      <c r="N44" s="12">
         <v>86.67</v>
       </c>
-      <c r="N44" s="6">
+      <c r="O44" s="6">
         <v>43845</v>
       </c>
-      <c r="O44" s="7">
+      <c r="P44" s="7">
         <v>0.11527777777777777</v>
       </c>
-      <c r="P44" s="20" t="s">
+      <c r="Q44" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="2:17">
+      <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="16">
+      <c r="H45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="16">
         <v>4</v>
       </c>
-      <c r="I45" s="12">
+      <c r="J45" s="12">
         <v>67.17</v>
       </c>
-      <c r="J45" s="16">
+      <c r="K45" s="16">
         <v>4</v>
       </c>
-      <c r="K45" s="12">
+      <c r="L45" s="12">
         <v>67.17</v>
       </c>
-      <c r="L45" s="22">
+      <c r="M45" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M45" s="12">
+      <c r="N45" s="12">
         <v>100</v>
       </c>
-      <c r="N45" s="6">
+      <c r="O45" s="6">
         <v>43845</v>
       </c>
-      <c r="O45" s="7">
+      <c r="P45" s="7">
         <v>0.15277777777777776</v>
       </c>
-      <c r="P45" s="20" t="s">
+      <c r="Q45" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="2:17">
+      <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="16">
+      <c r="H46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="16">
         <v>28</v>
       </c>
-      <c r="I46" s="12">
+      <c r="J46" s="12">
         <v>21.98</v>
       </c>
-      <c r="J46" s="16">
+      <c r="K46" s="16">
         <v>36</v>
       </c>
-      <c r="K46" s="12">
+      <c r="L46" s="12">
         <v>7.71</v>
       </c>
-      <c r="L46" s="22">
+      <c r="M46" s="22">
         <v>9.5</v>
       </c>
-      <c r="M46" s="12">
+      <c r="N46" s="12">
         <v>79.099999999999994</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O46" s="6">
         <v>43845</v>
       </c>
-      <c r="O46" s="7">
+      <c r="P46" s="7">
         <v>0.17152777777777775</v>
       </c>
-      <c r="P46" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="4" t="s">
+      <c r="Q46" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="16">
+      <c r="H47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="16">
         <v>16</v>
       </c>
-      <c r="I47" s="12">
+      <c r="J47" s="12">
         <v>57.49</v>
       </c>
-      <c r="J47" s="16">
+      <c r="K47" s="16">
         <v>24</v>
       </c>
-      <c r="K47" s="12">
+      <c r="L47" s="12">
         <v>30.71</v>
       </c>
-      <c r="L47" s="22">
+      <c r="M47" s="22">
         <v>9.6</v>
       </c>
-      <c r="M47" s="12">
+      <c r="N47" s="12">
         <v>55.22</v>
       </c>
-      <c r="N47" s="6">
+      <c r="O47" s="6">
         <v>43845</v>
       </c>
-      <c r="O47" s="7">
+      <c r="P47" s="7">
         <v>0.17152777777777775</v>
       </c>
-      <c r="P47" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="4" t="s">
+      <c r="Q47" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="16">
+      <c r="H48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="16">
         <v>28</v>
       </c>
-      <c r="I48" s="12">
+      <c r="J48" s="12">
         <v>71.430000000000007</v>
       </c>
-      <c r="J48" s="16">
+      <c r="K48" s="16">
         <v>28</v>
       </c>
-      <c r="K48" s="12">
+      <c r="L48" s="12">
         <v>71.430000000000007</v>
       </c>
-      <c r="L48" s="22">
+      <c r="M48" s="22">
         <v>12.7</v>
       </c>
-      <c r="M48" s="12">
+      <c r="N48" s="12">
         <v>5.66</v>
       </c>
-      <c r="N48" s="6">
+      <c r="O48" s="6">
         <v>43845</v>
       </c>
-      <c r="O48" s="7">
+      <c r="P48" s="7">
         <v>0.22152777777777777</v>
       </c>
-      <c r="P48" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="4" t="s">
+      <c r="Q48" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="16">
-        <v>0</v>
-      </c>
-      <c r="I49" s="12">
+      <c r="H49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
         <v>100</v>
       </c>
-      <c r="J49" s="16">
+      <c r="K49" s="16">
         <v>4</v>
       </c>
-      <c r="K49" s="12">
+      <c r="L49" s="12">
         <v>76.239999999999995</v>
       </c>
-      <c r="L49" s="22">
+      <c r="M49" s="22">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M49" s="12">
+      <c r="N49" s="12">
         <v>84.72</v>
       </c>
-      <c r="N49" s="6">
+      <c r="O49" s="6">
         <v>43845</v>
       </c>
-      <c r="O49" s="7">
+      <c r="P49" s="7">
         <v>0.67569444444444438</v>
       </c>
-      <c r="P49" s="20" t="s">
+      <c r="Q49" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:17">
+      <c r="B50" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="16">
-        <v>0</v>
-      </c>
-      <c r="I50" s="12">
+      <c r="H50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
         <v>100</v>
       </c>
-      <c r="J50" s="16">
-        <v>0</v>
-      </c>
-      <c r="K50" s="12">
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+      <c r="L50" s="12">
         <v>100</v>
       </c>
-      <c r="L50" s="22">
+      <c r="M50" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M50" s="12">
+      <c r="N50" s="12">
         <v>72.13</v>
       </c>
-      <c r="N50" s="6">
+      <c r="O50" s="6">
         <v>43845</v>
       </c>
-      <c r="O50" s="7">
+      <c r="P50" s="7">
         <v>0.92013888888888884</v>
       </c>
-      <c r="P50" s="20" t="s">
+      <c r="Q50" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:17">
+      <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="16">
+      <c r="H51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="16">
         <v>24</v>
       </c>
-      <c r="I51" s="12">
+      <c r="J51" s="12">
         <v>7.12</v>
       </c>
-      <c r="J51" s="16">
+      <c r="K51" s="16">
         <v>24</v>
       </c>
-      <c r="K51" s="12">
+      <c r="L51" s="12">
         <v>7.12</v>
       </c>
-      <c r="L51" s="22">
+      <c r="M51" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M51" s="12">
+      <c r="N51" s="12">
         <v>10</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="6">
         <v>43845</v>
       </c>
-      <c r="O51" s="7">
+      <c r="P51" s="7">
         <v>0.96597222222222223</v>
       </c>
-      <c r="P51" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="4" t="s">
+      <c r="Q51" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="B52" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="16">
+      <c r="H52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="16">
         <v>4</v>
       </c>
-      <c r="I52" s="12">
+      <c r="J52" s="12">
         <v>98.91</v>
       </c>
-      <c r="J52" s="16">
+      <c r="K52" s="16">
         <v>4</v>
       </c>
-      <c r="K52" s="12">
+      <c r="L52" s="12">
         <v>98.91</v>
       </c>
-      <c r="L52" s="22">
+      <c r="M52" s="22">
         <v>9.1</v>
       </c>
-      <c r="M52" s="12">
+      <c r="N52" s="12">
         <v>86.67</v>
       </c>
-      <c r="N52" s="6">
+      <c r="O52" s="6">
         <v>43845</v>
       </c>
-      <c r="O52" s="7">
+      <c r="P52" s="7">
         <v>0.96597222222222223</v>
       </c>
-      <c r="P52" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="4" t="s">
+      <c r="Q52" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="16">
+      <c r="H53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="16">
         <v>4</v>
       </c>
-      <c r="I53" s="12">
+      <c r="J53" s="12">
         <v>98.91</v>
       </c>
-      <c r="J53" s="16">
+      <c r="K53" s="16">
         <v>4</v>
       </c>
-      <c r="K53" s="12">
+      <c r="L53" s="12">
         <v>98.91</v>
       </c>
-      <c r="L53" s="22">
+      <c r="M53" s="22">
         <v>9.6</v>
       </c>
-      <c r="M53" s="12">
+      <c r="N53" s="12">
         <v>23.33</v>
       </c>
-      <c r="N53" s="6">
+      <c r="O53" s="6">
         <v>43845</v>
       </c>
-      <c r="O53" s="7">
+      <c r="P53" s="7">
         <v>0.96597222222222223</v>
       </c>
-      <c r="P53" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="4" t="s">
+      <c r="Q53" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="16">
+      <c r="H54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="16">
         <v>4</v>
       </c>
-      <c r="I54" s="12">
+      <c r="J54" s="12">
         <v>99.22</v>
       </c>
-      <c r="J54" s="16">
+      <c r="K54" s="16">
         <v>4</v>
       </c>
-      <c r="K54" s="12">
+      <c r="L54" s="12">
         <v>99.22</v>
       </c>
-      <c r="L54" s="22">
+      <c r="M54" s="22">
         <v>9</v>
       </c>
-      <c r="M54" s="12">
+      <c r="N54" s="12">
         <v>94.64</v>
       </c>
-      <c r="N54" s="6">
+      <c r="O54" s="6">
         <v>43845</v>
       </c>
-      <c r="O54" s="7">
+      <c r="P54" s="7">
         <v>0.98749999999999993</v>
       </c>
-      <c r="P54" s="20" t="s">
+      <c r="Q54" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="16">
-        <v>0</v>
-      </c>
-      <c r="I55" s="12">
+      <c r="H55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
         <v>100</v>
       </c>
-      <c r="J55" s="16">
-        <v>0</v>
-      </c>
-      <c r="K55" s="12">
+      <c r="K55" s="16">
+        <v>0</v>
+      </c>
+      <c r="L55" s="12">
         <v>100</v>
       </c>
-      <c r="L55" s="22">
+      <c r="M55" s="22">
         <v>8.6</v>
       </c>
-      <c r="M55" s="12">
+      <c r="N55" s="12">
         <v>92.86</v>
       </c>
-      <c r="N55" s="6">
+      <c r="O55" s="6">
         <v>43846</v>
       </c>
-      <c r="O55" s="7">
+      <c r="P55" s="7">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="P55" s="20" t="s">
+      <c r="Q55" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:17">
+      <c r="B56" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="16">
+      <c r="H56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="16">
         <v>16</v>
       </c>
-      <c r="I56" s="12">
+      <c r="J56" s="12">
         <v>23.63</v>
       </c>
-      <c r="J56" s="16">
+      <c r="K56" s="16">
         <v>20</v>
       </c>
-      <c r="K56" s="12">
+      <c r="L56" s="12">
         <v>11.21</v>
       </c>
-      <c r="L56" s="22">
+      <c r="M56" s="22">
         <v>9.1</v>
       </c>
-      <c r="M56" s="12">
+      <c r="N56" s="12">
         <v>86</v>
       </c>
-      <c r="N56" s="6">
+      <c r="O56" s="6">
         <v>43846</v>
       </c>
-      <c r="O56" s="7">
+      <c r="P56" s="7">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="P56" s="20" t="s">
+      <c r="Q56" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:17">
+      <c r="B57" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="16">
+      <c r="H57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="16">
         <v>8</v>
       </c>
-      <c r="I57" s="12">
+      <c r="J57" s="12">
         <v>86.74</v>
       </c>
-      <c r="J57" s="16">
+      <c r="K57" s="16">
         <v>12</v>
       </c>
-      <c r="K57" s="12">
+      <c r="L57" s="12">
         <v>54.23</v>
       </c>
-      <c r="L57" s="22">
+      <c r="M57" s="22">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M57" s="12">
+      <c r="N57" s="12">
         <v>60</v>
       </c>
-      <c r="N57" s="6">
+      <c r="O57" s="6">
         <v>43846</v>
       </c>
-      <c r="O57" s="7">
+      <c r="P57" s="7">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="P57" s="20" t="s">
+      <c r="Q57" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:17">
+      <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="16">
-        <v>0</v>
-      </c>
-      <c r="I58" s="12">
+      <c r="H58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="16">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
         <v>100</v>
       </c>
-      <c r="J58" s="16">
+      <c r="K58" s="16">
         <v>4</v>
       </c>
-      <c r="K58" s="12">
+      <c r="L58" s="12">
         <v>75.709999999999994</v>
       </c>
-      <c r="L58" s="22">
+      <c r="M58" s="22">
         <v>11.8</v>
       </c>
-      <c r="M58" s="12">
+      <c r="N58" s="12">
         <v>63.16</v>
       </c>
-      <c r="N58" s="6">
+      <c r="O58" s="6">
         <v>43846</v>
       </c>
-      <c r="O58" s="7">
+      <c r="P58" s="7">
         <v>0.10277777777777779</v>
       </c>
-      <c r="P58" s="20" t="s">
+      <c r="Q58" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:17">
+      <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="16">
+      <c r="H59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="16">
         <v>12</v>
       </c>
-      <c r="I59" s="12">
+      <c r="J59" s="12">
         <v>82.35</v>
       </c>
-      <c r="J59" s="16">
+      <c r="K59" s="16">
         <v>12</v>
       </c>
-      <c r="K59" s="12">
+      <c r="L59" s="12">
         <v>82.35</v>
       </c>
-      <c r="L59" s="22">
+      <c r="M59" s="22">
         <v>10.3</v>
       </c>
-      <c r="M59" s="12">
+      <c r="N59" s="12">
         <v>11.54</v>
       </c>
-      <c r="N59" s="6">
+      <c r="O59" s="6">
         <v>43846</v>
       </c>
-      <c r="O59" s="7">
+      <c r="P59" s="7">
         <v>0.13263888888888889</v>
       </c>
-      <c r="P59" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="4" t="s">
+      <c r="Q59" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="16">
+      <c r="H60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="16">
         <v>24</v>
       </c>
-      <c r="I60" s="12">
+      <c r="J60" s="12">
         <v>69.569999999999993</v>
       </c>
-      <c r="J60" s="16">
+      <c r="K60" s="16">
         <v>24</v>
       </c>
-      <c r="K60" s="12">
+      <c r="L60" s="12">
         <v>69.569999999999993</v>
       </c>
-      <c r="L60" s="22">
+      <c r="M60" s="22">
         <v>13.4</v>
       </c>
-      <c r="M60" s="12">
+      <c r="N60" s="12">
         <v>29.31</v>
       </c>
-      <c r="N60" s="6">
+      <c r="O60" s="6">
         <v>43846</v>
       </c>
-      <c r="O60" s="7">
+      <c r="P60" s="7">
         <v>0.16597222222222222</v>
       </c>
-      <c r="P60" s="20" t="s">
+      <c r="Q60" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:17">
+      <c r="B61" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="9"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="13"/>
       <c r="O61" s="9"/>
-      <c r="P61" s="20" t="s">
+      <c r="P61" s="9"/>
+      <c r="Q61" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:17">
+      <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="16">
-        <v>0</v>
-      </c>
-      <c r="I62" s="12">
+      <c r="H62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
         <v>100</v>
       </c>
-      <c r="J62" s="16">
+      <c r="K62" s="16">
         <v>4</v>
       </c>
-      <c r="K62" s="12">
+      <c r="L62" s="12">
         <v>53.85</v>
       </c>
-      <c r="L62" s="22">
+      <c r="M62" s="22">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M62" s="12">
+      <c r="N62" s="12">
         <v>18.18</v>
       </c>
-      <c r="N62" s="6">
+      <c r="O62" s="6">
         <v>43846</v>
       </c>
-      <c r="O62" s="7">
+      <c r="P62" s="7">
         <v>0.19166666666666665</v>
       </c>
-      <c r="P62" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="4" t="s">
+      <c r="Q62" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="16">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12">
+      <c r="H63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="16">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
         <v>100</v>
       </c>
-      <c r="J63" s="16">
+      <c r="K63" s="16">
         <v>4</v>
       </c>
-      <c r="K63" s="12">
+      <c r="L63" s="12">
         <v>56.2</v>
       </c>
-      <c r="L63" s="22">
+      <c r="M63" s="22">
         <v>8.1</v>
       </c>
-      <c r="M63" s="12">
+      <c r="N63" s="12">
         <v>96</v>
       </c>
-      <c r="N63" s="6">
+      <c r="O63" s="6">
         <v>43846</v>
       </c>
-      <c r="O63" s="7">
+      <c r="P63" s="7">
         <v>0.20694444444444446</v>
       </c>
-      <c r="P63" s="20" t="s">
+      <c r="Q63" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:17">
+      <c r="B64" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C64" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="16">
-        <v>0</v>
-      </c>
-      <c r="I64" s="12">
+      <c r="H64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="16">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
         <v>100</v>
       </c>
-      <c r="J64" s="16">
-        <v>0</v>
-      </c>
-      <c r="K64" s="12">
+      <c r="K64" s="16">
+        <v>0</v>
+      </c>
+      <c r="L64" s="12">
         <v>100</v>
       </c>
-      <c r="L64" s="22">
+      <c r="M64" s="22">
         <v>8.1</v>
       </c>
-      <c r="M64" s="12">
+      <c r="N64" s="12">
         <v>96</v>
       </c>
-      <c r="N64" s="6">
+      <c r="O64" s="6">
         <v>43846</v>
       </c>
-      <c r="O64" s="7">
+      <c r="P64" s="7">
         <v>0.20694444444444446</v>
       </c>
-      <c r="P64" s="20" t="s">
+      <c r="Q64" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:17">
+      <c r="B65" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="16">
+      <c r="H65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="16">
         <v>48</v>
       </c>
-      <c r="I65" s="12">
+      <c r="J65" s="12">
         <v>14.94</v>
       </c>
-      <c r="J65" s="16">
+      <c r="K65" s="16">
         <v>48</v>
       </c>
-      <c r="K65" s="12">
+      <c r="L65" s="12">
         <v>14.94</v>
       </c>
-      <c r="L65" s="22">
+      <c r="M65" s="22">
         <v>15.9</v>
       </c>
-      <c r="M65" s="12">
+      <c r="N65" s="12">
         <v>23.53</v>
       </c>
-      <c r="N65" s="6">
+      <c r="O65" s="6">
         <v>43846</v>
       </c>
-      <c r="O65" s="7">
+      <c r="P65" s="7">
         <v>0.55833333333333335</v>
       </c>
-      <c r="P65" s="20" t="s">
+      <c r="Q65" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:17">
+      <c r="B66" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="E66" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="G66" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="H66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="9"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="20" t="s">
+      <c r="P66" s="9"/>
+      <c r="Q66" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:17">
+      <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="16">
+      <c r="H67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="16">
         <v>56</v>
       </c>
-      <c r="I67" s="12">
+      <c r="J67" s="12">
         <v>19.059999999999999</v>
       </c>
-      <c r="J67" s="16">
+      <c r="K67" s="16">
         <v>60</v>
       </c>
-      <c r="K67" s="12">
+      <c r="L67" s="12">
         <v>9.64</v>
       </c>
-      <c r="L67" s="22">
+      <c r="M67" s="22">
         <v>16.600000000000001</v>
       </c>
-      <c r="M67" s="12">
+      <c r="N67" s="12">
         <v>54.95</v>
       </c>
-      <c r="N67" s="6">
+      <c r="O67" s="6">
         <v>43847</v>
       </c>
-      <c r="O67" s="7">
+      <c r="P67" s="7">
         <v>0.12986111111111112</v>
       </c>
-      <c r="P67" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="4" t="s">
+      <c r="Q67" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="16">
+      <c r="H68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="16">
         <v>32</v>
       </c>
-      <c r="I68" s="12">
+      <c r="J68" s="12">
         <v>88.87</v>
       </c>
-      <c r="J68" s="16">
+      <c r="K68" s="16">
         <v>32</v>
       </c>
-      <c r="K68" s="12">
+      <c r="L68" s="12">
         <v>88.87</v>
       </c>
-      <c r="L68" s="22">
+      <c r="M68" s="22">
         <v>11.3</v>
       </c>
-      <c r="M68" s="12">
+      <c r="N68" s="12">
         <v>96.7</v>
       </c>
-      <c r="N68" s="6">
+      <c r="O68" s="6">
         <v>43847</v>
       </c>
-      <c r="O68" s="7">
+      <c r="P68" s="7">
         <v>0.12986111111111112</v>
       </c>
-      <c r="P68" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="4" t="s">
+      <c r="Q68" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="B69" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="16">
-        <v>0</v>
-      </c>
-      <c r="I69" s="12">
+      <c r="H69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="16">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
         <v>100</v>
       </c>
-      <c r="J69" s="16">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
+      <c r="K69" s="16">
+        <v>0</v>
+      </c>
+      <c r="L69" s="12">
         <v>100</v>
       </c>
-      <c r="L69" s="22">
+      <c r="M69" s="22">
         <v>9.1</v>
       </c>
-      <c r="M69" s="12">
+      <c r="N69" s="12">
         <v>6.67</v>
       </c>
-      <c r="N69" s="6">
+      <c r="O69" s="6">
         <v>43847</v>
       </c>
-      <c r="O69" s="7">
+      <c r="P69" s="7">
         <v>0.14097222222222222</v>
       </c>
-      <c r="P69" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="4" t="s">
+      <c r="Q69" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C70" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="16">
+      <c r="H70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="16">
         <v>12</v>
       </c>
-      <c r="I70" s="12">
+      <c r="J70" s="12">
         <v>16.760000000000002</v>
       </c>
-      <c r="J70" s="16">
+      <c r="K70" s="16">
         <v>12</v>
       </c>
-      <c r="K70" s="12">
+      <c r="L70" s="12">
         <v>16.760000000000002</v>
       </c>
-      <c r="L70" s="22">
+      <c r="M70" s="22">
         <v>9.9</v>
       </c>
-      <c r="M70" s="12">
+      <c r="N70" s="12">
         <v>5.34</v>
       </c>
-      <c r="N70" s="6">
+      <c r="O70" s="6">
         <v>43847</v>
       </c>
-      <c r="O70" s="7">
+      <c r="P70" s="7">
         <v>0.17083333333333331</v>
       </c>
-      <c r="P70" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="4" t="s">
+      <c r="Q70" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C71" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="16">
+      <c r="H71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="16">
         <v>12</v>
       </c>
-      <c r="I71" s="12">
+      <c r="J71" s="12">
         <v>16.760000000000002</v>
       </c>
-      <c r="J71" s="16">
+      <c r="K71" s="16">
         <v>12</v>
       </c>
-      <c r="K71" s="12">
+      <c r="L71" s="12">
         <v>16.760000000000002</v>
       </c>
-      <c r="L71" s="22">
+      <c r="M71" s="22">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M71" s="12">
+      <c r="N71" s="12">
         <v>5.34</v>
       </c>
-      <c r="N71" s="6">
+      <c r="O71" s="6">
         <v>43847</v>
       </c>
-      <c r="O71" s="7">
+      <c r="P71" s="7">
         <v>0.17083333333333331</v>
       </c>
-      <c r="P71" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="4" t="s">
+      <c r="Q71" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="16">
-        <v>0</v>
-      </c>
-      <c r="I72" s="12">
+      <c r="H72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
         <v>100</v>
       </c>
-      <c r="J72" s="16">
+      <c r="K72" s="16">
         <v>4</v>
       </c>
-      <c r="K72" s="12">
+      <c r="L72" s="12">
         <v>60.9</v>
       </c>
-      <c r="L72" s="22">
+      <c r="M72" s="22">
         <v>10.199999999999999</v>
       </c>
-      <c r="M72" s="12">
+      <c r="N72" s="12">
         <v>5.45</v>
       </c>
-      <c r="N72" s="6">
+      <c r="O72" s="6">
         <v>43847</v>
       </c>
-      <c r="O72" s="7">
+      <c r="P72" s="7">
         <v>0.18124999999999999</v>
       </c>
-      <c r="P72" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" s="4" t="s">
+      <c r="Q72" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="B73" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="16">
+      <c r="H73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="16">
         <v>644</v>
       </c>
-      <c r="I73" s="12">
+      <c r="J73" s="12">
         <v>6.16</v>
       </c>
-      <c r="J73" s="16">
+      <c r="K73" s="16">
         <v>644</v>
       </c>
-      <c r="K73" s="12">
+      <c r="L73" s="12">
         <v>6.16</v>
       </c>
-      <c r="L73" s="22">
+      <c r="M73" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M73" s="12">
+      <c r="N73" s="12">
         <v>95.83</v>
       </c>
-      <c r="N73" s="6">
+      <c r="O73" s="6">
         <v>43847</v>
       </c>
-      <c r="O73" s="7">
+      <c r="P73" s="7">
         <v>0.20694444444444446</v>
       </c>
-      <c r="P73" s="20" t="s">
+      <c r="Q73" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:17">
+      <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="16">
-        <v>0</v>
-      </c>
-      <c r="I74" s="12">
+      <c r="H74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
         <v>100</v>
       </c>
-      <c r="J74" s="16">
+      <c r="K74" s="16">
         <v>4</v>
       </c>
-      <c r="K74" s="12">
+      <c r="L74" s="12">
         <v>66.239999999999995</v>
       </c>
-      <c r="L74" s="22">
+      <c r="M74" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M74" s="12">
+      <c r="N74" s="12">
         <v>60.98</v>
       </c>
-      <c r="N74" s="6">
+      <c r="O74" s="6">
         <v>43847</v>
       </c>
-      <c r="O74" s="7">
+      <c r="P74" s="7">
         <v>0.64930555555555558</v>
       </c>
-      <c r="P74" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="4" t="s">
+      <c r="Q74" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="16">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12">
+      <c r="H75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
         <v>100</v>
       </c>
-      <c r="J75" s="16">
+      <c r="K75" s="16">
         <v>4</v>
       </c>
-      <c r="K75" s="12">
+      <c r="L75" s="12">
         <v>66.239999999999995</v>
       </c>
-      <c r="L75" s="22">
+      <c r="M75" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M75" s="12">
+      <c r="N75" s="12">
         <v>78.05</v>
       </c>
-      <c r="N75" s="6">
+      <c r="O75" s="6">
         <v>43847</v>
       </c>
-      <c r="O75" s="7">
+      <c r="P75" s="7">
         <v>0.64930555555555558</v>
       </c>
-      <c r="P75" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="4" t="s">
+      <c r="Q75" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="16">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12">
+      <c r="H76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
         <v>100</v>
       </c>
-      <c r="J76" s="16">
+      <c r="K76" s="16">
         <v>4</v>
       </c>
-      <c r="K76" s="12">
+      <c r="L76" s="12">
         <v>66.239999999999995</v>
       </c>
-      <c r="L76" s="22">
+      <c r="M76" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M76" s="12">
+      <c r="N76" s="12">
         <v>60.98</v>
       </c>
-      <c r="N76" s="6">
+      <c r="O76" s="6">
         <v>43847</v>
       </c>
-      <c r="O76" s="7">
+      <c r="P76" s="7">
         <v>0.64930555555555558</v>
       </c>
-      <c r="P76" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="4" t="s">
+      <c r="Q76" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="B77" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="16">
+      <c r="H77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="16">
         <v>12</v>
       </c>
-      <c r="I77" s="12">
+      <c r="J77" s="12">
         <v>75.47</v>
       </c>
-      <c r="J77" s="16">
+      <c r="K77" s="16">
         <v>12</v>
       </c>
-      <c r="K77" s="12">
+      <c r="L77" s="12">
         <v>75.47</v>
       </c>
-      <c r="L77" s="22">
+      <c r="M77" s="22">
         <v>9.9</v>
       </c>
-      <c r="M77" s="12">
+      <c r="N77" s="12">
         <v>15.09</v>
       </c>
-      <c r="N77" s="6">
+      <c r="O77" s="6">
         <v>43847</v>
       </c>
-      <c r="O77" s="7">
+      <c r="P77" s="7">
         <v>0.86597222222222225</v>
       </c>
-      <c r="P77" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="4" t="s">
+      <c r="Q77" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="16">
+      <c r="H78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="16">
         <v>16</v>
       </c>
-      <c r="I78" s="12">
+      <c r="J78" s="12">
         <v>18.89</v>
       </c>
-      <c r="J78" s="16">
+      <c r="K78" s="16">
         <v>16</v>
       </c>
-      <c r="K78" s="12">
+      <c r="L78" s="12">
         <v>18.89</v>
       </c>
-      <c r="L78" s="22">
+      <c r="M78" s="22">
         <v>10.6</v>
       </c>
-      <c r="M78" s="12">
+      <c r="N78" s="12">
         <v>5.66</v>
       </c>
-      <c r="N78" s="6">
+      <c r="O78" s="6">
         <v>43847</v>
       </c>
-      <c r="O78" s="7">
+      <c r="P78" s="7">
         <v>0.86597222222222225</v>
       </c>
-      <c r="P78" s="20" t="b">
-        <v>0</v>
+      <c r="Q78" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="16">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <v>100</v>
+      </c>
+      <c r="K79" s="16">
+        <v>4</v>
+      </c>
+      <c r="L79" s="12">
+        <v>58.28</v>
+      </c>
+      <c r="M79" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N79" s="12">
+        <v>92.86</v>
+      </c>
+      <c r="O79" s="6">
+        <v>43847</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="Q79" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
+  <autoFilter ref="B1:Q47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD0FE8F-70EC-448D-83D6-0E53739B3948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F390E9-997B-4162-ADDD-4E3A698D4F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2145" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="4275" yWindow="3420" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="245">
   <si>
     <t>Date</t>
   </si>
@@ -814,7 +814,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不知道为什么，n阶乘里有多少个x是while(n!=0){n/=x;count+=n;}</t>
+    <t>基本思路，找出有多少个5；不知道为什么，n阶乘里有多少个x是while(n!=0){n/=x;count+=n;}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树分布，每个枝分别为1，2，满值为target时加1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐波那契数列，见pdf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5160,6 +5184,112 @@
         <v>32</v>
       </c>
     </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="J80" s="12">
+        <v>0</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="L80" s="12">
+        <v>0</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="N80" s="12">
+        <v>0</v>
+      </c>
+      <c r="O80" s="6">
+        <v>43847</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="Q80" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="16">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>100</v>
+      </c>
+      <c r="K81" s="16">
+        <v>4</v>
+      </c>
+      <c r="L81" s="12">
+        <v>52.9</v>
+      </c>
+      <c r="M81" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N81" s="12">
+        <v>86.76</v>
+      </c>
+      <c r="O81" s="6">
+        <v>43847</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="Q81" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:Q47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F390E9-997B-4162-ADDD-4E3A698D4F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAF12FC-D884-47C2-9570-88931835548A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="3420" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5820" yWindow="7740" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="249">
   <si>
     <t>Date</t>
   </si>
@@ -839,6 +839,22 @@
   </si>
   <si>
     <t>斐波那契数列，见pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0235</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随意树的路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意二叉树，左小右大，（此题每个node的值为unique）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1270,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5290,6 +5306,111 @@
         <v>0</v>
       </c>
     </row>
+    <row r="82" spans="1:17">
+      <c r="B82" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="16">
+        <v>244</v>
+      </c>
+      <c r="J82" s="12">
+        <v>7.14</v>
+      </c>
+      <c r="K82" s="16">
+        <v>244</v>
+      </c>
+      <c r="L82" s="12">
+        <v>7.14</v>
+      </c>
+      <c r="M82" s="22">
+        <v>181.6</v>
+      </c>
+      <c r="N82" s="12">
+        <v>5.88</v>
+      </c>
+      <c r="O82" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P82" s="7">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="Q82" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="B83" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="16">
+        <v>40</v>
+      </c>
+      <c r="J83" s="12">
+        <v>53.22</v>
+      </c>
+      <c r="K83" s="16">
+        <v>40</v>
+      </c>
+      <c r="L83" s="12">
+        <v>53.22</v>
+      </c>
+      <c r="M83" s="22">
+        <v>25.8</v>
+      </c>
+      <c r="N83" s="12">
+        <v>100</v>
+      </c>
+      <c r="O83" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P83" s="7">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="Q83" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3">
+      <c r="C1048576" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:Q47" xr:uid="{33932A4B-0B4D-2843-BDF5-66CE306FFE65}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAF12FC-D884-47C2-9570-88931835548A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D89CB2-9617-48F5-B088-ADC122B85784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="7740" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="6885" yWindow="8415" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="253">
   <si>
     <t>Date</t>
   </si>
@@ -855,6 +855,22 @@
   </si>
   <si>
     <t>注意二叉树，左小右大，（此题每个node的值为unique）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree｜Depth-first Search｜Breadth-first Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterate，注意一支有的时候的特殊情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1288,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="G75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5406,6 +5422,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="1:17">
+      <c r="B84" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="16">
+        <v>8</v>
+      </c>
+      <c r="J84" s="12">
+        <v>95.66</v>
+      </c>
+      <c r="K84" s="16">
+        <v>12</v>
+      </c>
+      <c r="L84" s="12">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="M84" s="22">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N84" s="12">
+        <v>64.28</v>
+      </c>
+      <c r="O84" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P84" s="7">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Q84" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D89CB2-9617-48F5-B088-ADC122B85784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9891D-B432-400C-B27E-A877B4815D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="8415" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="6270" yWindow="3810" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -871,6 +871,22 @@
   </si>
   <si>
     <t>iterate，注意一支有的时候的特殊情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use stack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1304,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5472,6 +5488,106 @@
         <v>28</v>
       </c>
     </row>
+    <row r="85" spans="1:17">
+      <c r="B85" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="16">
+        <v>60</v>
+      </c>
+      <c r="J85" s="12">
+        <v>24.91</v>
+      </c>
+      <c r="K85" s="16">
+        <v>68</v>
+      </c>
+      <c r="L85" s="12">
+        <v>15.16</v>
+      </c>
+      <c r="M85" s="22">
+        <v>20</v>
+      </c>
+      <c r="N85" s="12">
+        <v>12.96</v>
+      </c>
+      <c r="O85" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="Q85" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="B86" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="16">
+        <v>48</v>
+      </c>
+      <c r="J86" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="K86" s="16">
+        <v>52</v>
+      </c>
+      <c r="L86" s="12">
+        <v>59.97</v>
+      </c>
+      <c r="M86" s="22">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N86" s="12">
+        <v>20.37</v>
+      </c>
+      <c r="O86" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="Q86" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9891D-B432-400C-B27E-A877B4815D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4972D1-C5D8-4A73-A183-BA161EE974AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6270" yWindow="3810" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="262">
   <si>
     <t>Date</t>
   </si>
@@ -887,6 +887,26 @@
   </si>
   <si>
     <t>use stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Return to Origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use switch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use +-char</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5588,6 +5608,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:17">
+      <c r="B87" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="16">
+        <v>16</v>
+      </c>
+      <c r="J87" s="12">
+        <v>87.7</v>
+      </c>
+      <c r="K87" s="16">
+        <v>20</v>
+      </c>
+      <c r="L87" s="12">
+        <v>39.14</v>
+      </c>
+      <c r="M87" s="22">
+        <v>10.3</v>
+      </c>
+      <c r="N87" s="12">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="O87" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="Q87" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="B88" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="16">
+        <v>12</v>
+      </c>
+      <c r="J88" s="12">
+        <v>96.47</v>
+      </c>
+      <c r="K88" s="16">
+        <v>16</v>
+      </c>
+      <c r="L88" s="12">
+        <v>87.7</v>
+      </c>
+      <c r="M88" s="22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N88" s="12">
+        <v>56.1</v>
+      </c>
+      <c r="O88" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P88" s="7">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="Q88" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4972D1-C5D8-4A73-A183-BA161EE974AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6A7EC-AF2C-4F1F-AFF4-46C43A472EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6270" yWindow="3810" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="264">
   <si>
     <t>Date</t>
   </si>
@@ -907,6 +907,14 @@
   </si>
   <si>
     <t>use +-char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decompress Run-Length Encoded List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1313</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1340,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5708,6 +5716,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="89" spans="1:17">
+      <c r="B89" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="16">
+        <v>44</v>
+      </c>
+      <c r="J89" s="12">
+        <v>89.16</v>
+      </c>
+      <c r="K89" s="16">
+        <v>44</v>
+      </c>
+      <c r="L89" s="12">
+        <v>89.16</v>
+      </c>
+      <c r="M89" s="22">
+        <v>10.6</v>
+      </c>
+      <c r="N89" s="12">
+        <v>100</v>
+      </c>
+      <c r="O89" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="Q89" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6A7EC-AF2C-4F1F-AFF4-46C43A472EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AF509-6ED9-4CD4-ADC7-A03ABB167AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6270" yWindow="3810" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="268">
   <si>
     <t>Date</t>
   </si>
@@ -915,6 +915,22 @@
   </si>
   <si>
     <t>1313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypt String from Alphabet to Integer Mapping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1309</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(char) int -&gt; char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1365,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5766,6 +5782,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90" spans="1:17">
+      <c r="B90" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J90" s="12">
+        <v>100</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="L90" s="12">
+        <v>100</v>
+      </c>
+      <c r="M90" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="N90" s="12">
+        <v>100</v>
+      </c>
+      <c r="O90" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="Q90" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AF509-6ED9-4CD4-ADC7-A03ABB167AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C17031-2A41-43EA-9E4E-48735FB7CC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6270" yWindow="3810" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="269">
   <si>
     <t>Date</t>
   </si>
@@ -910,10 +910,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Decompress Run-Length Encoded List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1313</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -931,6 +927,14 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1295</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1364,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5734,13 +5738,13 @@
     </row>
     <row r="89" spans="1:17">
       <c r="B89" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>64</v>
@@ -5784,13 +5788,13 @@
     </row>
     <row r="90" spans="1:17">
       <c r="B90" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>64</v>
@@ -5799,19 +5803,19 @@
         <v>259</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="16" t="s">
-        <v>267</v>
+      <c r="I90" s="16">
+        <v>0</v>
       </c>
       <c r="J90" s="12">
         <v>100</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L90" s="12">
         <v>100</v>
@@ -5829,6 +5833,56 @@
         <v>0.18611111111111112</v>
       </c>
       <c r="Q90" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="B91" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="16">
+        <v>8</v>
+      </c>
+      <c r="J91" s="12">
+        <v>73.17</v>
+      </c>
+      <c r="K91" s="16">
+        <v>8</v>
+      </c>
+      <c r="L91" s="12">
+        <v>73.17</v>
+      </c>
+      <c r="M91" s="22">
+        <v>9</v>
+      </c>
+      <c r="N91" s="12">
+        <v>100</v>
+      </c>
+      <c r="O91" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="Q91" s="20" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C17031-2A41-43EA-9E4E-48735FB7CC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF7852B-3775-4914-864D-6C49C2252D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3810" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="9930" yWindow="4890" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="272">
   <si>
     <t>Date</t>
   </si>
@@ -935,6 +935,18 @@
   </si>
   <si>
     <t>1295</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Split a String in Balanced Strings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String｜Greedy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1369,7 +1381,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5886,6 +5898,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="92" spans="1:17">
+      <c r="B92" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="16">
+        <v>4</v>
+      </c>
+      <c r="J92" s="12">
+        <v>58.71</v>
+      </c>
+      <c r="K92" s="16">
+        <v>4</v>
+      </c>
+      <c r="L92" s="12">
+        <v>58.71</v>
+      </c>
+      <c r="M92" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="N92" s="12">
+        <v>100</v>
+      </c>
+      <c r="O92" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P92" s="7">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="Q92" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF7852B-3775-4914-864D-6C49C2252D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F683B-EAEE-4FA2-9D01-B4F3659FEA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="4890" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="6060" yWindow="4890" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="274">
   <si>
     <t>Date</t>
   </si>
@@ -926,10 +926,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Find Numbers with Even Number of Digits</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -947,6 +943,18 @@
   </si>
   <si>
     <t>String｜Greedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Binary Number in a Linked List to Integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List｜Bit Manipulation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1380,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5826,8 +5834,8 @@
       <c r="J90" s="12">
         <v>100</v>
       </c>
-      <c r="K90" s="16" t="s">
-        <v>266</v>
+      <c r="K90" s="16">
+        <v>0</v>
       </c>
       <c r="L90" s="12">
         <v>100</v>
@@ -5850,13 +5858,13 @@
     </row>
     <row r="91" spans="1:17">
       <c r="B91" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>64</v>
@@ -5900,19 +5908,19 @@
     </row>
     <row r="92" spans="1:17">
       <c r="B92" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>211</v>
@@ -5945,6 +5953,56 @@
         <v>0.21805555555555556</v>
       </c>
       <c r="Q92" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="B93" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="16">
+        <v>0</v>
+      </c>
+      <c r="J93" s="12">
+        <v>100</v>
+      </c>
+      <c r="K93" s="16">
+        <v>0</v>
+      </c>
+      <c r="L93" s="12">
+        <v>100</v>
+      </c>
+      <c r="M93" s="22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N93" s="12">
+        <v>100</v>
+      </c>
+      <c r="O93" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P93" s="7">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="Q93" s="20" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F683B-EAEE-4FA2-9D01-B4F3659FEA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A881049-70FF-47C8-BD6D-DC23B6889FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="4890" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -955,6 +955,22 @@
   </si>
   <si>
     <t>Linked List｜Bit Manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Number of Occurrences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort, set.count()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
@@ -5973,7 +5989,7 @@
         <v>273</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>13</v>
@@ -6003,6 +6019,56 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="Q93" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="B94" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="16">
+        <v>0</v>
+      </c>
+      <c r="J94" s="12">
+        <v>100</v>
+      </c>
+      <c r="K94" s="16">
+        <v>4</v>
+      </c>
+      <c r="L94" s="12">
+        <v>74.34</v>
+      </c>
+      <c r="M94" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N94" s="12">
+        <v>100</v>
+      </c>
+      <c r="O94" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P94" s="7">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="Q94" s="20" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A881049-70FF-47C8-BD6D-DC23B6889FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65B2B7-0C1A-4E59-8FC9-643881AEDAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="4890" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="281">
   <si>
     <t>Date</t>
   </si>
@@ -971,6 +971,18 @@
   </si>
   <si>
     <t>sort, set.count()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height Checker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort,compare</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -978,9 +990,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="[$-F400]hh:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1060,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1068,7 +1081,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1088,6 +1100,10 @@
     <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1405,27 +1421,27 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
@@ -1454,28 +1470,28 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1504,63 +1520,63 @@
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="16">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>100</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>4</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>58.96</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="21">
         <v>9.8000000000000007</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>83.33</v>
       </c>
       <c r="O2" s="6">
         <v>43839</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="20" t="b">
+      <c r="P2" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="20" t="b">
+      <c r="I3" s="16"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1586,63 +1602,63 @@
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>100</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>4</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>84.33</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>14.8</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>61.02</v>
       </c>
       <c r="O4" s="6">
         <v>43839</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20" t="b">
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="20" t="b">
+      <c r="I5" s="16"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1668,31 +1684,31 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>8</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>88.49</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>12</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>58.66</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <v>19.5</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>63.74</v>
       </c>
       <c r="O6" s="6">
         <v>43839</v>
       </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20" t="s">
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1718,31 +1734,31 @@
       <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>8</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>65.25</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>8</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>65.25</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <v>15</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>5.41</v>
       </c>
       <c r="O7" s="6">
         <v>43839</v>
       </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20" t="s">
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1768,31 +1784,31 @@
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>8</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>96.4</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>16</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>41.85</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <v>19.8</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>97.92</v>
       </c>
       <c r="O8" s="6">
         <v>43840</v>
       </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20" t="s">
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1818,31 +1834,31 @@
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <v>100</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
         <v>100</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>96.3</v>
       </c>
       <c r="O9" s="6">
         <v>43840</v>
       </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20" t="b">
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1868,31 +1884,31 @@
       <c r="H10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
         <v>100</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>4</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>60.1</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <v>8.5</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>87.1</v>
       </c>
       <c r="O10" s="6">
         <v>43840</v>
       </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1918,31 +1934,31 @@
       <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>4</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>98.53</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>8</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>68.2</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <v>9.6</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>72.48</v>
       </c>
       <c r="O11" s="6">
         <v>43840</v>
       </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20" t="b">
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1968,31 +1984,31 @@
       <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>4</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>98.12</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>8</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>61.34</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <v>9.6</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>63.49</v>
       </c>
       <c r="O12" s="6">
         <v>43840</v>
       </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20" t="b">
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2018,31 +2034,31 @@
       <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>8</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>85.49</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>8</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>85.49</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <v>10.1</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>6.12</v>
       </c>
       <c r="O13" s="6">
         <v>43840</v>
       </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="20" t="s">
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2068,31 +2084,31 @@
       <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>20</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>37.659999999999997</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>20</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>37.659999999999997</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="21">
         <v>9.8000000000000007</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>69.14</v>
       </c>
       <c r="O14" s="6">
         <v>43840</v>
       </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20" t="b">
+      <c r="P14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2118,31 +2134,31 @@
       <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>20</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>17.96</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>24</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>7.86</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <v>16.600000000000001</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>5.26</v>
       </c>
       <c r="O15" s="6">
         <v>43841</v>
       </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="20" t="b">
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2168,31 +2184,31 @@
       <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>220</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>5.0199999999999996</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>220</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>5.0199999999999996</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <v>17.3</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>5.45</v>
       </c>
       <c r="O16" s="6">
         <v>43841</v>
       </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="20" t="b">
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2218,31 +2234,31 @@
       <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <v>204</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>5.0199999999999996</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>216</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>5.0199999999999996</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <v>16.899999999999999</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>72.73</v>
       </c>
       <c r="O17" s="6">
         <v>43841</v>
       </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="20" t="b">
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2268,31 +2284,31 @@
       <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>4</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>96.78</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>4</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>96.78</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <v>9.5</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <v>78.430000000000007</v>
       </c>
       <c r="O18" s="6">
         <v>43841</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="25">
         <v>0.91666666666666663</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2318,31 +2334,31 @@
       <c r="H19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
         <v>100</v>
       </c>
-      <c r="K19" s="16">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <v>100</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <v>63.64</v>
       </c>
       <c r="O19" s="6">
         <v>43841</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="25">
         <v>0.93819444444444444</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2368,31 +2384,31 @@
       <c r="H20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>24</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>49.02</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>28</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>26.93</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>10.9</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <v>100</v>
       </c>
       <c r="O20" s="6">
         <v>43841</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="25">
         <v>0.9472222222222223</v>
       </c>
-      <c r="Q20" s="20" t="b">
+      <c r="Q20" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2418,31 +2434,31 @@
       <c r="H21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
         <v>100</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <v>4</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>72.58</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <v>55.1</v>
       </c>
       <c r="O21" s="6">
         <v>43841</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="25">
         <v>0.96111111111111114</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2468,31 +2484,31 @@
       <c r="H22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>20</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>39.11</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>28</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>17.239999999999998</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>9.9</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <v>13.89</v>
       </c>
       <c r="O22" s="6">
         <v>43842</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="25">
         <v>0.12569444444444444</v>
       </c>
-      <c r="Q22" s="20" t="b">
+      <c r="Q22" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2518,31 +2534,31 @@
       <c r="H23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>16</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>86.74</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>20</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <v>39.11</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="21">
         <v>9.9</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <v>13.89</v>
       </c>
       <c r="O23" s="6">
         <v>43842</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="25">
         <v>0.12569444444444444</v>
       </c>
-      <c r="Q23" s="20" t="b">
+      <c r="Q23" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2568,31 +2584,31 @@
       <c r="H24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
         <v>100</v>
       </c>
-      <c r="K24" s="16">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
         <v>100</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <v>8.4</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <v>100</v>
       </c>
       <c r="O24" s="6">
         <v>43842</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="25">
         <v>0.6333333333333333</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2618,31 +2634,31 @@
       <c r="H25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <v>4</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>51.83</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <v>4</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <v>51.83</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="21">
         <v>8</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <v>95.24</v>
       </c>
       <c r="O25" s="6">
         <v>43842</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="25">
         <v>0.66041666666666665</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2668,31 +2684,31 @@
       <c r="H26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <v>12</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <v>65.180000000000007</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>12</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <v>65.180000000000007</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>11.2</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="11">
         <v>6.06</v>
       </c>
       <c r="O26" s="6">
         <v>43843</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="25">
         <v>0.57638888888888895</v>
       </c>
-      <c r="Q26" s="20" t="s">
+      <c r="Q26" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2718,31 +2734,31 @@
       <c r="H27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="15">
         <v>4</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>99.61</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <v>12</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="11">
         <v>65.180000000000007</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <v>10.9</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="11">
         <v>6.06</v>
       </c>
       <c r="O27" s="6">
         <v>43843</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="25">
         <v>0.57638888888888895</v>
       </c>
-      <c r="Q27" s="20" t="s">
+      <c r="Q27" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2768,31 +2784,31 @@
       <c r="H28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="15">
         <v>44</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>93.18</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="15">
         <v>48</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="11">
         <v>76.040000000000006</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>15.2</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="11">
         <v>84.15</v>
       </c>
       <c r="O28" s="6">
         <v>43843</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="25">
         <v>0.7895833333333333</v>
       </c>
-      <c r="Q28" s="20" t="b">
+      <c r="Q28" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2818,31 +2834,31 @@
       <c r="H29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="15">
         <v>44</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>93.18</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <v>48</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <v>76.040000000000006</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="21">
         <v>15.2</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="11">
         <v>84.15</v>
       </c>
       <c r="O29" s="6">
         <v>43843</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="25">
         <v>0.7895833333333333</v>
       </c>
-      <c r="Q29" s="20" t="b">
+      <c r="Q29" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2868,31 +2884,31 @@
       <c r="H30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <v>172</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>17.309999999999999</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <v>172</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="11">
         <v>17.309999999999999</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <v>17.2</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="11">
         <v>79.31</v>
       </c>
       <c r="O30" s="6">
         <v>43844</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="25">
         <v>0.53680555555555554</v>
       </c>
-      <c r="Q30" s="20" t="b">
+      <c r="Q30" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2918,31 +2934,31 @@
       <c r="H31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="15">
         <v>12</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>16.43</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="15">
         <v>12</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="11">
         <v>16.43</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="21">
         <v>9</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="11">
         <v>61.54</v>
       </c>
       <c r="O31" s="6">
         <v>43844</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="25">
         <v>0.5805555555555556</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2968,31 +2984,31 @@
       <c r="H32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="15">
         <v>24</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>66.91</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <v>32</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <v>10.86</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="21">
         <v>11.8</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="11">
         <v>5.14</v>
       </c>
       <c r="O32" s="6">
         <v>43844</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="25">
         <v>0.68472222222222223</v>
       </c>
-      <c r="Q32" s="20" t="b">
+      <c r="Q32" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3018,31 +3034,31 @@
       <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="15">
         <v>8</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>94.12</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="15">
         <v>8</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>94.12</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="21">
         <v>10.199999999999999</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <v>92.59</v>
       </c>
       <c r="O33" s="6">
         <v>43845</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="25">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="Q33" s="20" t="b">
+      <c r="Q33" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3068,31 +3084,31 @@
       <c r="H34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>8</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>95.51</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <v>12</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <v>85.76</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="21">
         <v>8.1</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <v>90.48</v>
       </c>
       <c r="O34" s="6">
         <v>43845</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="25">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="Q34" s="20" t="b">
+      <c r="Q34" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3118,31 +3134,31 @@
       <c r="H35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="15">
         <v>8</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>95.51</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <v>12</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>85.76</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <v>8.1</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <v>90.48</v>
       </c>
       <c r="O35" s="6">
         <v>43845</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="25">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="Q35" s="20" t="b">
+      <c r="Q35" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3168,31 +3184,31 @@
       <c r="H36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <v>4</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>57.09</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <v>4</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>57.09</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="21">
         <v>8.1</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="11">
         <v>85.71</v>
       </c>
       <c r="O36" s="6">
         <v>43845</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="25">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="Q36" s="20" t="b">
+      <c r="Q36" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3218,31 +3234,31 @@
       <c r="H37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="15">
         <v>4</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="11">
         <v>57.09</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="15">
         <v>4</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="11">
         <v>57.09</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="21">
         <v>8.1</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="11">
         <v>85.71</v>
       </c>
       <c r="O37" s="6">
         <v>43845</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="25">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="Q37" s="20" t="b">
+      <c r="Q37" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3268,31 +3284,31 @@
       <c r="H38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="16">
-        <v>0</v>
-      </c>
-      <c r="J38" s="12">
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
         <v>100</v>
       </c>
-      <c r="K38" s="16">
-        <v>0</v>
-      </c>
-      <c r="L38" s="12">
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
         <v>100</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="21">
         <v>8</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="11">
         <v>83.33</v>
       </c>
       <c r="O38" s="6">
         <v>43845</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="25">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="Q38" s="20" t="b">
+      <c r="Q38" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3318,31 +3334,31 @@
       <c r="H39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="15">
         <v>12</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>97.15</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="15">
         <v>12</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="11">
         <v>97.15</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="21">
         <v>9.5</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="11">
         <v>86.11</v>
       </c>
       <c r="O39" s="6">
         <v>43845</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="25">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="Q39" s="20" t="b">
+      <c r="Q39" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3368,31 +3384,31 @@
       <c r="H40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="16">
-        <v>0</v>
-      </c>
-      <c r="J40" s="12">
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
         <v>100</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="15">
         <v>4</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="11">
         <v>51.1</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <v>75.760000000000005</v>
       </c>
       <c r="O40" s="6">
         <v>43845</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="25">
         <v>8.1944444444444445E-2</v>
       </c>
-      <c r="Q40" s="20" t="b">
+      <c r="Q40" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3418,31 +3434,31 @@
       <c r="H41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="16">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12">
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
         <v>100</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="15">
         <v>4</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <v>51.1</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="11">
         <v>75.760000000000005</v>
       </c>
       <c r="O41" s="6">
         <v>43845</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="25">
         <v>8.1944444444444445E-2</v>
       </c>
-      <c r="Q41" s="20" t="b">
+      <c r="Q41" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3468,31 +3484,31 @@
       <c r="H42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="15">
         <v>36</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="11">
         <v>17.43</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="15">
         <v>36</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>17.43</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="21">
         <v>9.9</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>72.55</v>
       </c>
       <c r="O42" s="6">
         <v>43845</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="25">
         <v>0.10486111111111111</v>
       </c>
-      <c r="Q42" s="20" t="b">
+      <c r="Q42" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3518,31 +3534,31 @@
       <c r="H43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="15">
         <v>20</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="11">
         <v>96.73</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="15">
         <v>24</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="11">
         <v>81.99</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="21">
         <v>9.8000000000000007</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="11">
         <v>84.31</v>
       </c>
       <c r="O43" s="6">
         <v>43845</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="25">
         <v>0.10486111111111111</v>
       </c>
-      <c r="Q43" s="20" t="b">
+      <c r="Q43" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3568,31 +3584,31 @@
       <c r="H44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="16">
-        <v>0</v>
-      </c>
-      <c r="J44" s="12">
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
         <v>100</v>
       </c>
-      <c r="K44" s="16">
-        <v>0</v>
-      </c>
-      <c r="L44" s="12">
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
         <v>100</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="21">
         <v>8.1</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="11">
         <v>86.67</v>
       </c>
       <c r="O44" s="6">
         <v>43845</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="25">
         <v>0.11527777777777777</v>
       </c>
-      <c r="Q44" s="20" t="s">
+      <c r="Q44" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3618,31 +3634,31 @@
       <c r="H45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="15">
         <v>4</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <v>67.17</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="15">
         <v>4</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="11">
         <v>67.17</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="11">
         <v>100</v>
       </c>
       <c r="O45" s="6">
         <v>43845</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="25">
         <v>0.15277777777777776</v>
       </c>
-      <c r="Q45" s="20" t="s">
+      <c r="Q45" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3668,31 +3684,31 @@
       <c r="H46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="15">
         <v>28</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <v>21.98</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="15">
         <v>36</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="11">
         <v>7.71</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="21">
         <v>9.5</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="11">
         <v>79.099999999999994</v>
       </c>
       <c r="O46" s="6">
         <v>43845</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="25">
         <v>0.17152777777777775</v>
       </c>
-      <c r="Q46" s="20" t="b">
+      <c r="Q46" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3718,31 +3734,31 @@
       <c r="H47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="15">
         <v>16</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <v>57.49</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="15">
         <v>24</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="11">
         <v>30.71</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="21">
         <v>9.6</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="11">
         <v>55.22</v>
       </c>
       <c r="O47" s="6">
         <v>43845</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="25">
         <v>0.17152777777777775</v>
       </c>
-      <c r="Q47" s="20" t="b">
+      <c r="Q47" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3768,31 +3784,31 @@
       <c r="H48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="15">
         <v>28</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <v>71.430000000000007</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="15">
         <v>28</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="11">
         <v>71.430000000000007</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="21">
         <v>12.7</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="11">
         <v>5.66</v>
       </c>
       <c r="O48" s="6">
         <v>43845</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="25">
         <v>0.22152777777777777</v>
       </c>
-      <c r="Q48" s="20" t="b">
+      <c r="Q48" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3818,31 +3834,31 @@
       <c r="H49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="16">
-        <v>0</v>
-      </c>
-      <c r="J49" s="12">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
         <v>100</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="15">
         <v>4</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="11">
         <v>76.239999999999995</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="11">
         <v>84.72</v>
       </c>
       <c r="O49" s="6">
         <v>43845</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="25">
         <v>0.67569444444444438</v>
       </c>
-      <c r="Q49" s="20" t="s">
+      <c r="Q49" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3868,31 +3884,31 @@
       <c r="H50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="16">
-        <v>0</v>
-      </c>
-      <c r="J50" s="12">
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
         <v>100</v>
       </c>
-      <c r="K50" s="16">
-        <v>0</v>
-      </c>
-      <c r="L50" s="12">
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
         <v>100</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="11">
         <v>72.13</v>
       </c>
       <c r="O50" s="6">
         <v>43845</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="25">
         <v>0.92013888888888884</v>
       </c>
-      <c r="Q50" s="20" t="s">
+      <c r="Q50" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3918,31 +3934,31 @@
       <c r="H51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="15">
         <v>24</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="11">
         <v>7.12</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="15">
         <v>24</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="11">
         <v>7.12</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="21">
         <v>9.8000000000000007</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="11">
         <v>10</v>
       </c>
       <c r="O51" s="6">
         <v>43845</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="25">
         <v>0.96597222222222223</v>
       </c>
-      <c r="Q51" s="20" t="b">
+      <c r="Q51" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3968,31 +3984,31 @@
       <c r="H52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="15">
         <v>4</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="11">
         <v>98.91</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="15">
         <v>4</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="11">
         <v>98.91</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="21">
         <v>9.1</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="11">
         <v>86.67</v>
       </c>
       <c r="O52" s="6">
         <v>43845</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="25">
         <v>0.96597222222222223</v>
       </c>
-      <c r="Q52" s="20" t="b">
+      <c r="Q52" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4018,31 +4034,31 @@
       <c r="H53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="15">
         <v>4</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="11">
         <v>98.91</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="15">
         <v>4</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="11">
         <v>98.91</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="21">
         <v>9.6</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="11">
         <v>23.33</v>
       </c>
       <c r="O53" s="6">
         <v>43845</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="25">
         <v>0.96597222222222223</v>
       </c>
-      <c r="Q53" s="20" t="b">
+      <c r="Q53" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4068,31 +4084,31 @@
       <c r="H54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="15">
         <v>4</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="11">
         <v>99.22</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="15">
         <v>4</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="11">
         <v>99.22</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M54" s="21">
         <v>9</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="11">
         <v>94.64</v>
       </c>
       <c r="O54" s="6">
         <v>43845</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="25">
         <v>0.98749999999999993</v>
       </c>
-      <c r="Q54" s="20" t="s">
+      <c r="Q54" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4121,31 +4137,31 @@
       <c r="H55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="16">
-        <v>0</v>
-      </c>
-      <c r="J55" s="12">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
         <v>100</v>
       </c>
-      <c r="K55" s="16">
-        <v>0</v>
-      </c>
-      <c r="L55" s="12">
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
         <v>100</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="21">
         <v>8.6</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N55" s="11">
         <v>92.86</v>
       </c>
       <c r="O55" s="6">
         <v>43846</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="25">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="Q55" s="20" t="s">
+      <c r="Q55" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4171,31 +4187,31 @@
       <c r="H56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="15">
         <v>16</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="11">
         <v>23.63</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="15">
         <v>20</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="11">
         <v>11.21</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="21">
         <v>9.1</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="11">
         <v>86</v>
       </c>
       <c r="O56" s="6">
         <v>43846</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="25">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="Q56" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4221,31 +4237,31 @@
       <c r="H57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="15">
         <v>8</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>86.74</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <v>12</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="11">
         <v>54.23</v>
       </c>
-      <c r="M57" s="22">
+      <c r="M57" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="11">
         <v>60</v>
       </c>
       <c r="O57" s="6">
         <v>43846</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="25">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="Q57" s="20" t="s">
+      <c r="Q57" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4271,31 +4287,31 @@
       <c r="H58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="16">
-        <v>0</v>
-      </c>
-      <c r="J58" s="12">
+      <c r="I58" s="15">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11">
         <v>100</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="15">
         <v>4</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="11">
         <v>75.709999999999994</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="21">
         <v>11.8</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="11">
         <v>63.16</v>
       </c>
       <c r="O58" s="6">
         <v>43846</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="25">
         <v>0.10277777777777779</v>
       </c>
-      <c r="Q58" s="20" t="s">
+      <c r="Q58" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4321,31 +4337,31 @@
       <c r="H59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="15">
         <v>12</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>82.35</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="15">
         <v>12</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="11">
         <v>82.35</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="21">
         <v>10.3</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="11">
         <v>11.54</v>
       </c>
       <c r="O59" s="6">
         <v>43846</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="25">
         <v>0.13263888888888889</v>
       </c>
-      <c r="Q59" s="20" t="b">
+      <c r="Q59" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4369,63 +4385,63 @@
       <c r="H60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>24</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="11">
         <v>69.569999999999993</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="15">
         <v>24</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="11">
         <v>69.569999999999993</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="21">
         <v>13.4</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="11">
         <v>29.31</v>
       </c>
       <c r="O60" s="6">
         <v>43846</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="25">
         <v>0.16597222222222222</v>
       </c>
-      <c r="Q60" s="20" t="s">
+      <c r="Q60" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="C61" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9" t="s">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="20" t="s">
+      <c r="I61" s="16"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4451,31 +4467,31 @@
       <c r="H62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="16">
-        <v>0</v>
-      </c>
-      <c r="J62" s="12">
+      <c r="I62" s="15">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11">
         <v>100</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="15">
         <v>4</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="11">
         <v>53.85</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="21">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N62" s="11">
         <v>18.18</v>
       </c>
       <c r="O62" s="6">
         <v>43846</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="25">
         <v>0.19166666666666665</v>
       </c>
-      <c r="Q62" s="20" t="b">
+      <c r="Q62" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4501,31 +4517,31 @@
       <c r="H63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="16">
-        <v>0</v>
-      </c>
-      <c r="J63" s="12">
+      <c r="I63" s="15">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
         <v>100</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="15">
         <v>4</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63" s="11">
         <v>56.2</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="21">
         <v>8.1</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N63" s="11">
         <v>96</v>
       </c>
       <c r="O63" s="6">
         <v>43846</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="25">
         <v>0.20694444444444446</v>
       </c>
-      <c r="Q63" s="20" t="s">
+      <c r="Q63" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4551,31 +4567,31 @@
       <c r="H64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="16">
-        <v>0</v>
-      </c>
-      <c r="J64" s="12">
+      <c r="I64" s="15">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
         <v>100</v>
       </c>
-      <c r="K64" s="16">
-        <v>0</v>
-      </c>
-      <c r="L64" s="12">
+      <c r="K64" s="15">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
         <v>100</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="21">
         <v>8.1</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="11">
         <v>96</v>
       </c>
       <c r="O64" s="6">
         <v>43846</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="25">
         <v>0.20694444444444446</v>
       </c>
-      <c r="Q64" s="20" t="s">
+      <c r="Q64" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4601,65 +4617,65 @@
       <c r="H65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="15">
         <v>48</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="11">
         <v>14.94</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="15">
         <v>48</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="11">
         <v>14.94</v>
       </c>
-      <c r="M65" s="22">
+      <c r="M65" s="21">
         <v>15.9</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="11">
         <v>23.53</v>
       </c>
       <c r="O65" s="6">
         <v>43846</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="25">
         <v>0.55833333333333335</v>
       </c>
-      <c r="Q65" s="20" t="s">
+      <c r="Q65" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:17">
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="9" t="s">
+      <c r="C66" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="20" t="s">
+      <c r="I66" s="16"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4685,31 +4701,31 @@
       <c r="H67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="15">
         <v>56</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="11">
         <v>19.059999999999999</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="15">
         <v>60</v>
       </c>
-      <c r="L67" s="12">
+      <c r="L67" s="11">
         <v>9.64</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="21">
         <v>16.600000000000001</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="11">
         <v>54.95</v>
       </c>
       <c r="O67" s="6">
         <v>43847</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="25">
         <v>0.12986111111111112</v>
       </c>
-      <c r="Q67" s="20" t="b">
+      <c r="Q67" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4735,31 +4751,31 @@
       <c r="H68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="15">
         <v>32</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="11">
         <v>88.87</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="15">
         <v>32</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="11">
         <v>88.87</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="21">
         <v>11.3</v>
       </c>
-      <c r="N68" s="12">
+      <c r="N68" s="11">
         <v>96.7</v>
       </c>
       <c r="O68" s="6">
         <v>43847</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="25">
         <v>0.12986111111111112</v>
       </c>
-      <c r="Q68" s="20" t="b">
+      <c r="Q68" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4785,31 +4801,31 @@
       <c r="H69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="16">
-        <v>0</v>
-      </c>
-      <c r="J69" s="12">
+      <c r="I69" s="15">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
         <v>100</v>
       </c>
-      <c r="K69" s="16">
-        <v>0</v>
-      </c>
-      <c r="L69" s="12">
+      <c r="K69" s="15">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
         <v>100</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="21">
         <v>9.1</v>
       </c>
-      <c r="N69" s="12">
+      <c r="N69" s="11">
         <v>6.67</v>
       </c>
       <c r="O69" s="6">
         <v>43847</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="25">
         <v>0.14097222222222222</v>
       </c>
-      <c r="Q69" s="20" t="b">
+      <c r="Q69" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4835,31 +4851,31 @@
       <c r="H70" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="15">
         <v>12</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="11">
         <v>16.760000000000002</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="15">
         <v>12</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <v>16.760000000000002</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="21">
         <v>9.9</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="11">
         <v>5.34</v>
       </c>
       <c r="O70" s="6">
         <v>43847</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="25">
         <v>0.17083333333333331</v>
       </c>
-      <c r="Q70" s="20" t="b">
+      <c r="Q70" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4885,31 +4901,31 @@
       <c r="H71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="15">
         <v>12</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="11">
         <v>16.760000000000002</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="15">
         <v>12</v>
       </c>
-      <c r="L71" s="12">
+      <c r="L71" s="11">
         <v>16.760000000000002</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="21">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N71" s="12">
+      <c r="N71" s="11">
         <v>5.34</v>
       </c>
       <c r="O71" s="6">
         <v>43847</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="25">
         <v>0.17083333333333331</v>
       </c>
-      <c r="Q71" s="20" t="b">
+      <c r="Q71" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4935,31 +4951,31 @@
       <c r="H72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="16">
-        <v>0</v>
-      </c>
-      <c r="J72" s="12">
+      <c r="I72" s="15">
+        <v>0</v>
+      </c>
+      <c r="J72" s="11">
         <v>100</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <v>4</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="11">
         <v>60.9</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="21">
         <v>10.199999999999999</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="11">
         <v>5.45</v>
       </c>
       <c r="O72" s="6">
         <v>43847</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="25">
         <v>0.18124999999999999</v>
       </c>
-      <c r="Q72" s="20" t="b">
+      <c r="Q72" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4985,31 +5001,31 @@
       <c r="H73" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="15">
         <v>644</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="11">
         <v>6.16</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="15">
         <v>644</v>
       </c>
-      <c r="L73" s="12">
+      <c r="L73" s="11">
         <v>6.16</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M73" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="11">
         <v>95.83</v>
       </c>
       <c r="O73" s="6">
         <v>43847</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73" s="25">
         <v>0.20694444444444446</v>
       </c>
-      <c r="Q73" s="20" t="s">
+      <c r="Q73" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5035,31 +5051,31 @@
       <c r="H74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="16">
-        <v>0</v>
-      </c>
-      <c r="J74" s="12">
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="11">
         <v>100</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="15">
         <v>4</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="11">
         <v>66.239999999999995</v>
       </c>
-      <c r="M74" s="22">
+      <c r="M74" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="11">
         <v>60.98</v>
       </c>
       <c r="O74" s="6">
         <v>43847</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74" s="25">
         <v>0.64930555555555558</v>
       </c>
-      <c r="Q74" s="20" t="b">
+      <c r="Q74" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5085,31 +5101,31 @@
       <c r="H75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="16">
-        <v>0</v>
-      </c>
-      <c r="J75" s="12">
+      <c r="I75" s="15">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
         <v>100</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="15">
         <v>4</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="11">
         <v>66.239999999999995</v>
       </c>
-      <c r="M75" s="22">
+      <c r="M75" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="11">
         <v>78.05</v>
       </c>
       <c r="O75" s="6">
         <v>43847</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="25">
         <v>0.64930555555555558</v>
       </c>
-      <c r="Q75" s="20" t="b">
+      <c r="Q75" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5135,31 +5151,31 @@
       <c r="H76" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="16">
-        <v>0</v>
-      </c>
-      <c r="J76" s="12">
+      <c r="I76" s="15">
+        <v>0</v>
+      </c>
+      <c r="J76" s="11">
         <v>100</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="15">
         <v>4</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="11">
         <v>66.239999999999995</v>
       </c>
-      <c r="M76" s="22">
+      <c r="M76" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N76" s="12">
+      <c r="N76" s="11">
         <v>60.98</v>
       </c>
       <c r="O76" s="6">
         <v>43847</v>
       </c>
-      <c r="P76" s="7">
+      <c r="P76" s="25">
         <v>0.64930555555555558</v>
       </c>
-      <c r="Q76" s="20" t="b">
+      <c r="Q76" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5185,31 +5201,31 @@
       <c r="H77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="15">
         <v>12</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="11">
         <v>75.47</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="15">
         <v>12</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77" s="11">
         <v>75.47</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M77" s="21">
         <v>9.9</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="11">
         <v>15.09</v>
       </c>
       <c r="O77" s="6">
         <v>43847</v>
       </c>
-      <c r="P77" s="7">
+      <c r="P77" s="25">
         <v>0.86597222222222225</v>
       </c>
-      <c r="Q77" s="20" t="b">
+      <c r="Q77" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5235,31 +5251,31 @@
       <c r="H78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="15">
         <v>16</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="11">
         <v>18.89</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="15">
         <v>16</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="11">
         <v>18.89</v>
       </c>
-      <c r="M78" s="22">
+      <c r="M78" s="21">
         <v>10.6</v>
       </c>
-      <c r="N78" s="12">
+      <c r="N78" s="11">
         <v>5.66</v>
       </c>
       <c r="O78" s="6">
         <v>43847</v>
       </c>
-      <c r="P78" s="7">
+      <c r="P78" s="25">
         <v>0.86597222222222225</v>
       </c>
-      <c r="Q78" s="20" t="b">
+      <c r="Q78" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5288,31 +5304,31 @@
       <c r="H79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="16">
-        <v>0</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="I79" s="15">
+        <v>0</v>
+      </c>
+      <c r="J79" s="11">
         <v>100</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="15">
         <v>4</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="11">
         <v>58.28</v>
       </c>
-      <c r="M79" s="22">
+      <c r="M79" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N79" s="12">
+      <c r="N79" s="11">
         <v>92.86</v>
       </c>
       <c r="O79" s="6">
         <v>43847</v>
       </c>
-      <c r="P79" s="7">
+      <c r="P79" s="25">
         <v>0.94305555555555554</v>
       </c>
-      <c r="Q79" s="20" t="s">
+      <c r="Q79" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5341,31 +5357,31 @@
       <c r="H80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="16" t="s">
+      <c r="I80" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J80" s="12">
-        <v>0</v>
-      </c>
-      <c r="K80" s="16" t="s">
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="L80" s="12">
-        <v>0</v>
-      </c>
-      <c r="M80" s="22" t="s">
+      <c r="L80" s="11">
+        <v>0</v>
+      </c>
+      <c r="M80" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="N80" s="12">
+      <c r="N80" s="11">
         <v>0</v>
       </c>
       <c r="O80" s="6">
         <v>43847</v>
       </c>
-      <c r="P80" s="7">
+      <c r="P80" s="25">
         <v>0.9916666666666667</v>
       </c>
-      <c r="Q80" s="20" t="b">
+      <c r="Q80" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5394,31 +5410,31 @@
       <c r="H81" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="16">
-        <v>0</v>
-      </c>
-      <c r="J81" s="12">
+      <c r="I81" s="15">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11">
         <v>100</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="15">
         <v>4</v>
       </c>
-      <c r="L81" s="12">
+      <c r="L81" s="11">
         <v>52.9</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M81" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N81" s="12">
+      <c r="N81" s="11">
         <v>86.76</v>
       </c>
       <c r="O81" s="6">
         <v>43847</v>
       </c>
-      <c r="P81" s="7">
+      <c r="P81" s="25">
         <v>0.9916666666666667</v>
       </c>
-      <c r="Q81" s="20" t="b">
+      <c r="Q81" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5444,31 +5460,31 @@
       <c r="H82" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="15">
         <v>244</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="11">
         <v>7.14</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K82" s="15">
         <v>244</v>
       </c>
-      <c r="L82" s="12">
+      <c r="L82" s="11">
         <v>7.14</v>
       </c>
-      <c r="M82" s="22">
+      <c r="M82" s="21">
         <v>181.6</v>
       </c>
-      <c r="N82" s="12">
+      <c r="N82" s="11">
         <v>5.88</v>
       </c>
       <c r="O82" s="6">
         <v>43848</v>
       </c>
-      <c r="P82" s="7">
+      <c r="P82" s="25">
         <v>3.1944444444444449E-2</v>
       </c>
-      <c r="Q82" s="20" t="b">
+      <c r="Q82" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5494,31 +5510,31 @@
       <c r="H83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I83" s="15">
         <v>40</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="11">
         <v>53.22</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="15">
         <v>40</v>
       </c>
-      <c r="L83" s="12">
+      <c r="L83" s="11">
         <v>53.22</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M83" s="21">
         <v>25.8</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="11">
         <v>100</v>
       </c>
       <c r="O83" s="6">
         <v>43848</v>
       </c>
-      <c r="P83" s="7">
+      <c r="P83" s="25">
         <v>3.1944444444444449E-2</v>
       </c>
-      <c r="Q83" s="20" t="b">
+      <c r="Q83" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5544,31 +5560,31 @@
       <c r="H84" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="15">
         <v>8</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="11">
         <v>95.66</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="15">
         <v>12</v>
       </c>
-      <c r="L84" s="12">
+      <c r="L84" s="11">
         <v>75.510000000000005</v>
       </c>
-      <c r="M84" s="22">
+      <c r="M84" s="21">
         <v>19.899999999999999</v>
       </c>
-      <c r="N84" s="12">
+      <c r="N84" s="11">
         <v>64.28</v>
       </c>
       <c r="O84" s="6">
         <v>43848</v>
       </c>
-      <c r="P84" s="7">
+      <c r="P84" s="25">
         <v>5.2777777777777778E-2</v>
       </c>
-      <c r="Q84" s="20" t="s">
+      <c r="Q84" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5594,31 +5610,31 @@
       <c r="H85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="15">
         <v>60</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="11">
         <v>24.91</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="15">
         <v>68</v>
       </c>
-      <c r="L85" s="12">
+      <c r="L85" s="11">
         <v>15.16</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M85" s="21">
         <v>20</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="11">
         <v>12.96</v>
       </c>
       <c r="O85" s="6">
         <v>43848</v>
       </c>
-      <c r="P85" s="7">
+      <c r="P85" s="25">
         <v>0.11180555555555556</v>
       </c>
-      <c r="Q85" s="20" t="b">
+      <c r="Q85" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5644,31 +5660,31 @@
       <c r="H86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="15">
         <v>48</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="11">
         <v>83.7</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="15">
         <v>52</v>
       </c>
-      <c r="L86" s="12">
+      <c r="L86" s="11">
         <v>59.97</v>
       </c>
-      <c r="M86" s="22">
+      <c r="M86" s="21">
         <v>17.899999999999999</v>
       </c>
-      <c r="N86" s="12">
+      <c r="N86" s="11">
         <v>20.37</v>
       </c>
       <c r="O86" s="6">
         <v>43848</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="25">
         <v>0.11180555555555556</v>
       </c>
-      <c r="Q86" s="20" t="b">
+      <c r="Q86" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5694,31 +5710,31 @@
       <c r="H87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I87" s="15">
         <v>16</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="11">
         <v>87.7</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="15">
         <v>20</v>
       </c>
-      <c r="L87" s="12">
+      <c r="L87" s="11">
         <v>39.14</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="21">
         <v>10.3</v>
       </c>
-      <c r="N87" s="12">
+      <c r="N87" s="11">
         <v>36.590000000000003</v>
       </c>
       <c r="O87" s="6">
         <v>43848</v>
       </c>
-      <c r="P87" s="7">
+      <c r="P87" s="25">
         <v>0.14027777777777778</v>
       </c>
-      <c r="Q87" s="20" t="b">
+      <c r="Q87" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5744,31 +5760,31 @@
       <c r="H88" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I88" s="15">
         <v>12</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88" s="11">
         <v>96.47</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="15">
         <v>16</v>
       </c>
-      <c r="L88" s="12">
+      <c r="L88" s="11">
         <v>87.7</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="21">
         <v>10.199999999999999</v>
       </c>
-      <c r="N88" s="12">
+      <c r="N88" s="11">
         <v>56.1</v>
       </c>
       <c r="O88" s="6">
         <v>43848</v>
       </c>
-      <c r="P88" s="7">
+      <c r="P88" s="25">
         <v>0.14027777777777778</v>
       </c>
-      <c r="Q88" s="20" t="b">
+      <c r="Q88" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5794,31 +5810,31 @@
       <c r="H89" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="15">
         <v>44</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="11">
         <v>89.16</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="15">
         <v>44</v>
       </c>
-      <c r="L89" s="12">
+      <c r="L89" s="11">
         <v>89.16</v>
       </c>
-      <c r="M89" s="22">
+      <c r="M89" s="21">
         <v>10.6</v>
       </c>
-      <c r="N89" s="12">
+      <c r="N89" s="11">
         <v>100</v>
       </c>
       <c r="O89" s="6">
         <v>43848</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89" s="25">
         <v>0.15902777777777777</v>
       </c>
-      <c r="Q89" s="20" t="b">
+      <c r="Q89" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5844,31 +5860,31 @@
       <c r="H90" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="16">
-        <v>0</v>
-      </c>
-      <c r="J90" s="12">
+      <c r="I90" s="15">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
         <v>100</v>
       </c>
-      <c r="K90" s="16">
-        <v>0</v>
-      </c>
-      <c r="L90" s="12">
+      <c r="K90" s="15">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
         <v>100</v>
       </c>
-      <c r="M90" s="22">
+      <c r="M90" s="21">
         <v>8.5</v>
       </c>
-      <c r="N90" s="12">
+      <c r="N90" s="11">
         <v>100</v>
       </c>
       <c r="O90" s="6">
         <v>43848</v>
       </c>
-      <c r="P90" s="7">
+      <c r="P90" s="25">
         <v>0.18611111111111112</v>
       </c>
-      <c r="Q90" s="20" t="s">
+      <c r="Q90" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5894,31 +5910,31 @@
       <c r="H91" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="15">
         <v>8</v>
       </c>
-      <c r="J91" s="12">
+      <c r="J91" s="11">
         <v>73.17</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="15">
         <v>8</v>
       </c>
-      <c r="L91" s="12">
+      <c r="L91" s="11">
         <v>73.17</v>
       </c>
-      <c r="M91" s="22">
+      <c r="M91" s="21">
         <v>9</v>
       </c>
-      <c r="N91" s="12">
+      <c r="N91" s="11">
         <v>100</v>
       </c>
       <c r="O91" s="6">
         <v>43848</v>
       </c>
-      <c r="P91" s="7">
+      <c r="P91" s="25">
         <v>0.21111111111111111</v>
       </c>
-      <c r="Q91" s="20" t="s">
+      <c r="Q91" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5944,31 +5960,31 @@
       <c r="H92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I92" s="15">
         <v>4</v>
       </c>
-      <c r="J92" s="12">
+      <c r="J92" s="11">
         <v>58.71</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="15">
         <v>4</v>
       </c>
-      <c r="L92" s="12">
+      <c r="L92" s="11">
         <v>58.71</v>
       </c>
-      <c r="M92" s="22">
+      <c r="M92" s="21">
         <v>8.6</v>
       </c>
-      <c r="N92" s="12">
+      <c r="N92" s="11">
         <v>100</v>
       </c>
       <c r="O92" s="6">
         <v>43848</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P92" s="25">
         <v>0.21805555555555556</v>
       </c>
-      <c r="Q92" s="20" t="s">
+      <c r="Q92" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5994,31 +6010,31 @@
       <c r="H93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I93" s="16">
-        <v>0</v>
-      </c>
-      <c r="J93" s="12">
+      <c r="I93" s="15">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11">
         <v>100</v>
       </c>
-      <c r="K93" s="16">
-        <v>0</v>
-      </c>
-      <c r="L93" s="12">
+      <c r="K93" s="15">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
         <v>100</v>
       </c>
-      <c r="M93" s="22">
+      <c r="M93" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N93" s="12">
+      <c r="N93" s="11">
         <v>100</v>
       </c>
       <c r="O93" s="6">
         <v>43848</v>
       </c>
-      <c r="P93" s="7">
+      <c r="P93" s="25">
         <v>0.2298611111111111</v>
       </c>
-      <c r="Q93" s="20" t="s">
+      <c r="Q93" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6044,31 +6060,81 @@
       <c r="H94" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I94" s="16">
-        <v>0</v>
-      </c>
-      <c r="J94" s="12">
+      <c r="I94" s="15">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
         <v>100</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="15">
         <v>4</v>
       </c>
-      <c r="L94" s="12">
+      <c r="L94" s="11">
         <v>74.34</v>
       </c>
-      <c r="M94" s="22">
+      <c r="M94" s="21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N94" s="12">
+      <c r="N94" s="11">
         <v>100</v>
       </c>
       <c r="O94" s="6">
         <v>43848</v>
       </c>
-      <c r="P94" s="7">
+      <c r="P94" s="25">
         <v>0.24166666666666667</v>
       </c>
-      <c r="Q94" s="20" t="s">
+      <c r="Q94" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="B95" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="15">
+        <v>4</v>
+      </c>
+      <c r="J95" s="11">
+        <v>62.55</v>
+      </c>
+      <c r="K95" s="15">
+        <v>4</v>
+      </c>
+      <c r="L95" s="11">
+        <v>62.55</v>
+      </c>
+      <c r="M95" s="21">
+        <v>8.6</v>
+      </c>
+      <c r="N95" s="11">
+        <v>100</v>
+      </c>
+      <c r="O95" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P95" s="25">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="Q95" s="19" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65B2B7-0C1A-4E59-8FC9-643881AEDAD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4334515-42AB-7E40-BD45-3E720B19F13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="4890" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="9560" yWindow="4700" windowWidth="21620" windowHeight="11500" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="283">
   <si>
     <t>Date</t>
   </si>
@@ -984,6 +984,12 @@
   <si>
     <t>sort,compare</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1281</t>
+  </si>
+  <si>
+    <t>Subtract the Product and Sum of Digits of an Integer</t>
   </si>
 </sst>
 </file>
@@ -991,28 +997,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="[$-F400]hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1080,7 +1086,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1096,14 +1102,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,32 +1426,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>104</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>122</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>129</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>156</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>164</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
@@ -3962,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>167</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>173</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>237</v>
       </c>
@@ -4165,7 +4171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>177</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>177</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
@@ -4315,7 +4321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>188</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>194</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>202</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>202</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
@@ -4779,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>210</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>220</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>232</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>246</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>246</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
         <v>249</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>254</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
         <v>254</v>
       </c>
@@ -5688,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>258</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>258</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>262</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>264</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>267</v>
       </c>
@@ -5938,7 +5944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>269</v>
       </c>
@@ -5988,7 +5994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>271</v>
       </c>
@@ -6038,7 +6044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>275</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>278</v>
       </c>
@@ -6138,7 +6144,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="15">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11">
+        <v>100</v>
+      </c>
+      <c r="K96" s="15">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11">
+        <v>100</v>
+      </c>
+      <c r="M96" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N96" s="11">
+        <v>100</v>
+      </c>
+      <c r="O96" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P96" s="25">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="Q96" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>
       </c>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4334515-42AB-7E40-BD45-3E720B19F13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA512E-9EB7-7E41-936D-F9C0A5CED8D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="4700" windowWidth="21620" windowHeight="11500" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="287">
   <si>
     <t>Date</t>
   </si>
@@ -990,6 +990,18 @@
   </si>
   <si>
     <t>Subtract the Product and Sum of Digits of an Integer</t>
+  </si>
+  <si>
+    <t>0905</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity</t>
+  </si>
+  <si>
+    <t>注意vectorbound</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6194,6 +6206,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I97" s="15">
+        <v>28</v>
+      </c>
+      <c r="J97" s="11">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="K97" s="15">
+        <v>28</v>
+      </c>
+      <c r="L97" s="11">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="M97" s="21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N97" s="11">
+        <v>72.41</v>
+      </c>
+      <c r="O97" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P97" s="25">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="Q97" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA512E-9EB7-7E41-936D-F9C0A5CED8D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD56EB-0886-614C-BF2B-8585F7B9FA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="4700" windowWidth="21620" windowHeight="11500" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="288">
   <si>
     <t>Date</t>
   </si>
@@ -1001,7 +1001,10 @@
     <t>注意vectorbound</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>0412</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6226,7 +6229,7 @@
         <v>285</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="I97" s="15">
         <v>28</v>
@@ -6253,6 +6256,54 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="Q97" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="15">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
+        <v>100</v>
+      </c>
+      <c r="K98" s="15">
+        <v>4</v>
+      </c>
+      <c r="L98" s="11">
+        <v>96.97</v>
+      </c>
+      <c r="M98" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="N98" s="11">
+        <v>43.33</v>
+      </c>
+      <c r="O98" s="6">
+        <v>43848</v>
+      </c>
+      <c r="P98" s="25">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="Q98" s="19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD56EB-0886-614C-BF2B-8585F7B9FA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2713A57-AC6F-E14A-B0CC-FB91A5565B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="4700" windowWidth="21620" windowHeight="11500" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="292">
   <si>
     <t>Date</t>
   </si>
@@ -1005,6 +1005,18 @@
   </si>
   <si>
     <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>0414</t>
+  </si>
+  <si>
+    <t>Third Maximum Number</t>
+  </si>
+  <si>
+    <t>set 取唯一值</t>
+  </si>
+  <si>
+    <t>sort以后，取唯一</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6250,7 +6262,7 @@
         <v>72.41</v>
       </c>
       <c r="O97" s="6">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="P97" s="25">
         <v>2.9166666666666664E-2</v>
@@ -6298,13 +6310,113 @@
         <v>43.33</v>
       </c>
       <c r="O98" s="6">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="P98" s="25">
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="Q98" s="19" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="15">
+        <v>12</v>
+      </c>
+      <c r="J99" s="11">
+        <v>35.22</v>
+      </c>
+      <c r="K99" s="15">
+        <v>16</v>
+      </c>
+      <c r="L99" s="11">
+        <v>13.21</v>
+      </c>
+      <c r="M99" s="21">
+        <v>10.7</v>
+      </c>
+      <c r="N99" s="11">
+        <v>38.46</v>
+      </c>
+      <c r="O99" s="6">
+        <v>43849</v>
+      </c>
+      <c r="P99" s="25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q99" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="15">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11">
+        <v>100</v>
+      </c>
+      <c r="K100" s="15">
+        <v>8</v>
+      </c>
+      <c r="L100" s="11">
+        <v>75.19</v>
+      </c>
+      <c r="M100" s="21">
+        <v>9</v>
+      </c>
+      <c r="N100" s="11">
+        <v>92.31</v>
+      </c>
+      <c r="O100" s="6">
+        <v>43849</v>
+      </c>
+      <c r="P100" s="25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q100" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2713A57-AC6F-E14A-B0CC-FB91A5565B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF383874-A9FF-4B6F-8FB0-71281DEF6BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="4700" windowWidth="21620" windowHeight="11500" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5040" yWindow="2430" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -1017,6 +1017,22 @@
   </si>
   <si>
     <t>sort以后，取唯一</t>
+  </si>
+  <si>
+    <t>可能缺少前面的部分，多个长度的string可能有相同的前缀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0720</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Table｜Trie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1024,28 +1040,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1113,7 +1129,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1129,14 +1145,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,31 +1470,31 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -1531,7 +1547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
@@ -1581,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
@@ -1613,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
@@ -1663,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="B5" s="7" t="s">
         <v>104</v>
       </c>
@@ -1695,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
@@ -1745,7 +1761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -1795,7 +1811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -1845,7 +1861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
@@ -1895,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
@@ -1945,7 +1961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
@@ -1995,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
@@ -2095,7 +2111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -2195,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
@@ -2245,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17">
       <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
@@ -2295,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17">
       <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
@@ -2345,7 +2361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17">
       <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2395,7 +2411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
@@ -2445,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17">
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
@@ -2495,7 +2511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17">
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
@@ -2545,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17">
       <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
@@ -2595,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17">
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
@@ -2645,7 +2661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17">
       <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
@@ -2695,7 +2711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17">
       <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2745,7 +2761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17">
       <c r="B27" s="4" t="s">
         <v>122</v>
       </c>
@@ -2795,7 +2811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17">
       <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
@@ -2845,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17">
       <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
@@ -2895,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -2945,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17">
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17">
       <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
@@ -3045,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17">
       <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3095,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17">
       <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
@@ -3145,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17">
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17">
       <c r="B36" s="4" t="s">
         <v>129</v>
       </c>
@@ -3245,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17">
       <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
@@ -3295,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17">
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
@@ -3345,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17">
       <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
@@ -3395,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
@@ -3445,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17">
       <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
@@ -3495,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17">
       <c r="B42" s="4" t="s">
         <v>156</v>
       </c>
@@ -3545,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17">
       <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
@@ -3595,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17">
       <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
@@ -3645,7 +3661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17">
       <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
@@ -3695,7 +3711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17">
       <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
@@ -3745,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17">
       <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
@@ -3795,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17">
       <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
@@ -3845,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
@@ -3895,7 +3911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="B50" s="4" t="s">
         <v>164</v>
       </c>
@@ -3945,7 +3961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
@@ -3995,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="B52" s="4" t="s">
         <v>167</v>
       </c>
@@ -4045,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
@@ -4095,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="B54" s="4" t="s">
         <v>173</v>
       </c>
@@ -4145,7 +4161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>237</v>
       </c>
@@ -4198,7 +4214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="B56" s="4" t="s">
         <v>177</v>
       </c>
@@ -4248,7 +4264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="B57" s="4" t="s">
         <v>177</v>
       </c>
@@ -4298,7 +4314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
@@ -4348,7 +4364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
@@ -4398,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
@@ -4446,7 +4462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="B61" s="7" t="s">
         <v>188</v>
       </c>
@@ -4478,7 +4494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4528,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
@@ -4578,7 +4594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="B64" s="4" t="s">
         <v>194</v>
       </c>
@@ -4628,7 +4644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="B65" s="4" t="s">
         <v>202</v>
       </c>
@@ -4678,7 +4694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="B66" s="7" t="s">
         <v>202</v>
       </c>
@@ -4712,7 +4728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
@@ -4762,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
@@ -4812,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="B69" s="4" t="s">
         <v>210</v>
       </c>
@@ -4862,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
@@ -4912,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -4962,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
@@ -5012,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="B73" s="4" t="s">
         <v>220</v>
       </c>
@@ -5062,7 +5078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -5112,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
@@ -5162,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="B77" s="4" t="s">
         <v>232</v>
       </c>
@@ -5262,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
@@ -5312,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
@@ -5365,7 +5381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -5418,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
@@ -5471,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="B82" s="4" t="s">
         <v>246</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="B83" s="4" t="s">
         <v>246</v>
       </c>
@@ -5571,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="B84" s="4" t="s">
         <v>249</v>
       </c>
@@ -5621,7 +5637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="B85" s="4" t="s">
         <v>254</v>
       </c>
@@ -5671,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="B86" s="4" t="s">
         <v>254</v>
       </c>
@@ -5721,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="B87" s="4" t="s">
         <v>258</v>
       </c>
@@ -5771,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="B88" s="4" t="s">
         <v>258</v>
       </c>
@@ -5821,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="B89" s="4" t="s">
         <v>262</v>
       </c>
@@ -5871,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="B90" s="4" t="s">
         <v>264</v>
       </c>
@@ -5921,7 +5937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="B91" s="4" t="s">
         <v>267</v>
       </c>
@@ -5971,7 +5987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="B92" s="4" t="s">
         <v>269</v>
       </c>
@@ -6021,7 +6037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="B93" s="4" t="s">
         <v>271</v>
       </c>
@@ -6071,7 +6087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="B94" s="4" t="s">
         <v>275</v>
       </c>
@@ -6121,7 +6137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="B95" s="4" t="s">
         <v>278</v>
       </c>
@@ -6171,7 +6187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="B96" s="4" t="s">
         <v>281</v>
       </c>
@@ -6221,7 +6237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:17">
       <c r="B97" s="4" t="s">
         <v>283</v>
       </c>
@@ -6271,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17">
       <c r="B98" s="4" t="s">
         <v>286</v>
       </c>
@@ -6319,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17">
       <c r="B99" s="4" t="s">
         <v>288</v>
       </c>
@@ -6369,7 +6385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:17">
       <c r="B100" s="4" t="s">
         <v>288</v>
       </c>
@@ -6419,7 +6435,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:17">
+      <c r="B101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="15">
+        <v>76</v>
+      </c>
+      <c r="J101" s="11">
+        <v>31.51</v>
+      </c>
+      <c r="K101" s="15">
+        <v>76</v>
+      </c>
+      <c r="L101" s="11">
+        <v>31.51</v>
+      </c>
+      <c r="M101" s="21">
+        <v>18.2</v>
+      </c>
+      <c r="N101" s="11">
+        <v>100</v>
+      </c>
+      <c r="O101" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P101" s="25">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="Q101" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>
       </c>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF383874-A9FF-4B6F-8FB0-71281DEF6BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB9618-661F-4740-AB33-CD68A8D5E888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="2430" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="302">
   <si>
     <t>Date</t>
   </si>
@@ -1032,6 +1032,30 @@
   </si>
   <si>
     <t>Hash Table｜Trie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1304</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find N Unique Integers Sum up to Zero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找最高位的6，然后pow + 原来的数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1323</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tostring以后找到第一个6，替换为9，stoi返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum 69 Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1469,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -6237,7 +6261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="1:17">
       <c r="B97" s="4" t="s">
         <v>283</v>
       </c>
@@ -6287,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="1:17">
       <c r="B98" s="4" t="s">
         <v>286</v>
       </c>
@@ -6335,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="1:17">
       <c r="B99" s="4" t="s">
         <v>288</v>
       </c>
@@ -6385,7 +6409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="1:17">
       <c r="B100" s="4" t="s">
         <v>288</v>
       </c>
@@ -6435,7 +6459,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="1:17">
+      <c r="A101" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="B101" s="4" t="s">
         <v>293</v>
       </c>
@@ -6483,6 +6510,156 @@
       </c>
       <c r="Q101" s="19" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="B102" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="15">
+        <v>4</v>
+      </c>
+      <c r="J102" s="11">
+        <v>98.78</v>
+      </c>
+      <c r="K102" s="15">
+        <v>8</v>
+      </c>
+      <c r="L102" s="11">
+        <v>59</v>
+      </c>
+      <c r="M102" s="21">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N102" s="11">
+        <v>100</v>
+      </c>
+      <c r="O102" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P102" s="25">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="Q102" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="B103" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="15">
+        <v>4</v>
+      </c>
+      <c r="J103" s="11">
+        <v>33.33</v>
+      </c>
+      <c r="K103" s="15">
+        <v>4</v>
+      </c>
+      <c r="L103" s="11">
+        <v>33.33</v>
+      </c>
+      <c r="M103" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="N103" s="11">
+        <v>100</v>
+      </c>
+      <c r="O103" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P103" s="25">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="Q103" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="B104" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="15">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
+        <v>100</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0</v>
+      </c>
+      <c r="L104" s="11">
+        <v>100</v>
+      </c>
+      <c r="M104" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="N104" s="11">
+        <v>100</v>
+      </c>
+      <c r="O104" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P104" s="25">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="Q104" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1048576" spans="3:3">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB9618-661F-4740-AB33-CD68A8D5E888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE048F6-16C9-4C2F-8159-B48D77D6233B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2430" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="7290" yWindow="3930" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="306">
   <si>
     <t>Date</t>
   </si>
@@ -1056,6 +1056,22 @@
   </si>
   <si>
     <t>Maximum 69 Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到从左到右最大的数字，比较temp和replace，赋值太多次会影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace Elements with Greatest Element on Right Side</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1299</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push -1到最后的vect，右边比左边大的时候，左边用右边替换</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1493,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -6662,6 +6678,106 @@
         <v>32</v>
       </c>
     </row>
+    <row r="105" spans="1:17">
+      <c r="B105" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="15">
+        <v>52</v>
+      </c>
+      <c r="J105" s="11">
+        <v>76.45</v>
+      </c>
+      <c r="K105" s="15">
+        <v>52</v>
+      </c>
+      <c r="L105" s="11">
+        <v>76.45</v>
+      </c>
+      <c r="M105" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="N105" s="11">
+        <v>100</v>
+      </c>
+      <c r="O105" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P105" s="25">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="Q105" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="B106" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="15">
+        <v>48</v>
+      </c>
+      <c r="J106" s="11">
+        <v>93.33</v>
+      </c>
+      <c r="K106" s="15">
+        <v>52</v>
+      </c>
+      <c r="L106" s="11">
+        <v>76.45</v>
+      </c>
+      <c r="M106" s="21">
+        <v>11</v>
+      </c>
+      <c r="N106" s="11">
+        <v>100</v>
+      </c>
+      <c r="O106" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P106" s="25">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="Q106" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE048F6-16C9-4C2F-8159-B48D77D6233B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABCEA1-4FAF-4433-9843-24017322BCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="3930" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="8160" yWindow="3735" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="310">
   <si>
     <t>Date</t>
   </si>
@@ -1072,6 +1072,22 @@
   </si>
   <si>
     <t>push -1到最后的vect，右边比左边大的时候，左边用右边替换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element Appearing More Than 25% In Sorted Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1287</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用map一个个累加找到最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1/4，1/2，3/4的位置截取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1509,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="G106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -6778,6 +6794,106 @@
         <v>32</v>
       </c>
     </row>
+    <row r="107" spans="1:17">
+      <c r="B107" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="15">
+        <v>20</v>
+      </c>
+      <c r="J107" s="11">
+        <v>44.55</v>
+      </c>
+      <c r="K107" s="15">
+        <v>24</v>
+      </c>
+      <c r="L107" s="11">
+        <v>22.16</v>
+      </c>
+      <c r="M107" s="21">
+        <v>10.4</v>
+      </c>
+      <c r="N107" s="11">
+        <v>100</v>
+      </c>
+      <c r="O107" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P107" s="25">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="Q107" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="B108" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="15">
+        <v>16</v>
+      </c>
+      <c r="J108" s="11">
+        <v>85.8</v>
+      </c>
+      <c r="K108" s="15">
+        <v>16</v>
+      </c>
+      <c r="L108" s="11">
+        <v>85.8</v>
+      </c>
+      <c r="M108" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="N108" s="11">
+        <v>100</v>
+      </c>
+      <c r="O108" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P108" s="25">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="Q108" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABCEA1-4FAF-4433-9843-24017322BCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C456B4-A6A1-4328-BE01-4E46A0E36B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="3735" windowWidth="21615" windowHeight="11505" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5265" yWindow="3300" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="315">
   <si>
     <t>Date</t>
   </si>
@@ -1088,6 +1088,26 @@
   </si>
   <si>
     <t>在1/4，1/2，3/4的位置截取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Time Visiting All Points</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array｜Geometry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算距离，point2计算新（x）（y）的位置，然后加减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断上下左右直接加减</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1525,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -6894,6 +6914,112 @@
         <v>32</v>
       </c>
     </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="15">
+        <v>12</v>
+      </c>
+      <c r="J109" s="11">
+        <v>48.03</v>
+      </c>
+      <c r="K109" s="15">
+        <v>12</v>
+      </c>
+      <c r="L109" s="11">
+        <v>48.03</v>
+      </c>
+      <c r="M109" s="21">
+        <v>10.1</v>
+      </c>
+      <c r="N109" s="11">
+        <v>100</v>
+      </c>
+      <c r="O109" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P109" s="25">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="Q109" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="15">
+        <v>4</v>
+      </c>
+      <c r="J110" s="11">
+        <v>99.32</v>
+      </c>
+      <c r="K110" s="15">
+        <v>8</v>
+      </c>
+      <c r="L110" s="11">
+        <v>89.23</v>
+      </c>
+      <c r="M110" s="21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N110" s="11">
+        <v>100</v>
+      </c>
+      <c r="O110" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P110" s="25">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="Q110" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C456B4-A6A1-4328-BE01-4E46A0E36B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9E285E-A85C-4336-8386-856BABF61C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="3300" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="322">
   <si>
     <t>Date</t>
   </si>
@@ -1108,6 +1108,34 @@
   </si>
   <si>
     <t>判断上下左右直接加减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort Array By Parity II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array｜Sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1089</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicate Zeros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每出现一次0，所有向右移动一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算出现0的次数从最后一位iterate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1546,7 +1574,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7020,6 +7048,165 @@
         <v>32</v>
       </c>
     </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="15">
+        <v>80</v>
+      </c>
+      <c r="J111" s="11">
+        <v>96.56</v>
+      </c>
+      <c r="K111" s="15">
+        <v>84</v>
+      </c>
+      <c r="L111" s="11">
+        <v>80.12</v>
+      </c>
+      <c r="M111" s="21">
+        <v>11.8</v>
+      </c>
+      <c r="N111" s="11">
+        <v>56.25</v>
+      </c>
+      <c r="O111" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P111" s="25">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="Q111" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="15">
+        <v>56</v>
+      </c>
+      <c r="J112" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K112" s="15">
+        <v>56</v>
+      </c>
+      <c r="L112" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M112" s="21">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N112" s="11">
+        <v>100</v>
+      </c>
+      <c r="O112" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P112" s="25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q112" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="15">
+        <v>20</v>
+      </c>
+      <c r="J113" s="11">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="K113" s="15">
+        <v>20</v>
+      </c>
+      <c r="L113" s="11">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="M113" s="21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N113" s="11">
+        <v>100</v>
+      </c>
+      <c r="O113" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P113" s="25">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q113" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9E285E-A85C-4336-8386-856BABF61C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0A5DAE-707C-4529-B0F1-9DF1E0A1BE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3300" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5505" yWindow="3885" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="326">
   <si>
     <t>Date</t>
   </si>
@@ -1136,6 +1136,22 @@
   </si>
   <si>
     <t>计算出现0的次数从最后一位iterate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0448</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort了以后一个个找谁不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用-当时的值代表i这个位置是有数字的，用作hash，很有用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1573,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -6943,9 +6959,6 @@
       </c>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="B109" s="4" t="s">
         <v>311</v>
       </c>
@@ -7102,9 +7115,6 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="B112" s="4" t="s">
         <v>318</v>
       </c>
@@ -7205,6 +7215,109 @@
       </c>
       <c r="Q113" s="19" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="B114" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="15">
+        <v>140</v>
+      </c>
+      <c r="J114" s="11">
+        <v>20.59</v>
+      </c>
+      <c r="K114" s="15">
+        <v>140</v>
+      </c>
+      <c r="L114" s="11">
+        <v>20.59</v>
+      </c>
+      <c r="M114" s="21">
+        <v>14.9</v>
+      </c>
+      <c r="N114" s="11">
+        <v>70</v>
+      </c>
+      <c r="O114" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P114" s="25">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Q114" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="16">
+        <v>112</v>
+      </c>
+      <c r="J115" s="12">
+        <v>90.66</v>
+      </c>
+      <c r="K115" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="L115" s="12">
+        <v>93.33</v>
+      </c>
+      <c r="M115" s="22">
+        <v>14.9</v>
+      </c>
+      <c r="N115" s="12">
+        <v>93.33</v>
+      </c>
+      <c r="O115" s="8">
+        <v>43850</v>
+      </c>
+      <c r="P115" s="26">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="Q115" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="1048576" spans="3:3">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0A5DAE-707C-4529-B0F1-9DF1E0A1BE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02F675-61B3-403E-9255-24C1DFBD8083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3885" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="328">
   <si>
     <t>Date</t>
   </si>
@@ -1152,6 +1152,14 @@
   </si>
   <si>
     <t>用-当时的值代表i这个位置是有数字的，用作hash，很有用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribute Candies to People</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1242,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1273,6 +1281,7 @@
     <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1589,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7310,13 +7319,63 @@
       <c r="N115" s="12">
         <v>93.33</v>
       </c>
-      <c r="O115" s="8">
+      <c r="O115" s="28">
         <v>43850</v>
       </c>
       <c r="P115" s="26">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="Q115" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="B116" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="15">
+        <v>0</v>
+      </c>
+      <c r="J116" s="11">
+        <v>100</v>
+      </c>
+      <c r="K116" s="15">
+        <v>4</v>
+      </c>
+      <c r="L116" s="11">
+        <v>64.89</v>
+      </c>
+      <c r="M116" s="21">
+        <v>8.6</v>
+      </c>
+      <c r="N116" s="11">
+        <v>100</v>
+      </c>
+      <c r="O116" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P116" s="25">
+        <v>0.1125</v>
+      </c>
+      <c r="Q116" s="19" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02F675-61B3-403E-9255-24C1DFBD8083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788CE0E-8D33-436B-AD8A-59EE8F978C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3885" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="330">
   <si>
     <t>Date</t>
   </si>
@@ -1160,6 +1160,14 @@
   </si>
   <si>
     <t>Distribute Candies to People</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defanging an IP Address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1599,7 +1607,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1619,7 +1627,7 @@
     <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
@@ -7379,6 +7387,56 @@
         <v>28</v>
       </c>
     </row>
+    <row r="117" spans="1:17">
+      <c r="B117" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="15">
+        <v>0</v>
+      </c>
+      <c r="J117" s="11">
+        <v>100</v>
+      </c>
+      <c r="K117" s="15">
+        <v>0</v>
+      </c>
+      <c r="L117" s="11">
+        <v>100</v>
+      </c>
+      <c r="M117" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N117" s="11">
+        <v>100</v>
+      </c>
+      <c r="O117" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P117" s="25">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="Q117" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788CE0E-8D33-436B-AD8A-59EE8F978C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F6EEF-456F-4B28-A877-4C98B4AB8318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3885" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="332">
   <si>
     <t>Date</t>
   </si>
@@ -1168,6 +1168,14 @@
   </si>
   <si>
     <t>Defanging an IP Address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occurrences After Bigram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1078</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1606,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:XFD117"/>
+    <sheetView tabSelected="1" topLeftCell="G103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7437,6 +7445,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="118" spans="1:17">
+      <c r="B118" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="15">
+        <v>0</v>
+      </c>
+      <c r="J118" s="11">
+        <v>100</v>
+      </c>
+      <c r="K118" s="15">
+        <v>4</v>
+      </c>
+      <c r="L118" s="11">
+        <v>58.65</v>
+      </c>
+      <c r="M118" s="21">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N118" s="11">
+        <v>100</v>
+      </c>
+      <c r="O118" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P118" s="25">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="Q118" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F6EEF-456F-4B28-A877-4C98B4AB8318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04076E0B-45F7-440A-B4C0-5A0ECA65ECA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3885" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="334">
   <si>
     <t>Date</t>
   </si>
@@ -1176,6 +1176,14 @@
   </si>
   <si>
     <t>1078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relative Sort Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1614,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7495,6 +7503,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="119" spans="1:17">
+      <c r="B119" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="15">
+        <v>4</v>
+      </c>
+      <c r="J119" s="11">
+        <v>92.64</v>
+      </c>
+      <c r="K119" s="15">
+        <v>8</v>
+      </c>
+      <c r="L119" s="11">
+        <v>46.59</v>
+      </c>
+      <c r="M119" s="21">
+        <v>9.1</v>
+      </c>
+      <c r="N119" s="11">
+        <v>100</v>
+      </c>
+      <c r="O119" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P119" s="25">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="Q119" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04076E0B-45F7-440A-B4C0-5A0ECA65ECA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D4B837-EDD9-6447-8774-DC00B2DD803A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3885" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="8300" yWindow="2820" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="338">
   <si>
     <t>Date</t>
   </si>
@@ -1185,6 +1185,18 @@
   <si>
     <t>1122</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>string -&gt;  char vector -&gt; Simulate stack</t>
   </si>
 </sst>
 </file>
@@ -1192,28 +1204,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1281,7 +1293,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1297,15 +1309,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,32 +1634,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B119" sqref="A119:XFD119"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="1"/>
+    <col min="13" max="13" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>104</v>
       </c>
@@ -1864,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
@@ -1914,7 +1926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
@@ -2714,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
@@ -2764,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2914,7 +2926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>122</v>
       </c>
@@ -2964,7 +2976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -3114,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
@@ -3314,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
@@ -3364,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>129</v>
       </c>
@@ -3414,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
@@ -3464,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
@@ -3514,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
@@ -3564,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
@@ -3664,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>156</v>
       </c>
@@ -3714,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
@@ -3864,7 +3876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
@@ -3964,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
@@ -4014,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>164</v>
       </c>
@@ -4114,7 +4126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
@@ -4164,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>167</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
@@ -4264,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>173</v>
       </c>
@@ -4314,7 +4326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>237</v>
       </c>
@@ -4367,7 +4379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>177</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>177</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
@@ -4567,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
@@ -4615,7 +4627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>188</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4697,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>194</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>202</v>
       </c>
@@ -4847,7 +4859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>202</v>
       </c>
@@ -4881,7 +4893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
@@ -4931,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>210</v>
       </c>
@@ -5031,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -5131,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
@@ -5181,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>220</v>
       </c>
@@ -5231,7 +5243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -5281,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
@@ -5331,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
@@ -5381,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>232</v>
       </c>
@@ -5431,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
@@ -5481,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
@@ -5534,7 +5546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
@@ -5640,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>246</v>
       </c>
@@ -5690,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>246</v>
       </c>
@@ -5740,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
         <v>249</v>
       </c>
@@ -5790,7 +5802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>254</v>
       </c>
@@ -5840,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
         <v>254</v>
       </c>
@@ -5890,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>258</v>
       </c>
@@ -5940,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>258</v>
       </c>
@@ -5990,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>262</v>
       </c>
@@ -6040,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>264</v>
       </c>
@@ -6090,7 +6102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>267</v>
       </c>
@@ -6140,7 +6152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>269</v>
       </c>
@@ -6190,7 +6202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>271</v>
       </c>
@@ -6240,7 +6252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>275</v>
       </c>
@@ -6290,7 +6302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>278</v>
       </c>
@@ -6340,7 +6352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>281</v>
       </c>
@@ -6390,7 +6402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>283</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>286</v>
       </c>
@@ -6488,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>288</v>
       </c>
@@ -6538,7 +6550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>288</v>
       </c>
@@ -6588,7 +6600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>237</v>
       </c>
@@ -6641,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
         <v>296</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>299</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>299</v>
       </c>
@@ -6791,7 +6803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>304</v>
       </c>
@@ -6841,7 +6853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
         <v>304</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>307</v>
       </c>
@@ -6941,7 +6953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>307</v>
       </c>
@@ -6991,7 +7003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>311</v>
       </c>
@@ -7041,7 +7053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>237</v>
       </c>
@@ -7094,7 +7106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>237</v>
       </c>
@@ -7147,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
         <v>318</v>
       </c>
@@ -7197,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>237</v>
       </c>
@@ -7250,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>323</v>
       </c>
@@ -7300,7 +7312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -7353,7 +7365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>326</v>
       </c>
@@ -7403,7 +7415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>328</v>
       </c>
@@ -7453,7 +7465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
         <v>331</v>
       </c>
@@ -7503,7 +7515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
         <v>333</v>
       </c>
@@ -7553,7 +7565,107 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="15">
+        <v>20</v>
+      </c>
+      <c r="J120" s="11">
+        <v>87.39</v>
+      </c>
+      <c r="K120" s="15">
+        <v>28</v>
+      </c>
+      <c r="L120" s="11">
+        <v>49.51</v>
+      </c>
+      <c r="M120" s="21">
+        <v>13.8</v>
+      </c>
+      <c r="N120" s="11">
+        <v>100</v>
+      </c>
+      <c r="O120" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P120" s="25">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="Q120" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B121" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="15">
+        <v>16</v>
+      </c>
+      <c r="J121" s="11">
+        <v>96.66</v>
+      </c>
+      <c r="K121" s="15">
+        <v>20</v>
+      </c>
+      <c r="L121" s="11">
+        <v>87.39</v>
+      </c>
+      <c r="M121" s="21">
+        <v>11.5</v>
+      </c>
+      <c r="N121" s="11">
+        <v>100</v>
+      </c>
+      <c r="O121" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P121" s="25">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="Q121" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>
       </c>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D4B837-EDD9-6447-8774-DC00B2DD803A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74287FB9-6DB8-3D49-9E96-9DE1F0C72CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="2820" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="341">
   <si>
     <t>Date</t>
   </si>
@@ -1197,6 +1197,15 @@
   </si>
   <si>
     <t>string -&gt;  char vector -&gt; Simulate stack</t>
+  </si>
+  <si>
+    <t>Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>Tree</t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7665,6 +7674,56 @@
         <v>28</v>
       </c>
     </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="15">
+        <v>44</v>
+      </c>
+      <c r="J122" s="11">
+        <v>96.71</v>
+      </c>
+      <c r="K122" s="15">
+        <v>56</v>
+      </c>
+      <c r="L122" s="11">
+        <v>45.49</v>
+      </c>
+      <c r="M122" s="21">
+        <v>29.3</v>
+      </c>
+      <c r="N122" s="11">
+        <v>9.76</v>
+      </c>
+      <c r="O122" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P122" s="25">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="Q122" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74287FB9-6DB8-3D49-9E96-9DE1F0C72CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06005EFB-E0DF-1442-A0C3-02E4C12EAB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="2820" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="343">
   <si>
     <t>Date</t>
   </si>
@@ -1206,6 +1206,12 @@
   </si>
   <si>
     <t>Tree</t>
+  </si>
+  <si>
+    <t>0728</t>
+  </si>
+  <si>
+    <t>Self Dividing Numbers</t>
   </si>
 </sst>
 </file>
@@ -1643,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7724,6 +7730,56 @@
         <v>28</v>
       </c>
     </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="15">
+        <v>0</v>
+      </c>
+      <c r="J123" s="11">
+        <v>100</v>
+      </c>
+      <c r="K123" s="15">
+        <v>0</v>
+      </c>
+      <c r="L123" s="11">
+        <v>100</v>
+      </c>
+      <c r="M123" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="N123" s="11">
+        <v>56</v>
+      </c>
+      <c r="O123" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P123" s="25">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="Q123" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06005EFB-E0DF-1442-A0C3-02E4C12EAB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370D28E-34FB-9A49-8BEF-A8F4B17F0AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="2820" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="346">
   <si>
     <t>Date</t>
   </si>
@@ -1212,6 +1212,15 @@
   </si>
   <si>
     <t>Self Dividing Numbers</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>0771</t>
+  </si>
+  <si>
+    <t>use set</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:XFD123"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7780,6 +7789,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="15">
+        <v>0</v>
+      </c>
+      <c r="J124" s="11">
+        <v>100</v>
+      </c>
+      <c r="K124" s="15">
+        <v>0</v>
+      </c>
+      <c r="L124" s="11">
+        <v>100</v>
+      </c>
+      <c r="M124" s="21">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N124" s="11">
+        <v>21.25</v>
+      </c>
+      <c r="O124" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P124" s="25">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="Q124" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370D28E-34FB-9A49-8BEF-A8F4B17F0AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A13ACFF-9900-764D-993A-000A5AEC5339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="2820" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="349">
   <si>
     <t>Date</t>
   </si>
@@ -1221,6 +1221,15 @@
   </si>
   <si>
     <t>use set</t>
+  </si>
+  <si>
+    <t>To Lower Case</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>ascii +-</t>
   </si>
 </sst>
 </file>
@@ -1658,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C124" sqref="A124:XFD124"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7839,6 +7848,56 @@
         <v>28</v>
       </c>
     </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B125" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="15">
+        <v>0</v>
+      </c>
+      <c r="J125" s="11">
+        <v>100</v>
+      </c>
+      <c r="K125" s="15">
+        <v>0</v>
+      </c>
+      <c r="L125" s="11">
+        <v>100</v>
+      </c>
+      <c r="M125" s="21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N125" s="11">
+        <v>33.33</v>
+      </c>
+      <c r="O125" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P125" s="25">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="Q125" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A13ACFF-9900-764D-993A-000A5AEC5339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2295C15-DEE1-5449-8290-F5BA60FBB200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="2820" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="4560" yWindow="3800" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="354">
   <si>
     <t>Date</t>
   </si>
@@ -1230,6 +1230,21 @@
   </si>
   <si>
     <t>ascii +-</t>
+  </si>
+  <si>
+    <t>Buddy Strings</t>
+  </si>
+  <si>
+    <t>0859</t>
+  </si>
+  <si>
+    <t>0766</t>
+  </si>
+  <si>
+    <t>Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t>直接比每个坐下是否相等</t>
   </si>
 </sst>
 </file>
@@ -1667,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7898,6 +7913,144 @@
         <v>32</v>
       </c>
     </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B126" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="15">
+        <v>8</v>
+      </c>
+      <c r="J126" s="11">
+        <v>67.28</v>
+      </c>
+      <c r="K126" s="15">
+        <v>8</v>
+      </c>
+      <c r="L126" s="11">
+        <v>67.28</v>
+      </c>
+      <c r="M126" s="21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N126" s="11">
+        <v>75</v>
+      </c>
+      <c r="O126" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P126" s="25">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="Q126" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="15">
+        <v>16</v>
+      </c>
+      <c r="J127" s="11">
+        <v>24.91</v>
+      </c>
+      <c r="K127" s="15">
+        <v>16</v>
+      </c>
+      <c r="L127" s="11">
+        <v>24.91</v>
+      </c>
+      <c r="M127" s="21">
+        <v>9.5</v>
+      </c>
+      <c r="N127" s="11">
+        <v>100</v>
+      </c>
+      <c r="O127" s="6">
+        <v>43850</v>
+      </c>
+      <c r="P127" s="25">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="Q127" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="16"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="26"/>
+      <c r="Q128" s="19"/>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2295C15-DEE1-5449-8290-F5BA60FBB200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCC799D-40D3-AB4C-B1E3-4A586AEB0A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3800" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="3500" yWindow="3880" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
     <t>Toeplitz Matrix</t>
   </si>
   <si>
-    <t>直接比每个坐下是否相等</t>
+    <t>直接比每个坐下是否相等(他人解法)</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="H120" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q128" sqref="Q128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8007,7 +8007,7 @@
         <v>100</v>
       </c>
       <c r="O127" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P127" s="25">
         <v>0.81736111111111109</v>
@@ -8020,36 +8020,54 @@
       <c r="A128" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" s="8" t="s">
+      <c r="C128" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="15">
         <v>12</v>
       </c>
-      <c r="I128" s="16"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="26"/>
-      <c r="Q128" s="19"/>
+      <c r="J128" s="11">
+        <v>74.86</v>
+      </c>
+      <c r="K128" s="15">
+        <v>12</v>
+      </c>
+      <c r="L128" s="11">
+        <v>74.86</v>
+      </c>
+      <c r="M128" s="21">
+        <v>9.5</v>
+      </c>
+      <c r="N128" s="11">
+        <v>100</v>
+      </c>
+      <c r="O128" s="6">
+        <v>43852</v>
+      </c>
+      <c r="P128" s="25">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="Q128" s="19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCC799D-40D3-AB4C-B1E3-4A586AEB0A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CA350-9DD9-DA43-AB69-12ECEB70BBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="3880" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H120" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q128" sqref="Q128"/>
+    <sheetView tabSelected="1" topLeftCell="H112" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7604,7 +7604,7 @@
         <v>100</v>
       </c>
       <c r="O119" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P119" s="25">
         <v>0.15763888888888888</v>
@@ -7654,7 +7654,7 @@
         <v>100</v>
       </c>
       <c r="O120" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P120" s="25">
         <v>0.58680555555555558</v>
@@ -7704,7 +7704,7 @@
         <v>100</v>
       </c>
       <c r="O121" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P121" s="25">
         <v>0.58680555555555558</v>
@@ -7754,7 +7754,7 @@
         <v>9.76</v>
       </c>
       <c r="O122" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P122" s="25">
         <v>0.60138888888888886</v>
@@ -7804,7 +7804,7 @@
         <v>56</v>
       </c>
       <c r="O123" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P123" s="25">
         <v>0.61597222222222225</v>
@@ -7854,7 +7854,7 @@
         <v>21.25</v>
       </c>
       <c r="O124" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P124" s="25">
         <v>0.6479166666666667</v>
@@ -7904,7 +7904,7 @@
         <v>33.33</v>
       </c>
       <c r="O125" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P125" s="25">
         <v>0.65694444444444444</v>
@@ -7954,7 +7954,7 @@
         <v>75</v>
       </c>
       <c r="O126" s="6">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="P126" s="25">
         <v>0.76458333333333339</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7CA350-9DD9-DA43-AB69-12ECEB70BBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55490E3-F2DC-6F4C-9E8C-232AB4AEC11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="3880" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="13940" yWindow="3360" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="358">
   <si>
     <t>Date</t>
   </si>
@@ -1245,6 +1245,18 @@
   </si>
   <si>
     <t>直接比每个坐下是否相等(他人解法)</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>sort() 方法</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H112" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O125" sqref="O125"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8069,6 +8081,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="15">
+        <v>200</v>
+      </c>
+      <c r="J129" s="11">
+        <v>12.79</v>
+      </c>
+      <c r="K129" s="15">
+        <v>436</v>
+      </c>
+      <c r="L129" s="11">
+        <v>7.22</v>
+      </c>
+      <c r="M129" s="21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N129" s="11">
+        <v>95</v>
+      </c>
+      <c r="O129" s="6">
+        <v>43852</v>
+      </c>
+      <c r="P129" s="25">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="Q129" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B130" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="16"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="28"/>
+      <c r="P130" s="26"/>
+      <c r="Q130" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55490E3-F2DC-6F4C-9E8C-232AB4AEC11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4E494-5985-764B-B424-F56DE713D05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13940" yWindow="3360" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="361">
   <si>
     <t>Date</t>
   </si>
@@ -1257,6 +1257,15 @@
   </si>
   <si>
     <t>sort() 方法</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>Unique Morse Code Words</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8142,7 +8151,7 @@
         <v>355</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>356</v>
@@ -8165,6 +8174,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" s="15">
+        <v>4</v>
+      </c>
+      <c r="J131" s="11">
+        <v>84.08</v>
+      </c>
+      <c r="K131" s="15">
+        <v>4</v>
+      </c>
+      <c r="L131" s="11">
+        <v>84.08</v>
+      </c>
+      <c r="M131" s="21">
+        <v>9</v>
+      </c>
+      <c r="N131" s="11">
+        <v>76.92</v>
+      </c>
+      <c r="O131" s="6">
+        <v>43852</v>
+      </c>
+      <c r="P131" s="25">
+        <v>0.79652777777777783</v>
+      </c>
+      <c r="Q131" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4E494-5985-764B-B424-F56DE713D05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476DBFDD-204B-2443-B796-54D94B677F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13940" yWindow="3360" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="366">
   <si>
     <t>Date</t>
   </si>
@@ -1266,6 +1266,21 @@
   </si>
   <si>
     <t>set</t>
+  </si>
+  <si>
+    <t>Flipping an Image</t>
+  </si>
+  <si>
+    <t>0832</t>
+  </si>
+  <si>
+    <t>std::reverse()</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>Binary search</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8090,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
         <v>354</v>
       </c>
@@ -8140,7 +8155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>354</v>
       </c>
@@ -8174,7 +8189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
         <v>358</v>
       </c>
@@ -8222,6 +8237,109 @@
       </c>
       <c r="Q131" s="19" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="15">
+        <v>12</v>
+      </c>
+      <c r="J132" s="11">
+        <v>71.53</v>
+      </c>
+      <c r="K132" s="15">
+        <v>16</v>
+      </c>
+      <c r="L132" s="11">
+        <v>11.76</v>
+      </c>
+      <c r="M132" s="21">
+        <v>9.1</v>
+      </c>
+      <c r="N132" s="11">
+        <v>100</v>
+      </c>
+      <c r="O132" s="6">
+        <v>43852</v>
+      </c>
+      <c r="P132" s="25">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="Q132" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="15">
+        <v>40</v>
+      </c>
+      <c r="J133" s="11">
+        <v>96.71</v>
+      </c>
+      <c r="K133" s="15">
+        <v>92</v>
+      </c>
+      <c r="L133" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="M133" s="21">
+        <v>10.9</v>
+      </c>
+      <c r="N133" s="11">
+        <v>77.78</v>
+      </c>
+      <c r="O133" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P133" s="25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q133" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476DBFDD-204B-2443-B796-54D94B677F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E2A88-6DAA-CC4A-976D-187B547E8654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13940" yWindow="3360" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="373">
   <si>
     <t>Date</t>
   </si>
@@ -1281,6 +1281,27 @@
   </si>
   <si>
     <t>Binary search</t>
+  </si>
+  <si>
+    <t>0724</t>
+  </si>
+  <si>
+    <t>Find Pivot Index</t>
+  </si>
+  <si>
+    <t>如果都为正则可从两端累加，如果不是则需要一个个判断</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>0733</t>
+  </si>
+  <si>
+    <t>Depth-first Search</t>
+  </si>
+  <si>
+    <t>iterate</t>
   </si>
 </sst>
 </file>
@@ -1718,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8342,6 +8363,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="15">
+        <v>40</v>
+      </c>
+      <c r="J134" s="11">
+        <v>14.29</v>
+      </c>
+      <c r="K134" s="15">
+        <v>40</v>
+      </c>
+      <c r="L134" s="11">
+        <v>14.29</v>
+      </c>
+      <c r="M134" s="21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N134" s="11">
+        <v>100</v>
+      </c>
+      <c r="O134" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P134" s="25">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="Q134" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B135" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="15">
+        <v>44</v>
+      </c>
+      <c r="J135" s="11">
+        <v>8.98</v>
+      </c>
+      <c r="K135" s="15">
+        <v>44</v>
+      </c>
+      <c r="L135" s="11">
+        <v>8.98</v>
+      </c>
+      <c r="M135" s="21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N135" s="11">
+        <v>88.89</v>
+      </c>
+      <c r="O135" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P135" s="25">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="Q135" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E2A88-6DAA-CC4A-976D-187B547E8654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDE228B-DAE7-EA48-96A5-854B3238FB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="3360" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="7860" yWindow="5520" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="385">
   <si>
     <t>Date</t>
   </si>
@@ -1302,6 +1302,42 @@
   </si>
   <si>
     <t>iterate</t>
+  </si>
+  <si>
+    <t>0744</t>
+  </si>
+  <si>
+    <t>Find Smallest Letter Greater Than Target</t>
+  </si>
+  <si>
+    <t>普通从头找</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>0746</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>取前两个中最小一个，虽然是和前一个一样的思想，但是远远比第一个时间少</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>Largest Number At Least Twice of Others</t>
+  </si>
+  <si>
+    <t>0747</t>
+  </si>
+  <si>
+    <t>在数组中找最大，然后比</t>
+  </si>
+  <si>
+    <t>sort数组，直接取最后两个，看存不存在，存在则一个个去找</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="G131" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140:L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8463,6 +8499,291 @@
         <v>0</v>
       </c>
     </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="15">
+        <v>14</v>
+      </c>
+      <c r="J136" s="11">
+        <v>11.17</v>
+      </c>
+      <c r="K136" s="15">
+        <v>14</v>
+      </c>
+      <c r="L136" s="11">
+        <v>11.17</v>
+      </c>
+      <c r="M136" s="21">
+        <v>9.1</v>
+      </c>
+      <c r="N136" s="11">
+        <v>72.73</v>
+      </c>
+      <c r="O136" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P136" s="25">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="Q136" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="16"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="22"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="28"/>
+      <c r="P137" s="26"/>
+      <c r="Q137" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="K138" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="M138" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="O138" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P138" s="25">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="Q138" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="15">
+        <v>12</v>
+      </c>
+      <c r="J139" s="11">
+        <v>10.76</v>
+      </c>
+      <c r="K139" s="15">
+        <v>12</v>
+      </c>
+      <c r="L139" s="11">
+        <v>10.76</v>
+      </c>
+      <c r="M139" s="21">
+        <v>8.9</v>
+      </c>
+      <c r="N139" s="11">
+        <v>37.21</v>
+      </c>
+      <c r="O139" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P139" s="25">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="Q139" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="15">
+        <v>16</v>
+      </c>
+      <c r="J140" s="11">
+        <v>7.56</v>
+      </c>
+      <c r="K140" s="15">
+        <v>4</v>
+      </c>
+      <c r="L140" s="11">
+        <v>66.63</v>
+      </c>
+      <c r="M140" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="N140" s="11">
+        <v>50</v>
+      </c>
+      <c r="O140" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P140" s="25">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="Q140" s="19"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="15">
+        <v>4</v>
+      </c>
+      <c r="J141" s="11">
+        <v>66.63</v>
+      </c>
+      <c r="K141" s="15">
+        <v>4</v>
+      </c>
+      <c r="L141" s="11">
+        <v>66.63</v>
+      </c>
+      <c r="M141" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="N141" s="11">
+        <v>70</v>
+      </c>
+      <c r="O141" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P141" s="25">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="Q141" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDE228B-DAE7-EA48-96A5-854B3238FB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B761E5BE-73E7-2448-AB4E-03E1A60CF264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="5520" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="388">
   <si>
     <t>Date</t>
   </si>
@@ -1338,6 +1338,15 @@
   </si>
   <si>
     <t>sort数组，直接取最后两个，看存不存在，存在则一个个去找</t>
+  </si>
+  <si>
+    <t>Rotate String</t>
+  </si>
+  <si>
+    <t>0796</t>
+  </si>
+  <si>
+    <t>使用queue</t>
   </si>
 </sst>
 </file>
@@ -1775,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G131" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140:L140"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8784,6 +8793,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="15">
+        <v>4</v>
+      </c>
+      <c r="J142" s="11">
+        <v>62.9</v>
+      </c>
+      <c r="K142" s="15">
+        <v>4</v>
+      </c>
+      <c r="L142" s="11">
+        <v>62.9</v>
+      </c>
+      <c r="M142" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N142" s="11">
+        <v>100</v>
+      </c>
+      <c r="O142" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P142" s="25">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="Q142" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B761E5BE-73E7-2448-AB4E-03E1A60CF264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F316333-1CDF-0A4E-8515-AD3DE176F9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="5520" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="391">
   <si>
     <t>Date</t>
   </si>
@@ -1347,6 +1347,15 @@
   </si>
   <si>
     <t>使用queue</t>
+  </si>
+  <si>
+    <t>Transpose Matrix</t>
+  </si>
+  <si>
+    <t>0867</t>
+  </si>
+  <si>
+    <t>暴力解法</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8841,6 +8850,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B143" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="15">
+        <v>28</v>
+      </c>
+      <c r="J143" s="11">
+        <v>62.68</v>
+      </c>
+      <c r="K143" s="15">
+        <v>48</v>
+      </c>
+      <c r="L143" s="11">
+        <v>5.18</v>
+      </c>
+      <c r="M143" s="21">
+        <v>11.4</v>
+      </c>
+      <c r="N143" s="11">
+        <v>100</v>
+      </c>
+      <c r="O143" s="6">
+        <v>43853</v>
+      </c>
+      <c r="P143" s="25">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="Q143" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F316333-1CDF-0A4E-8515-AD3DE176F9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106181CA-461F-CC45-BE2E-8D170568BFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="520" yWindow="2140" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106181CA-461F-CC45-BE2E-8D170568BFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B38A04-415E-475B-B125-4D183A78D33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="2140" windowWidth="33600" windowHeight="19260" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="7185" yWindow="4080" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="396">
   <si>
     <t>Date</t>
   </si>
@@ -1356,6 +1356,26 @@
   </si>
   <si>
     <t>暴力解法</t>
+  </si>
+  <si>
+    <t>1275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Winner on a Tic Tac Toe Game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift 2D Grid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1363,28 +1383,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1452,7 +1472,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1468,15 +1488,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1793,32 +1813,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="H128" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H145" sqref="A145:XFD145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -1871,7 +1891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
@@ -1921,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
@@ -1953,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
@@ -2003,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="B5" s="7" t="s">
         <v>104</v>
       </c>
@@ -2035,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
@@ -2085,7 +2105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -2135,7 +2155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -2185,7 +2205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
@@ -2235,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
@@ -2335,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2385,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
@@ -2435,7 +2455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
@@ -2485,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -2535,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
@@ -2585,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17">
       <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
@@ -2635,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17">
       <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
@@ -2685,7 +2705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17">
       <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2735,7 +2755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17">
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
@@ -2835,7 +2855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17">
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17">
       <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
@@ -2935,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17">
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17">
       <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
@@ -3035,7 +3055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17">
       <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17">
       <c r="B27" s="4" t="s">
         <v>122</v>
       </c>
@@ -3135,7 +3155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17">
       <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
@@ -3185,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17">
       <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
@@ -3235,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -3285,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17">
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
@@ -3335,7 +3355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17">
       <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
@@ -3385,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17">
       <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3435,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17">
       <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
@@ -3485,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17">
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
@@ -3535,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17">
       <c r="B36" s="4" t="s">
         <v>129</v>
       </c>
@@ -3585,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17">
       <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
@@ -3635,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17">
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
@@ -3685,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17">
       <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
@@ -3735,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
@@ -3785,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17">
       <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
@@ -3835,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17">
       <c r="B42" s="4" t="s">
         <v>156</v>
       </c>
@@ -3885,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17">
       <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
@@ -3935,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17">
       <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
@@ -3985,7 +4005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17">
       <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
@@ -4035,7 +4055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17">
       <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
@@ -4085,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17">
       <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
@@ -4135,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17">
       <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
@@ -4185,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
@@ -4235,7 +4255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="B50" s="4" t="s">
         <v>164</v>
       </c>
@@ -4285,7 +4305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
@@ -4335,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="B52" s="4" t="s">
         <v>167</v>
       </c>
@@ -4385,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
@@ -4435,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="B54" s="4" t="s">
         <v>173</v>
       </c>
@@ -4485,7 +4505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>237</v>
       </c>
@@ -4538,7 +4558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="B56" s="4" t="s">
         <v>177</v>
       </c>
@@ -4588,7 +4608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="B57" s="4" t="s">
         <v>177</v>
       </c>
@@ -4638,7 +4658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
@@ -4688,7 +4708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
@@ -4738,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
@@ -4786,7 +4806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="B61" s="7" t="s">
         <v>188</v>
       </c>
@@ -4818,7 +4838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4868,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
@@ -4918,7 +4938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="B64" s="4" t="s">
         <v>194</v>
       </c>
@@ -4968,7 +4988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="B65" s="4" t="s">
         <v>202</v>
       </c>
@@ -5018,7 +5038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="B66" s="7" t="s">
         <v>202</v>
       </c>
@@ -5052,7 +5072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
@@ -5102,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
@@ -5152,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="B69" s="4" t="s">
         <v>210</v>
       </c>
@@ -5202,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
@@ -5252,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -5302,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
@@ -5352,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="B73" s="4" t="s">
         <v>220</v>
       </c>
@@ -5402,7 +5422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -5452,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
@@ -5502,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
@@ -5552,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="B77" s="4" t="s">
         <v>232</v>
       </c>
@@ -5602,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
@@ -5652,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
@@ -5705,7 +5725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -5758,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
@@ -5811,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="B82" s="4" t="s">
         <v>246</v>
       </c>
@@ -5861,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="B83" s="4" t="s">
         <v>246</v>
       </c>
@@ -5911,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="B84" s="4" t="s">
         <v>249</v>
       </c>
@@ -5961,7 +5981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="B85" s="4" t="s">
         <v>254</v>
       </c>
@@ -6011,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="B86" s="4" t="s">
         <v>254</v>
       </c>
@@ -6061,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="B87" s="4" t="s">
         <v>258</v>
       </c>
@@ -6111,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="B88" s="4" t="s">
         <v>258</v>
       </c>
@@ -6161,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="B89" s="4" t="s">
         <v>262</v>
       </c>
@@ -6211,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="B90" s="4" t="s">
         <v>264</v>
       </c>
@@ -6261,7 +6281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="B91" s="4" t="s">
         <v>267</v>
       </c>
@@ -6311,7 +6331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="B92" s="4" t="s">
         <v>269</v>
       </c>
@@ -6361,7 +6381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="B93" s="4" t="s">
         <v>271</v>
       </c>
@@ -6411,7 +6431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="B94" s="4" t="s">
         <v>275</v>
       </c>
@@ -6461,7 +6481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="B95" s="4" t="s">
         <v>278</v>
       </c>
@@ -6511,7 +6531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="B96" s="4" t="s">
         <v>281</v>
       </c>
@@ -6561,7 +6581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="B97" s="4" t="s">
         <v>283</v>
       </c>
@@ -6611,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="B98" s="4" t="s">
         <v>286</v>
       </c>
@@ -6659,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="B99" s="4" t="s">
         <v>288</v>
       </c>
@@ -6709,7 +6729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="B100" s="4" t="s">
         <v>288</v>
       </c>
@@ -6759,7 +6779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
         <v>237</v>
       </c>
@@ -6812,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="B102" s="4" t="s">
         <v>296</v>
       </c>
@@ -6862,7 +6882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="B103" s="4" t="s">
         <v>299</v>
       </c>
@@ -6912,7 +6932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="B104" s="4" t="s">
         <v>299</v>
       </c>
@@ -6962,7 +6982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="B105" s="4" t="s">
         <v>304</v>
       </c>
@@ -7012,7 +7032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="B106" s="4" t="s">
         <v>304</v>
       </c>
@@ -7062,7 +7082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="B107" s="4" t="s">
         <v>307</v>
       </c>
@@ -7112,7 +7132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="B108" s="4" t="s">
         <v>307</v>
       </c>
@@ -7162,7 +7182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="B109" s="4" t="s">
         <v>311</v>
       </c>
@@ -7212,7 +7232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
         <v>237</v>
       </c>
@@ -7265,7 +7285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
         <v>237</v>
       </c>
@@ -7318,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="B112" s="4" t="s">
         <v>318</v>
       </c>
@@ -7368,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>237</v>
       </c>
@@ -7421,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="B114" s="4" t="s">
         <v>323</v>
       </c>
@@ -7471,7 +7491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -7524,7 +7544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="B116" s="4" t="s">
         <v>326</v>
       </c>
@@ -7574,7 +7594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="B117" s="4" t="s">
         <v>328</v>
       </c>
@@ -7624,7 +7644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="B118" s="4" t="s">
         <v>331</v>
       </c>
@@ -7674,7 +7694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="B119" s="4" t="s">
         <v>333</v>
       </c>
@@ -7724,7 +7744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="B120" s="4" t="s">
         <v>334</v>
       </c>
@@ -7774,7 +7794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="B121" s="4" t="s">
         <v>334</v>
       </c>
@@ -7824,7 +7844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="B122" s="4" t="s">
         <v>339</v>
       </c>
@@ -7874,7 +7894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="B123" s="4" t="s">
         <v>341</v>
       </c>
@@ -7924,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="B124" s="4" t="s">
         <v>344</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="B125" s="4" t="s">
         <v>347</v>
       </c>
@@ -8024,7 +8044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17">
       <c r="B126" s="4" t="s">
         <v>350</v>
       </c>
@@ -8074,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
         <v>237</v>
       </c>
@@ -8127,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
         <v>237</v>
       </c>
@@ -8180,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="B129" s="4" t="s">
         <v>354</v>
       </c>
@@ -8230,7 +8250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="B130" s="7" t="s">
         <v>354</v>
       </c>
@@ -8264,7 +8284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="B131" s="4" t="s">
         <v>358</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="B132" s="4" t="s">
         <v>362</v>
       </c>
@@ -8364,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="1" t="s">
         <v>237</v>
       </c>
@@ -8417,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="B134" s="4" t="s">
         <v>366</v>
       </c>
@@ -8467,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="B135" s="4" t="s">
         <v>370</v>
       </c>
@@ -8517,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="B136" s="4" t="s">
         <v>373</v>
       </c>
@@ -8567,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="1" t="s">
         <v>237</v>
       </c>
@@ -8604,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="B138" s="4" t="s">
         <v>377</v>
       </c>
@@ -8654,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="B139" s="4" t="s">
         <v>377</v>
       </c>
@@ -8704,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17">
       <c r="B140" s="4" t="s">
         <v>382</v>
       </c>
@@ -8752,7 +8772,7 @@
       </c>
       <c r="Q140" s="19"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17">
       <c r="B141" s="4" t="s">
         <v>382</v>
       </c>
@@ -8802,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17">
       <c r="B142" s="4" t="s">
         <v>386</v>
       </c>
@@ -8850,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17">
       <c r="B143" s="4" t="s">
         <v>389</v>
       </c>
@@ -8900,7 +8920,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17">
+      <c r="B144" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" s="15">
+        <v>12</v>
+      </c>
+      <c r="J144" s="11">
+        <v>59.62</v>
+      </c>
+      <c r="K144" s="15">
+        <v>12</v>
+      </c>
+      <c r="L144" s="11">
+        <v>59.62</v>
+      </c>
+      <c r="M144" s="21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N144" s="11">
+        <v>100</v>
+      </c>
+      <c r="O144" s="6">
+        <v>43854</v>
+      </c>
+      <c r="P144" s="25">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="Q144" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17">
+      <c r="B145" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" s="15">
+        <v>68</v>
+      </c>
+      <c r="J145" s="11">
+        <v>76.19</v>
+      </c>
+      <c r="K145" s="15">
+        <v>72</v>
+      </c>
+      <c r="L145" s="11">
+        <v>52.27</v>
+      </c>
+      <c r="M145" s="21">
+        <v>13.3</v>
+      </c>
+      <c r="N145" s="11">
+        <v>100</v>
+      </c>
+      <c r="O145" s="6">
+        <v>43854</v>
+      </c>
+      <c r="P145" s="25">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="Q145" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>
       </c>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B38A04-415E-475B-B125-4D183A78D33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E9A14-622C-4101-8E4D-80DA59037701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7185" yWindow="4080" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="398">
   <si>
     <t>Date</t>
   </si>
@@ -1375,6 +1375,14 @@
   </si>
   <si>
     <t>1260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cells with Odd Values in a Matrix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1252</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1813,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H128" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H145" sqref="A145:XFD145"/>
+    <sheetView tabSelected="1" topLeftCell="H137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9020,6 +9028,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="146" spans="2:17">
+      <c r="B146" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="15">
+        <v>4</v>
+      </c>
+      <c r="J146" s="11">
+        <v>82.63</v>
+      </c>
+      <c r="K146" s="15">
+        <v>8</v>
+      </c>
+      <c r="L146" s="11">
+        <v>29.48</v>
+      </c>
+      <c r="M146" s="21">
+        <v>9.5</v>
+      </c>
+      <c r="N146" s="11">
+        <v>100</v>
+      </c>
+      <c r="O146" s="6">
+        <v>43854</v>
+      </c>
+      <c r="P146" s="25">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="Q146" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E9A14-622C-4101-8E4D-80DA59037701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844EDE00-5AA6-4112-9A16-80E083409C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="4080" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5760" yWindow="4545" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="405">
   <si>
     <t>Date</t>
   </si>
@@ -1383,6 +1383,34 @@
   </si>
   <si>
     <t>1252</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0637</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth first</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breadth first</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array Partition I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0561</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1473,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1505,6 +1533,7 @@
     <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,7 +1851,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+      <selection activeCell="K149" sqref="K149:L149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9078,6 +9107,138 @@
         <v>0</v>
       </c>
     </row>
+    <row r="147" spans="2:17">
+      <c r="B147" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="15">
+        <v>16</v>
+      </c>
+      <c r="J147" s="11">
+        <v>91.37</v>
+      </c>
+      <c r="K147" s="15">
+        <v>24</v>
+      </c>
+      <c r="L147" s="11">
+        <v>44.38</v>
+      </c>
+      <c r="M147" s="21">
+        <v>24.5</v>
+      </c>
+      <c r="N147" s="11">
+        <v>11.11</v>
+      </c>
+      <c r="O147" s="6">
+        <v>43854</v>
+      </c>
+      <c r="P147" s="25">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="Q147" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17">
+      <c r="B148" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="16"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="22"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="28"/>
+      <c r="P148" s="26"/>
+      <c r="Q148" s="19"/>
+    </row>
+    <row r="149" spans="2:17">
+      <c r="B149" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="17">
+        <v>104</v>
+      </c>
+      <c r="J149" s="13">
+        <v>6.34</v>
+      </c>
+      <c r="K149" s="17">
+        <v>104</v>
+      </c>
+      <c r="L149" s="13">
+        <v>6.34</v>
+      </c>
+      <c r="M149" s="23">
+        <v>11.3</v>
+      </c>
+      <c r="N149" s="13">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="O149" s="29">
+        <v>43856</v>
+      </c>
+      <c r="P149" s="27">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="Q149" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844EDE00-5AA6-4112-9A16-80E083409C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D09EE9-22D3-4C81-BF1A-0CB858706164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="4545" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="408">
   <si>
     <t>Date</t>
   </si>
@@ -1411,6 +1411,18 @@
   </si>
   <si>
     <t>sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char +-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Strings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0415</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1501,7 +1513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1533,7 +1545,6 @@
     <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1850,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149:L149"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9190,52 +9201,98 @@
       <c r="Q148" s="19"/>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="4" t="s">
         <v>402</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F149" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="4" t="s">
         <v>404</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I149" s="17">
+      <c r="I149" s="15">
         <v>104</v>
       </c>
-      <c r="J149" s="13">
+      <c r="J149" s="11">
         <v>6.34</v>
       </c>
-      <c r="K149" s="17">
+      <c r="K149" s="15">
         <v>104</v>
       </c>
-      <c r="L149" s="13">
+      <c r="L149" s="11">
         <v>6.34</v>
       </c>
-      <c r="M149" s="23">
+      <c r="M149" s="21">
         <v>11.3</v>
       </c>
-      <c r="N149" s="13">
+      <c r="N149" s="11">
         <v>78.569999999999993</v>
       </c>
-      <c r="O149" s="29">
+      <c r="O149" s="6">
         <v>43856</v>
       </c>
-      <c r="P149" s="27">
+      <c r="P149" s="25">
         <v>0.9902777777777777</v>
       </c>
       <c r="Q149" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17">
+      <c r="B150" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="15">
+        <v>4</v>
+      </c>
+      <c r="J150" s="11">
+        <v>92.11</v>
+      </c>
+      <c r="K150" s="15"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="21">
+        <v>9.1</v>
+      </c>
+      <c r="N150" s="11">
+        <v>65.22</v>
+      </c>
+      <c r="O150" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P150" s="25">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="Q150" s="19" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D09EE9-22D3-4C81-BF1A-0CB858706164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86F6753-8DB2-4471-B2C0-AE48EBC46049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="4545" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86F6753-8DB2-4471-B2C0-AE48EBC46049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA8FD7-81EF-4BD2-9DB1-26DC71C4CDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="4545" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="411">
   <si>
     <t>Date</t>
   </si>
@@ -1423,6 +1423,18 @@
   </si>
   <si>
     <t>0415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0409</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector，双数一定是对称，单数只选取一个，剩下的都取双数（单数 -1）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1861,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="G137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9278,8 +9290,12 @@
       <c r="J150" s="11">
         <v>92.11</v>
       </c>
-      <c r="K150" s="15"/>
-      <c r="L150" s="11"/>
+      <c r="K150" s="15">
+        <v>4</v>
+      </c>
+      <c r="L150" s="11">
+        <v>92.11</v>
+      </c>
       <c r="M150" s="21">
         <v>9.1</v>
       </c>
@@ -9294,6 +9310,56 @@
       </c>
       <c r="Q150" s="19" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17">
+      <c r="B151" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="15">
+        <v>0</v>
+      </c>
+      <c r="J151" s="11">
+        <v>100</v>
+      </c>
+      <c r="K151" s="15">
+        <v>8</v>
+      </c>
+      <c r="L151" s="11">
+        <v>93.33</v>
+      </c>
+      <c r="M151" s="21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N151" s="11">
+        <v>93.33</v>
+      </c>
+      <c r="O151" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P151" s="25">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="Q151" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1048576" spans="3:3">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA8FD7-81EF-4BD2-9DB1-26DC71C4CDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02828D-4AC3-4980-BB36-DB1D7137DE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4545" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="7545" yWindow="4200" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="418">
   <si>
     <t>Date</t>
   </si>
@@ -1435,6 +1435,34 @@
   </si>
   <si>
     <t>vector，双数一定是对称，单数只选取一个，剩下的都取双数（单数 -1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Segments in a String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arranging Coins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0441</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array｜Dynamic Programming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1873,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -8748,7 +8776,7 @@
         <v>51</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>34</v>
+        <v>415</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>379</v>
@@ -9030,7 +9058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="2:17">
+    <row r="145" spans="1:17">
       <c r="B145" s="4" t="s">
         <v>395</v>
       </c>
@@ -9080,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:17">
+    <row r="146" spans="1:17">
       <c r="B146" s="4" t="s">
         <v>397</v>
       </c>
@@ -9130,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:17">
+    <row r="147" spans="1:17">
       <c r="B147" s="4" t="s">
         <v>399</v>
       </c>
@@ -9180,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:17">
+    <row r="148" spans="1:17">
       <c r="B148" s="7" t="s">
         <v>399</v>
       </c>
@@ -9212,7 +9240,7 @@
       <c r="P148" s="26"/>
       <c r="Q148" s="19"/>
     </row>
-    <row r="149" spans="2:17">
+    <row r="149" spans="1:17">
       <c r="B149" s="4" t="s">
         <v>403</v>
       </c>
@@ -9262,7 +9290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:17">
+    <row r="150" spans="1:17">
       <c r="B150" s="4" t="s">
         <v>407</v>
       </c>
@@ -9312,7 +9340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="2:17">
+    <row r="151" spans="1:17">
       <c r="B151" s="4" t="s">
         <v>408</v>
       </c>
@@ -9360,6 +9388,162 @@
       </c>
       <c r="Q151" s="19" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="B152" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="15">
+        <v>0</v>
+      </c>
+      <c r="J152" s="11">
+        <v>100</v>
+      </c>
+      <c r="K152" s="15">
+        <v>8</v>
+      </c>
+      <c r="L152" s="11">
+        <v>56.55</v>
+      </c>
+      <c r="M152" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="N152" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="O152" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P152" s="25">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="Q152" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I153" s="15">
+        <v>12</v>
+      </c>
+      <c r="J153" s="11">
+        <v>38.47</v>
+      </c>
+      <c r="K153" s="15">
+        <v>12</v>
+      </c>
+      <c r="L153" s="11">
+        <v>38.47</v>
+      </c>
+      <c r="M153" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="N153" s="11">
+        <v>100</v>
+      </c>
+      <c r="O153" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P153" s="25">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="Q153" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I154" s="16">
+        <v>4</v>
+      </c>
+      <c r="J154" s="12">
+        <v>87.14</v>
+      </c>
+      <c r="K154" s="16">
+        <v>4</v>
+      </c>
+      <c r="L154" s="12">
+        <v>87.14</v>
+      </c>
+      <c r="M154" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N154" s="12">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="O154" s="28">
+        <v>43857</v>
+      </c>
+      <c r="P154" s="26">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="Q154" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1048576" spans="3:3">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02828D-4AC3-4980-BB36-DB1D7137DE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B53CD9-EC05-4DD8-9FED-8FDE43B945FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7545" yWindow="4200" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="423">
   <si>
     <t>Date</t>
   </si>
@@ -1463,6 +1463,26 @@
   </si>
   <si>
     <t>DONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0557</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string reverse()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opeartion on vector</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1901,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="G143" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9546,6 +9566,156 @@
         <v>32</v>
       </c>
     </row>
+    <row r="155" spans="1:17">
+      <c r="B155" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I155" s="15">
+        <v>28</v>
+      </c>
+      <c r="J155" s="11">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="K155" s="15">
+        <v>40</v>
+      </c>
+      <c r="L155" s="11">
+        <v>13.05</v>
+      </c>
+      <c r="M155" s="21">
+        <v>15.6</v>
+      </c>
+      <c r="N155" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O155" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P155" s="25">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="Q155" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="B156" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I156" s="15">
+        <v>36</v>
+      </c>
+      <c r="J156" s="11">
+        <v>16.47</v>
+      </c>
+      <c r="K156" s="15">
+        <v>44</v>
+      </c>
+      <c r="L156" s="11">
+        <v>11.17</v>
+      </c>
+      <c r="M156" s="21">
+        <v>12.3</v>
+      </c>
+      <c r="N156" s="11">
+        <v>34.78</v>
+      </c>
+      <c r="O156" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P156" s="25">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="Q156" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="B157" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I157" s="15">
+        <v>24</v>
+      </c>
+      <c r="J157" s="11">
+        <v>59.15</v>
+      </c>
+      <c r="K157" s="15">
+        <v>32</v>
+      </c>
+      <c r="L157" s="11">
+        <v>23.08</v>
+      </c>
+      <c r="M157" s="21">
+        <v>12.3</v>
+      </c>
+      <c r="N157" s="11">
+        <v>34.78</v>
+      </c>
+      <c r="O157" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P157" s="25">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="Q157" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B53CD9-EC05-4DD8-9FED-8FDE43B945FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CA46E-80D1-4322-96A6-210CF07F12B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="4200" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5865" yWindow="4140" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="425">
   <si>
     <t>Date</t>
   </si>
@@ -1483,6 +1483,14 @@
   </si>
   <si>
     <t>opeartion on vector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0504</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1921,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G143" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:XFD158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9716,6 +9724,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="158" spans="1:17">
+      <c r="B158" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I158" s="15">
+        <v>0</v>
+      </c>
+      <c r="J158" s="11">
+        <v>100</v>
+      </c>
+      <c r="K158" s="15">
+        <v>4</v>
+      </c>
+      <c r="L158" s="11">
+        <v>53.9</v>
+      </c>
+      <c r="M158" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="N158" s="11">
+        <v>100</v>
+      </c>
+      <c r="O158" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P158" s="25">
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="Q158" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CA46E-80D1-4322-96A6-210CF07F12B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A165215E-C7A5-4B05-86F7-351530E13E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="4140" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="431">
   <si>
     <t>Date</t>
   </si>
@@ -1491,6 +1491,30 @@
   </si>
   <si>
     <t>0504</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0509</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0520</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1930,7 +1954,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:XFD158"/>
+      <selection activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9653,7 +9677,7 @@
         <v>16.47</v>
       </c>
       <c r="K156" s="15">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L156" s="11">
         <v>11.17</v>
@@ -9740,7 +9764,9 @@
       <c r="F158" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G158" s="4"/>
+      <c r="G158" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="H158" s="4" t="s">
         <v>417</v>
       </c>
@@ -9769,6 +9795,156 @@
         <v>0.18819444444444444</v>
       </c>
       <c r="Q158" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I159" s="15">
+        <v>8</v>
+      </c>
+      <c r="J159" s="11">
+        <v>30.46</v>
+      </c>
+      <c r="K159" s="15">
+        <v>12</v>
+      </c>
+      <c r="L159" s="11">
+        <v>24.48</v>
+      </c>
+      <c r="M159" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N159" s="11">
+        <v>100</v>
+      </c>
+      <c r="O159" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P159" s="25">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="Q159" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I160" s="15">
+        <v>0</v>
+      </c>
+      <c r="J160" s="11">
+        <v>100</v>
+      </c>
+      <c r="K160" s="15">
+        <v>4</v>
+      </c>
+      <c r="L160" s="11">
+        <v>65.17</v>
+      </c>
+      <c r="M160" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="N160" s="11">
+        <v>100</v>
+      </c>
+      <c r="O160" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P160" s="25">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="Q160" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17">
+      <c r="B161" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I161" s="15">
+        <v>0</v>
+      </c>
+      <c r="J161" s="11">
+        <v>100</v>
+      </c>
+      <c r="K161" s="15">
+        <v>4</v>
+      </c>
+      <c r="L161" s="11">
+        <v>62.52</v>
+      </c>
+      <c r="M161" s="21">
+        <v>82</v>
+      </c>
+      <c r="N161" s="11">
+        <v>75</v>
+      </c>
+      <c r="O161" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P161" s="25">
+        <v>0.55694444444444446</v>
+      </c>
+      <c r="Q161" s="19" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A165215E-C7A5-4B05-86F7-351530E13E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68126D1-A237-45C8-8DC6-32CEB20ADB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="4140" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68126D1-A237-45C8-8DC6-32CEB20ADB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E2DF8-C3B6-4CB2-9203-72F275E04BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="4140" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5370" yWindow="4170" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="434">
   <si>
     <t>Date</t>
   </si>
@@ -1515,6 +1515,18 @@
   </si>
   <si>
     <t>0520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Common Characters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map,vector</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1953,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M160" sqref="M160"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -9948,6 +9960,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="162" spans="2:17">
+      <c r="B162" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I162" s="15">
+        <v>28</v>
+      </c>
+      <c r="J162" s="11">
+        <v>16.34</v>
+      </c>
+      <c r="K162" s="15">
+        <v>28</v>
+      </c>
+      <c r="L162" s="11">
+        <v>16.34</v>
+      </c>
+      <c r="M162" s="21">
+        <v>10.7</v>
+      </c>
+      <c r="N162" s="11">
+        <v>8.33</v>
+      </c>
+      <c r="O162" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P162" s="25">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="Q162" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E2DF8-C3B6-4CB2-9203-72F275E04BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0F1AB-C973-7344-B0B0-3DBB90E0DF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="4170" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="5380" yWindow="4180" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="438">
   <si>
     <t>Date</t>
   </si>
@@ -1528,6 +1528,18 @@
   <si>
     <t>map,vector</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>Last Stone Weight</t>
+  </si>
+  <si>
+    <t>Math｜Binary Search</t>
+  </si>
+  <si>
+    <t>Heap｜Greedy</t>
   </si>
 </sst>
 </file>
@@ -1535,28 +1547,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1624,7 +1636,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1640,15 +1652,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1965,32 +1977,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="1"/>
+    <col min="13" max="13" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>104</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
@@ -2257,7 +2269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -2307,7 +2319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
@@ -2507,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
@@ -2807,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
@@ -3007,7 +3019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>122</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
@@ -3407,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3607,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>129</v>
       </c>
@@ -3757,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>156</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
@@ -4157,7 +4169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>164</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>167</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>173</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>237</v>
       </c>
@@ -4710,7 +4722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>177</v>
       </c>
@@ -4760,7 +4772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>177</v>
       </c>
@@ -4810,7 +4822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
@@ -4910,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
@@ -4958,7 +4970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>188</v>
       </c>
@@ -4990,7 +5002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
@@ -5040,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
@@ -5090,7 +5102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>194</v>
       </c>
@@ -5140,7 +5152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>202</v>
       </c>
@@ -5190,7 +5202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>202</v>
       </c>
@@ -5224,7 +5236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
@@ -5274,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
@@ -5324,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>210</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
@@ -5424,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -5474,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
@@ -5524,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>220</v>
       </c>
@@ -5574,7 +5586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -5624,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
@@ -5674,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
@@ -5724,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>232</v>
       </c>
@@ -5774,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
@@ -5824,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
@@ -5877,7 +5889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -5930,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>246</v>
       </c>
@@ -6033,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>246</v>
       </c>
@@ -6083,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
         <v>249</v>
       </c>
@@ -6133,7 +6145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>254</v>
       </c>
@@ -6183,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
         <v>254</v>
       </c>
@@ -6233,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>258</v>
       </c>
@@ -6283,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>258</v>
       </c>
@@ -6333,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>262</v>
       </c>
@@ -6383,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>264</v>
       </c>
@@ -6433,7 +6445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>267</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>269</v>
       </c>
@@ -6533,7 +6545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>271</v>
       </c>
@@ -6583,7 +6595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>275</v>
       </c>
@@ -6633,7 +6645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>278</v>
       </c>
@@ -6683,7 +6695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>281</v>
       </c>
@@ -6733,7 +6745,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>283</v>
       </c>
@@ -6783,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>286</v>
       </c>
@@ -6831,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>288</v>
       </c>
@@ -6881,7 +6893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>288</v>
       </c>
@@ -6931,7 +6943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>237</v>
       </c>
@@ -6984,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
         <v>296</v>
       </c>
@@ -7034,7 +7046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>299</v>
       </c>
@@ -7084,7 +7096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>299</v>
       </c>
@@ -7134,7 +7146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>304</v>
       </c>
@@ -7184,7 +7196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
         <v>304</v>
       </c>
@@ -7234,7 +7246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>307</v>
       </c>
@@ -7284,7 +7296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>307</v>
       </c>
@@ -7334,7 +7346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>311</v>
       </c>
@@ -7384,7 +7396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>237</v>
       </c>
@@ -7437,7 +7449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>237</v>
       </c>
@@ -7490,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
         <v>318</v>
       </c>
@@ -7540,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>237</v>
       </c>
@@ -7593,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>323</v>
       </c>
@@ -7643,7 +7655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -7696,7 +7708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>326</v>
       </c>
@@ -7746,7 +7758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>328</v>
       </c>
@@ -7796,7 +7808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
         <v>331</v>
       </c>
@@ -7846,7 +7858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
         <v>333</v>
       </c>
@@ -7896,7 +7908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
         <v>334</v>
       </c>
@@ -7946,7 +7958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
         <v>334</v>
       </c>
@@ -7996,7 +8008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
         <v>339</v>
       </c>
@@ -8046,7 +8058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>341</v>
       </c>
@@ -8096,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
         <v>344</v>
       </c>
@@ -8146,7 +8158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
         <v>347</v>
       </c>
@@ -8196,7 +8208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
         <v>350</v>
       </c>
@@ -8246,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>237</v>
       </c>
@@ -8299,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>237</v>
       </c>
@@ -8352,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
         <v>354</v>
       </c>
@@ -8402,7 +8414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>354</v>
       </c>
@@ -8436,7 +8448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
         <v>358</v>
       </c>
@@ -8486,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
         <v>362</v>
       </c>
@@ -8536,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>237</v>
       </c>
@@ -8589,7 +8601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
         <v>366</v>
       </c>
@@ -8639,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
         <v>370</v>
       </c>
@@ -8689,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
         <v>373</v>
       </c>
@@ -8739,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>237</v>
       </c>
@@ -8776,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
         <v>377</v>
       </c>
@@ -8826,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
         <v>377</v>
       </c>
@@ -8876,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
         <v>382</v>
       </c>
@@ -8924,7 +8936,7 @@
       </c>
       <c r="Q140" s="19"/>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
         <v>382</v>
       </c>
@@ -8974,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B142" s="4" t="s">
         <v>386</v>
       </c>
@@ -9022,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
         <v>389</v>
       </c>
@@ -9072,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B144" s="4" t="s">
         <v>391</v>
       </c>
@@ -9122,7 +9134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B145" s="4" t="s">
         <v>395</v>
       </c>
@@ -9172,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B146" s="4" t="s">
         <v>397</v>
       </c>
@@ -9222,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B147" s="4" t="s">
         <v>399</v>
       </c>
@@ -9272,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>399</v>
       </c>
@@ -9304,7 +9316,7 @@
       <c r="P148" s="26"/>
       <c r="Q148" s="19"/>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
         <v>403</v>
       </c>
@@ -9354,7 +9366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B150" s="4" t="s">
         <v>407</v>
       </c>
@@ -9404,7 +9416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B151" s="4" t="s">
         <v>408</v>
       </c>
@@ -9454,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B152" s="4" t="s">
         <v>411</v>
       </c>
@@ -9504,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>237</v>
       </c>
@@ -9557,7 +9569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>237</v>
       </c>
@@ -9574,7 +9586,7 @@
         <v>69</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>75</v>
+        <v>436</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>416</v>
@@ -9610,7 +9622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
         <v>419</v>
       </c>
@@ -9660,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B156" s="4" t="s">
         <v>419</v>
       </c>
@@ -9710,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
         <v>419</v>
       </c>
@@ -9760,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B158" s="4" t="s">
         <v>424</v>
       </c>
@@ -9810,7 +9822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B159" s="4" t="s">
         <v>426</v>
       </c>
@@ -9860,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B160" s="4" t="s">
         <v>426</v>
       </c>
@@ -9910,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:17">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
         <v>430</v>
       </c>
@@ -9960,7 +9972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="2:17">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B162" s="4" t="s">
         <v>432</v>
       </c>
@@ -10010,7 +10022,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B163" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I163" s="15">
+        <v>0</v>
+      </c>
+      <c r="J163" s="11">
+        <v>100</v>
+      </c>
+      <c r="K163" s="15">
+        <v>0</v>
+      </c>
+      <c r="L163" s="11">
+        <v>100</v>
+      </c>
+      <c r="M163" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="N163" s="11">
+        <v>100</v>
+      </c>
+      <c r="O163" s="6">
+        <v>43857</v>
+      </c>
+      <c r="P163" s="25">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="Q163" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1048576" s="4" t="s">
         <v>94</v>
       </c>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E2DF8-C3B6-4CB2-9203-72F275E04BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E5D7E-E41D-4852-8C50-458C9042E062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="4170" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="4290" yWindow="2760" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="438">
   <si>
     <t>Date</t>
   </si>
@@ -1527,6 +1527,22 @@
   </si>
   <si>
     <t>map,vector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyboard Row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set count()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use char ==</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +1982,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A152" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10010,6 +10026,106 @@
         <v>32</v>
       </c>
     </row>
+    <row r="163" spans="2:17">
+      <c r="B163" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I163" s="15">
+        <v>4</v>
+      </c>
+      <c r="J163" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="K163" s="15">
+        <v>4</v>
+      </c>
+      <c r="L163" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="M163" s="21">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N163" s="11">
+        <v>14.29</v>
+      </c>
+      <c r="O163" s="6">
+        <v>43858</v>
+      </c>
+      <c r="P163" s="25">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="Q163" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17">
+      <c r="B164" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I164" s="15">
+        <v>4</v>
+      </c>
+      <c r="J164" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="K164" s="15">
+        <v>4</v>
+      </c>
+      <c r="L164" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="M164" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="N164" s="11">
+        <v>100</v>
+      </c>
+      <c r="O164" s="6">
+        <v>43858</v>
+      </c>
+      <c r="P164" s="25">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="Q164" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzmain/_Repository/👨🏻‍💻LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0F1AB-C973-7344-B0B0-3DBB90E0DF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A8818-5F08-44DE-A72C-2C63EA45BC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="4180" windowWidth="21620" windowHeight="11360" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="12885" yWindow="3075" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="442">
   <si>
     <t>Date</t>
   </si>
@@ -1540,6 +1540,22 @@
   </si>
   <si>
     <t>Heap｜Greedy</t>
+  </si>
+  <si>
+    <t>0500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyboard Row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set count()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use char ==</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1547,28 +1563,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1636,7 +1652,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1652,15 +1668,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1978,31 +1994,31 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="13.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -2055,7 +2071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
@@ -2105,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
@@ -2137,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
@@ -2187,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="B5" s="7" t="s">
         <v>104</v>
       </c>
@@ -2219,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
@@ -2269,7 +2285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
@@ -2319,7 +2335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -2369,7 +2385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
@@ -2419,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
@@ -2469,7 +2485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
@@ -2519,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2569,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
@@ -2619,7 +2635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
@@ -2669,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -2719,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
@@ -2769,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17">
       <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
@@ -2819,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17">
       <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
@@ -2869,7 +2885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17">
       <c r="B19" s="4" t="s">
         <v>117</v>
       </c>
@@ -2919,7 +2935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
@@ -2969,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17">
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
@@ -3019,7 +3035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17">
       <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
@@ -3069,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17">
       <c r="B23" s="4" t="s">
         <v>120</v>
       </c>
@@ -3119,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17">
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
@@ -3169,7 +3185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17">
       <c r="B25" s="4" t="s">
         <v>121</v>
       </c>
@@ -3219,7 +3235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17">
       <c r="B26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3269,7 +3285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17">
       <c r="B27" s="4" t="s">
         <v>122</v>
       </c>
@@ -3319,7 +3335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17">
       <c r="B28" s="4" t="s">
         <v>123</v>
       </c>
@@ -3369,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17">
       <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
@@ -3419,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -3469,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17">
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
@@ -3519,7 +3535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17">
       <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
@@ -3569,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17">
       <c r="B33" s="4" t="s">
         <v>127</v>
       </c>
@@ -3619,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17">
       <c r="B34" s="4" t="s">
         <v>128</v>
       </c>
@@ -3669,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17">
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
@@ -3719,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17">
       <c r="B36" s="4" t="s">
         <v>129</v>
       </c>
@@ -3769,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17">
       <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
@@ -3819,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17">
       <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
@@ -3869,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17">
       <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
@@ -3919,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17">
       <c r="B40" s="4" t="s">
         <v>137</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17">
       <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
@@ -4019,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17">
       <c r="B42" s="4" t="s">
         <v>156</v>
       </c>
@@ -4069,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17">
       <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
@@ -4119,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17">
       <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
@@ -4169,7 +4185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17">
       <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
@@ -4219,7 +4235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17">
       <c r="B46" s="4" t="s">
         <v>159</v>
       </c>
@@ -4269,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17">
       <c r="B47" s="4" t="s">
         <v>159</v>
       </c>
@@ -4319,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17">
       <c r="B48" s="4" t="s">
         <v>160</v>
       </c>
@@ -4369,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="B49" s="4" t="s">
         <v>161</v>
       </c>
@@ -4419,7 +4435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="B50" s="4" t="s">
         <v>164</v>
       </c>
@@ -4469,7 +4485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
@@ -4519,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="B52" s="4" t="s">
         <v>167</v>
       </c>
@@ -4569,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="B53" s="4" t="s">
         <v>167</v>
       </c>
@@ -4619,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="B54" s="4" t="s">
         <v>173</v>
       </c>
@@ -4669,7 +4685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>237</v>
       </c>
@@ -4722,7 +4738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="B56" s="4" t="s">
         <v>177</v>
       </c>
@@ -4772,7 +4788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="B57" s="4" t="s">
         <v>177</v>
       </c>
@@ -4822,7 +4838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
@@ -4872,7 +4888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
@@ -4922,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
@@ -4970,7 +4986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="B61" s="7" t="s">
         <v>188</v>
       </c>
@@ -5002,7 +5018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
@@ -5052,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
@@ -5102,7 +5118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="B64" s="4" t="s">
         <v>194</v>
       </c>
@@ -5152,7 +5168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="B65" s="4" t="s">
         <v>202</v>
       </c>
@@ -5202,7 +5218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="B66" s="7" t="s">
         <v>202</v>
       </c>
@@ -5236,7 +5252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
@@ -5286,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
@@ -5336,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="B69" s="4" t="s">
         <v>210</v>
       </c>
@@ -5386,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
@@ -5436,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="B71" s="4" t="s">
         <v>212</v>
       </c>
@@ -5486,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
@@ -5536,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="B73" s="4" t="s">
         <v>220</v>
       </c>
@@ -5586,7 +5602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -5636,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
@@ -5686,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
@@ -5736,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="B77" s="4" t="s">
         <v>232</v>
       </c>
@@ -5786,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="B78" s="4" t="s">
         <v>232</v>
       </c>
@@ -5836,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
@@ -5889,7 +5905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -5942,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
@@ -5995,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="B82" s="4" t="s">
         <v>246</v>
       </c>
@@ -6045,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="B83" s="4" t="s">
         <v>246</v>
       </c>
@@ -6095,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="B84" s="4" t="s">
         <v>249</v>
       </c>
@@ -6145,7 +6161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="B85" s="4" t="s">
         <v>254</v>
       </c>
@@ -6195,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="B86" s="4" t="s">
         <v>254</v>
       </c>
@@ -6245,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="B87" s="4" t="s">
         <v>258</v>
       </c>
@@ -6295,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="B88" s="4" t="s">
         <v>258</v>
       </c>
@@ -6345,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="B89" s="4" t="s">
         <v>262</v>
       </c>
@@ -6395,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="B90" s="4" t="s">
         <v>264</v>
       </c>
@@ -6445,7 +6461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="B91" s="4" t="s">
         <v>267</v>
       </c>
@@ -6495,7 +6511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="B92" s="4" t="s">
         <v>269</v>
       </c>
@@ -6545,7 +6561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="B93" s="4" t="s">
         <v>271</v>
       </c>
@@ -6595,7 +6611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="B94" s="4" t="s">
         <v>275</v>
       </c>
@@ -6645,7 +6661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="B95" s="4" t="s">
         <v>278</v>
       </c>
@@ -6695,7 +6711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="B96" s="4" t="s">
         <v>281</v>
       </c>
@@ -6745,7 +6761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="B97" s="4" t="s">
         <v>283</v>
       </c>
@@ -6795,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="B98" s="4" t="s">
         <v>286</v>
       </c>
@@ -6843,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="B99" s="4" t="s">
         <v>288</v>
       </c>
@@ -6893,7 +6909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="B100" s="4" t="s">
         <v>288</v>
       </c>
@@ -6943,7 +6959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
         <v>237</v>
       </c>
@@ -6996,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="B102" s="4" t="s">
         <v>296</v>
       </c>
@@ -7046,7 +7062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="B103" s="4" t="s">
         <v>299</v>
       </c>
@@ -7096,7 +7112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="B104" s="4" t="s">
         <v>299</v>
       </c>
@@ -7146,7 +7162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="B105" s="4" t="s">
         <v>304</v>
       </c>
@@ -7196,7 +7212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="B106" s="4" t="s">
         <v>304</v>
       </c>
@@ -7246,7 +7262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="B107" s="4" t="s">
         <v>307</v>
       </c>
@@ -7296,7 +7312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="B108" s="4" t="s">
         <v>307</v>
       </c>
@@ -7346,7 +7362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="B109" s="4" t="s">
         <v>311</v>
       </c>
@@ -7396,7 +7412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
         <v>237</v>
       </c>
@@ -7449,7 +7465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
         <v>237</v>
       </c>
@@ -7502,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="B112" s="4" t="s">
         <v>318</v>
       </c>
@@ -7552,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>237</v>
       </c>
@@ -7605,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="B114" s="4" t="s">
         <v>323</v>
       </c>
@@ -7655,7 +7671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>237</v>
       </c>
@@ -7708,7 +7724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="B116" s="4" t="s">
         <v>326</v>
       </c>
@@ -7758,7 +7774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="B117" s="4" t="s">
         <v>328</v>
       </c>
@@ -7808,7 +7824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="B118" s="4" t="s">
         <v>331</v>
       </c>
@@ -7858,7 +7874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="B119" s="4" t="s">
         <v>333</v>
       </c>
@@ -7908,7 +7924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="B120" s="4" t="s">
         <v>334</v>
       </c>
@@ -7958,7 +7974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="B121" s="4" t="s">
         <v>334</v>
       </c>
@@ -8008,7 +8024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="B122" s="4" t="s">
         <v>339</v>
       </c>
@@ -8058,7 +8074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="B123" s="4" t="s">
         <v>341</v>
       </c>
@@ -8108,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="B124" s="4" t="s">
         <v>344</v>
       </c>
@@ -8158,7 +8174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="B125" s="4" t="s">
         <v>347</v>
       </c>
@@ -8208,7 +8224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17">
       <c r="B126" s="4" t="s">
         <v>350</v>
       </c>
@@ -8258,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
         <v>237</v>
       </c>
@@ -8311,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
         <v>237</v>
       </c>
@@ -8364,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="B129" s="4" t="s">
         <v>354</v>
       </c>
@@ -8414,7 +8430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="B130" s="7" t="s">
         <v>354</v>
       </c>
@@ -8448,7 +8464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="B131" s="4" t="s">
         <v>358</v>
       </c>
@@ -8498,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="B132" s="4" t="s">
         <v>362</v>
       </c>
@@ -8548,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="1" t="s">
         <v>237</v>
       </c>
@@ -8601,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="B134" s="4" t="s">
         <v>366</v>
       </c>
@@ -8651,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="B135" s="4" t="s">
         <v>370</v>
       </c>
@@ -8701,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="B136" s="4" t="s">
         <v>373</v>
       </c>
@@ -8751,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="1" t="s">
         <v>237</v>
       </c>
@@ -8788,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="B138" s="4" t="s">
         <v>377</v>
       </c>
@@ -8838,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="B139" s="4" t="s">
         <v>377</v>
       </c>
@@ -8888,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17">
       <c r="B140" s="4" t="s">
         <v>382</v>
       </c>
@@ -8936,7 +8952,7 @@
       </c>
       <c r="Q140" s="19"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17">
       <c r="B141" s="4" t="s">
         <v>382</v>
       </c>
@@ -8986,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17">
       <c r="B142" s="4" t="s">
         <v>386</v>
       </c>
@@ -9034,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17">
       <c r="B143" s="4" t="s">
         <v>389</v>
       </c>
@@ -9084,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17">
       <c r="B144" s="4" t="s">
         <v>391</v>
       </c>
@@ -9134,7 +9150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17">
       <c r="B145" s="4" t="s">
         <v>395</v>
       </c>
@@ -9184,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17">
       <c r="B146" s="4" t="s">
         <v>397</v>
       </c>
@@ -9234,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17">
       <c r="B147" s="4" t="s">
         <v>399</v>
       </c>
@@ -9284,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17">
       <c r="B148" s="7" t="s">
         <v>399</v>
       </c>
@@ -9316,7 +9332,7 @@
       <c r="P148" s="26"/>
       <c r="Q148" s="19"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17">
       <c r="B149" s="4" t="s">
         <v>403</v>
       </c>
@@ -9366,7 +9382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17">
       <c r="B150" s="4" t="s">
         <v>407</v>
       </c>
@@ -9416,7 +9432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17">
       <c r="B151" s="4" t="s">
         <v>408</v>
       </c>
@@ -9466,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17">
       <c r="B152" s="4" t="s">
         <v>411</v>
       </c>
@@ -9516,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17">
       <c r="A153" s="1" t="s">
         <v>237</v>
       </c>
@@ -9569,7 +9585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17">
       <c r="A154" s="1" t="s">
         <v>237</v>
       </c>
@@ -9622,7 +9638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17">
       <c r="B155" s="4" t="s">
         <v>419</v>
       </c>
@@ -9672,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17">
       <c r="B156" s="4" t="s">
         <v>419</v>
       </c>
@@ -9722,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17">
       <c r="B157" s="4" t="s">
         <v>419</v>
       </c>
@@ -9772,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17">
       <c r="B158" s="4" t="s">
         <v>424</v>
       </c>
@@ -9822,7 +9838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17">
       <c r="B159" s="4" t="s">
         <v>426</v>
       </c>
@@ -9872,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17">
       <c r="B160" s="4" t="s">
         <v>426</v>
       </c>
@@ -9922,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:17">
       <c r="B161" s="4" t="s">
         <v>430</v>
       </c>
@@ -9972,7 +9988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:17">
       <c r="B162" s="4" t="s">
         <v>432</v>
       </c>
@@ -10022,7 +10038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:17">
       <c r="B163" s="4" t="s">
         <v>434</v>
       </c>
@@ -10072,7 +10088,107 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:17">
+      <c r="B164" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I164" s="15">
+        <v>4</v>
+      </c>
+      <c r="J164" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="K164" s="15">
+        <v>4</v>
+      </c>
+      <c r="L164" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="M164" s="21">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N164" s="11">
+        <v>14.29</v>
+      </c>
+      <c r="O164" s="6">
+        <v>43858</v>
+      </c>
+      <c r="P164" s="25">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="Q164" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17">
+      <c r="B165" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I165" s="15">
+        <v>4</v>
+      </c>
+      <c r="J165" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="K165" s="15">
+        <v>4</v>
+      </c>
+      <c r="L165" s="11">
+        <v>60.18</v>
+      </c>
+      <c r="M165" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="N165" s="11">
+        <v>100</v>
+      </c>
+      <c r="O165" s="6">
+        <v>43858</v>
+      </c>
+      <c r="P165" s="25">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="Q165" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>
       </c>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A8818-5F08-44DE-A72C-2C63EA45BC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC78D4FA-3E81-4802-A09A-116D21BA270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="3075" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
+    <workbookView xWindow="4215" yWindow="4845" windowWidth="21615" windowHeight="11355" xr2:uid="{9D32CD73-66AA-DF45-930B-57BFCDBED0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="446">
   <si>
     <t>Date</t>
   </si>
@@ -1555,6 +1555,22 @@
   </si>
   <si>
     <t>use char ==</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Outermost Parentheses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack研究对称性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1993,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914384AD-4934-744A-8C44-1EF839F36E18}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -10188,6 +10204,56 @@
         <v>32</v>
       </c>
     </row>
+    <row r="166" spans="2:17">
+      <c r="B166" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I166" s="15">
+        <v>0</v>
+      </c>
+      <c r="J166" s="11">
+        <v>100</v>
+      </c>
+      <c r="K166" s="15">
+        <v>4</v>
+      </c>
+      <c r="L166" s="11">
+        <v>89.52</v>
+      </c>
+      <c r="M166" s="21">
+        <v>9.1</v>
+      </c>
+      <c r="N166" s="11">
+        <v>67.5</v>
+      </c>
+      <c r="O166" s="6">
+        <v>43859</v>
+      </c>
+      <c r="P166" s="25">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="Q166" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="3:3">
       <c r="C1048576" s="4" t="s">
         <v>94</v>
